--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="73">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -52,10 +53,13 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -76,37 +80,109 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -115,7 +191,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -540,28 +643,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -610,16 +713,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -648,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -683,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -715,28 +818,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -750,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -768,10 +871,10 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -785,16 +888,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -803,10 +906,10 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -820,16 +923,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -852,34 +955,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1000,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -911,13 +1014,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -925,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -939,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -956,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -970,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -981,10 +1084,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -995,10 +1098,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.7</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1009,13 +1112,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,10 +1126,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1040,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1061,16 +1164,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1078,16 +1181,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1095,16 +1198,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D3">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1112,13 +1215,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1129,16 +1232,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1146,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1163,13 +1266,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1183,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1197,16 +1300,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1214,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1231,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1258,69 +1361,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>74.18000000000001</v>
+        <v>53.5</v>
       </c>
       <c r="C2">
-        <v>25.23</v>
+        <v>24.2</v>
       </c>
       <c r="D2">
-        <v>0.59</v>
+        <v>13.3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1329,121 +1432,121 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>21.41</v>
+        <v>20.7</v>
       </c>
       <c r="C3">
-        <v>40.76000000000001</v>
+        <v>30.3</v>
       </c>
       <c r="D3">
-        <v>27.43</v>
+        <v>19.7</v>
       </c>
       <c r="E3">
-        <v>8.540000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="F3">
-        <v>1.71</v>
+        <v>8.1</v>
       </c>
       <c r="G3">
-        <v>0.14</v>
+        <v>2.6</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>99.98999999999999</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>3.73</v>
+        <v>7.9</v>
       </c>
       <c r="C4">
-        <v>22.98</v>
+        <v>12.9</v>
       </c>
       <c r="D4">
-        <v>34.86</v>
+        <v>16.8</v>
       </c>
       <c r="E4">
-        <v>24.9</v>
+        <v>15.6</v>
       </c>
       <c r="F4">
-        <v>10.52</v>
+        <v>13.1</v>
       </c>
       <c r="G4">
-        <v>2.68</v>
+        <v>13.5</v>
       </c>
       <c r="H4">
-        <v>0.33</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
-        <v>99.67</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.64</v>
+        <v>10.1</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>12.6</v>
       </c>
       <c r="D5">
-        <v>23.05</v>
+        <v>14.6</v>
       </c>
       <c r="E5">
-        <v>29.68</v>
+        <v>16.1</v>
       </c>
       <c r="F5">
-        <v>23.59</v>
+        <v>11.7</v>
       </c>
       <c r="G5">
-        <v>10.55</v>
+        <v>10.8</v>
       </c>
       <c r="H5">
-        <v>3.51</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5">
-        <v>0.53</v>
+        <v>5.6</v>
       </c>
       <c r="J5">
-        <v>0.05</v>
+        <v>6.2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>95.91</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1451,227 +1554,227 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>3.3</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6">
-        <v>10.52</v>
+        <v>11.8</v>
       </c>
       <c r="E6">
-        <v>22.73</v>
+        <v>16.8</v>
       </c>
       <c r="F6">
-        <v>28.28</v>
+        <v>16.9</v>
       </c>
       <c r="G6">
-        <v>21.61</v>
+        <v>14.6</v>
       </c>
       <c r="H6">
-        <v>11.17</v>
+        <v>10.6</v>
       </c>
       <c r="I6">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
       <c r="J6">
-        <v>0.45</v>
+        <v>4.6</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>85.48</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="C7">
-        <v>0.31</v>
+        <v>4.4</v>
       </c>
       <c r="D7">
-        <v>2.93</v>
+        <v>7.9</v>
       </c>
       <c r="E7">
-        <v>10.67</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>21.66</v>
+        <v>13.6</v>
       </c>
       <c r="G7">
-        <v>29.12</v>
+        <v>13.3</v>
       </c>
       <c r="H7">
-        <v>22.59</v>
+        <v>14.1</v>
       </c>
       <c r="I7">
-        <v>10.71</v>
+        <v>13.7</v>
       </c>
       <c r="J7">
-        <v>1.96</v>
+        <v>9.9</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L7">
-        <v>64.69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>0.58</v>
+        <v>6.9</v>
       </c>
       <c r="E8">
-        <v>3.1</v>
+        <v>7.9</v>
       </c>
       <c r="F8">
-        <v>11.13</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>23.61</v>
+        <v>10.8</v>
       </c>
       <c r="H8">
-        <v>30.27</v>
+        <v>12.4</v>
       </c>
       <c r="I8">
-        <v>21.93</v>
+        <v>10.7</v>
       </c>
       <c r="J8">
-        <v>8.790000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="K8">
-        <v>0.5700000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="L8">
-        <v>38.44</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D9">
-        <v>0.04</v>
+        <v>2.3</v>
       </c>
       <c r="E9">
-        <v>0.37</v>
+        <v>4.3</v>
       </c>
       <c r="F9">
-        <v>2.91</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>10.91</v>
+        <v>13.8</v>
       </c>
       <c r="H9">
-        <v>23.83</v>
+        <v>17.7</v>
       </c>
       <c r="I9">
-        <v>35.29</v>
+        <v>19.7</v>
       </c>
       <c r="J9">
-        <v>23.09</v>
+        <v>18.1</v>
       </c>
       <c r="K9">
-        <v>3.56</v>
+        <v>13.2</v>
       </c>
       <c r="L9">
-        <v>14.23</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>5.7</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>7.8</v>
       </c>
       <c r="G10">
-        <v>1.38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10">
-        <v>8.290000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="I10">
-        <v>28.06</v>
+        <v>14.3</v>
       </c>
       <c r="J10">
-        <v>41.05</v>
+        <v>17.6</v>
       </c>
       <c r="K10">
-        <v>21.01</v>
+        <v>23.8</v>
       </c>
       <c r="L10">
-        <v>1.59</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="I11">
-        <v>0.58</v>
+        <v>19.3</v>
       </c>
       <c r="J11">
-        <v>24.61</v>
+        <v>21.9</v>
       </c>
       <c r="K11">
-        <v>74.81</v>
+        <v>24.3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>22.1</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +1783,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>125.19</v>
+      </c>
+      <c r="E2">
+        <v>250.38</v>
+      </c>
+      <c r="F2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>121.29</v>
+      </c>
+      <c r="E3">
+        <v>242.58</v>
+      </c>
+      <c r="F3">
+        <v>94.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>116.38</v>
+      </c>
+      <c r="E4">
+        <v>232.76</v>
+      </c>
+      <c r="F4">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>115.95</v>
+      </c>
+      <c r="E5">
+        <v>231.9</v>
+      </c>
+      <c r="F5">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>117.16</v>
+      </c>
+      <c r="E6">
+        <v>234.32</v>
+      </c>
+      <c r="F6">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>104.18</v>
+      </c>
+      <c r="E7">
+        <v>208.36</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>92.06</v>
+      </c>
+      <c r="E8">
+        <v>184.12</v>
+      </c>
+      <c r="F8">
+        <v>39.8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="E9">
+        <v>197.86</v>
+      </c>
+      <c r="F9">
+        <v>31.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>101.26</v>
+      </c>
+      <c r="E10">
+        <v>202.52</v>
+      </c>
+      <c r="F10">
+        <v>31.1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>94.55000000000001</v>
+      </c>
+      <c r="E11">
+        <v>189.1</v>
+      </c>
+      <c r="F11">
+        <v>22.1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1689,16 +2091,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1706,16 +2108,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1723,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1740,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +2176,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,16 +2210,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1842,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1859,147 +2261,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2280,327 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>-7</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>-13</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="83">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -152,43 +152,73 @@
     <t>7.5-6.5</t>
   </si>
   <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
     <t>7.0-7.0</t>
   </si>
   <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
+    <t>6.0-8.0</t>
   </si>
   <si>
     <t>5.5-8.5</t>
   </si>
   <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>↑6</t>
@@ -1402,37 +1432,37 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>53.5</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="D2">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="F2">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="G2">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
         <v>0.2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1440,113 +1470,113 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>20.7</v>
+        <v>21.9</v>
       </c>
       <c r="C3">
-        <v>30.3</v>
+        <v>27.2</v>
       </c>
       <c r="D3">
-        <v>19.7</v>
+        <v>20.8</v>
       </c>
       <c r="E3">
-        <v>13.1</v>
+        <v>11.9</v>
       </c>
       <c r="F3">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="G3">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
         <v>0.2</v>
       </c>
       <c r="L3">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>7.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C4">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="D4">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="E4">
         <v>15.6</v>
       </c>
       <c r="F4">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="G4">
-        <v>13.5</v>
+        <v>11.6</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I4">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J4">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="K4">
         <v>2.8</v>
       </c>
       <c r="L4">
-        <v>79.8</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="C5">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
       <c r="D5">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="E5">
-        <v>16.1</v>
+        <v>14.3</v>
       </c>
       <c r="F5">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="G5">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="H5">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I5">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="J5">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1554,37 +1584,37 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="C6">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="E6">
-        <v>16.8</v>
+        <v>18.6</v>
       </c>
       <c r="F6">
-        <v>16.9</v>
+        <v>16.2</v>
       </c>
       <c r="G6">
-        <v>14.6</v>
+        <v>13.9</v>
       </c>
       <c r="H6">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="I6">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="J6">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K6">
         <v>3.2</v>
       </c>
       <c r="L6">
-        <v>72.09999999999999</v>
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1592,37 +1622,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D7">
-        <v>7.9</v>
+        <v>9.9</v>
       </c>
       <c r="E7">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="F7">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="G7">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="H7">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>13.7</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="K7">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1630,37 +1660,37 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D8">
-        <v>6.9</v>
+        <v>4.2</v>
       </c>
       <c r="E8">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="G8">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="H8">
-        <v>12.4</v>
+        <v>10.3</v>
       </c>
       <c r="I8">
-        <v>10.7</v>
+        <v>15.9</v>
       </c>
       <c r="J8">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="K8">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="L8">
-        <v>39.8</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1668,37 +1698,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
         <v>2.3</v>
       </c>
       <c r="E9">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G9">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="H9">
-        <v>17.7</v>
+        <v>16.6</v>
       </c>
       <c r="I9">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="J9">
-        <v>18.1</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
       <c r="L9">
-        <v>31.3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1706,37 +1736,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D10">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="E10">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="F10">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="I10">
-        <v>14.3</v>
+        <v>12.8</v>
       </c>
       <c r="J10">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="K10">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="L10">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1747,34 +1777,34 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E11">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="G11">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>12.4</v>
+        <v>13.4</v>
       </c>
       <c r="I11">
         <v>19.3</v>
       </c>
       <c r="J11">
-        <v>21.9</v>
+        <v>23.8</v>
       </c>
       <c r="K11">
-        <v>24.3</v>
+        <v>22.5</v>
       </c>
       <c r="L11">
-        <v>22.1</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1833,13 +1863,13 @@
         <v>250.38</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1859,18 +1889,18 @@
         <v>242.58</v>
       </c>
       <c r="F3">
-        <v>94.5</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1879,24 +1909,24 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>116.38</v>
+        <v>115.95</v>
       </c>
       <c r="E4">
-        <v>232.76</v>
+        <v>231.9</v>
       </c>
       <c r="F4">
-        <v>79.80000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1905,19 +1935,19 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>115.95</v>
+        <v>116.38</v>
       </c>
       <c r="E5">
-        <v>231.9</v>
+        <v>232.76</v>
       </c>
       <c r="F5">
-        <v>75.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1937,13 +1967,13 @@
         <v>234.32</v>
       </c>
       <c r="F6">
-        <v>72.09999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1963,13 +1993,13 @@
         <v>208.36</v>
       </c>
       <c r="F7">
-        <v>54</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1989,13 +2019,13 @@
         <v>184.12</v>
       </c>
       <c r="F8">
-        <v>39.8</v>
+        <v>38.1</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2015,13 +2045,13 @@
         <v>197.86</v>
       </c>
       <c r="F9">
-        <v>31.3</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2041,13 +2071,13 @@
         <v>202.52</v>
       </c>
       <c r="F10">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2067,13 +2097,13 @@
         <v>189.1</v>
       </c>
       <c r="F11">
-        <v>22.1</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2083,194 +2113,227 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
         <v>-13</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2288,10 +2351,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>55</v>
@@ -2308,7 +2371,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2322,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2336,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2350,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2364,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2378,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2392,7 +2455,7 @@
         <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2406,7 +2469,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2420,7 +2483,7 @@
         <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2434,7 +2497,7 @@
         <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2452,25 +2515,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="87">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -53,13 +53,16 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -134,40 +137,43 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
   </si>
   <si>
     <t>7.4-6.6</t>
   </si>
   <si>
+    <t>7.8-6.2</t>
+  </si>
+  <si>
     <t>7.0-7.0</t>
   </si>
   <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
@@ -176,12 +182,12 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -191,30 +197,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
   </si>
   <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Hark Nanda</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
@@ -224,31 +230,37 @@
     <t>↑6</t>
   </si>
   <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -679,13 +691,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -697,7 +709,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -714,16 +726,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -732,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -749,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -767,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -784,10 +796,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -802,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -813,31 +825,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -851,28 +863,28 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -880,34 +892,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -918,31 +930,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -997,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1030,13 +1042,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1044,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1058,13 +1070,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1072,13 +1084,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1086,13 +1098,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1100,13 +1112,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1114,13 +1126,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1128,10 +1140,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1142,13 +1154,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1159,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1173,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1194,16 +1206,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1214,13 +1226,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="D2">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1228,16 +1240,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1245,13 +1257,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1262,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1279,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="D6">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1296,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
-        <v>-0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1313,16 +1325,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>-1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1330,16 +1342,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>-1.7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1347,16 +1359,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-      <c r="D10">
-        <v>-1.3</v>
-      </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1364,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>-0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1391,40 +1403,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1432,379 +1444,379 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>41.7</v>
       </c>
       <c r="C2">
-        <v>27.2</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="E2">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="F2">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L2">
-        <v>99.09999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>21.9</v>
+        <v>17.7</v>
       </c>
       <c r="C3">
-        <v>27.2</v>
+        <v>16.6</v>
       </c>
       <c r="D3">
-        <v>20.8</v>
+        <v>14.4</v>
       </c>
       <c r="E3">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="F3">
-        <v>7.9</v>
+        <v>12.5</v>
       </c>
       <c r="G3">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="I3">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="L3">
-        <v>94.2</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="C4">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="D4">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="E4">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F4">
-        <v>12.3</v>
+        <v>15.4</v>
       </c>
       <c r="G4">
         <v>11.6</v>
       </c>
       <c r="H4">
-        <v>7.6</v>
+        <v>10.1</v>
       </c>
       <c r="I4">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J4">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>8.9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>11.8</v>
+        <v>15.2</v>
       </c>
       <c r="D5">
-        <v>15.5</v>
+        <v>13.2</v>
       </c>
       <c r="E5">
-        <v>14.3</v>
+        <v>12.3</v>
       </c>
       <c r="F5">
-        <v>13.2</v>
+        <v>10.7</v>
       </c>
       <c r="G5">
-        <v>11.4</v>
+        <v>10.2</v>
       </c>
       <c r="H5">
         <v>9.4</v>
       </c>
       <c r="I5">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="J5">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K5">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>75.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>12.6</v>
+        <v>9.6</v>
       </c>
       <c r="E6">
-        <v>18.6</v>
+        <v>12.9</v>
       </c>
       <c r="F6">
-        <v>16.2</v>
+        <v>12.5</v>
       </c>
       <c r="G6">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="H6">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="I6">
-        <v>6.5</v>
+        <v>10.2</v>
       </c>
       <c r="J6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K6">
         <v>5.1</v>
       </c>
-      <c r="K6">
-        <v>3.2</v>
-      </c>
       <c r="L6">
-        <v>73.59999999999999</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="D7">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
       <c r="E7">
         <v>11.4</v>
       </c>
       <c r="F7">
-        <v>13.9</v>
+        <v>11.7</v>
       </c>
       <c r="G7">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="H7">
-        <v>13.4</v>
+        <v>11.5</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>7.1</v>
       </c>
       <c r="D8">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>7.5</v>
+        <v>10.3</v>
       </c>
       <c r="F8">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="G8">
-        <v>10.7</v>
+        <v>14.3</v>
       </c>
       <c r="H8">
-        <v>10.3</v>
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>15.9</v>
+        <v>11.4</v>
       </c>
       <c r="J8">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>21.2</v>
+        <v>7.2</v>
       </c>
       <c r="L8">
-        <v>38.1</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="D9">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="E9">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>9.6</v>
+        <v>12.7</v>
       </c>
       <c r="G9">
-        <v>14.5</v>
+        <v>12.4</v>
       </c>
       <c r="H9">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="I9">
-        <v>19.3</v>
+        <v>15.4</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="K9">
-        <v>12.1</v>
+        <v>4.4</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="E10">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="F10">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="G10">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
-        <v>13.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I10">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="J10">
-        <v>17.5</v>
+        <v>21.5</v>
       </c>
       <c r="K10">
-        <v>24.8</v>
+        <v>36.6</v>
       </c>
       <c r="L10">
-        <v>31.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F11">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="H11">
-        <v>13.4</v>
+        <v>7.8</v>
       </c>
       <c r="I11">
-        <v>19.3</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>23.8</v>
+        <v>27.4</v>
       </c>
       <c r="K11">
-        <v>22.5</v>
+        <v>34.7</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>14.1</v>
       </c>
     </row>
   </sheetData>
@@ -1822,28 +1834,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1851,259 +1863,259 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2">
-        <v>125.19</v>
+        <v>125.0333333333333</v>
       </c>
       <c r="E2">
-        <v>250.38</v>
+        <v>375.1</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>121.29</v>
+        <v>116.9866666666667</v>
       </c>
       <c r="E3">
-        <v>242.58</v>
+        <v>350.96</v>
       </c>
       <c r="F3">
-        <v>94.19999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4">
-        <v>115.95</v>
+        <v>116.56</v>
       </c>
       <c r="E4">
-        <v>231.9</v>
+        <v>349.68</v>
       </c>
       <c r="F4">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>116.38</v>
+        <v>112.4533333333333</v>
       </c>
       <c r="E5">
-        <v>232.76</v>
+        <v>337.36</v>
       </c>
       <c r="F5">
-        <v>75.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6">
-        <v>117.16</v>
+        <v>112.3333333333333</v>
       </c>
       <c r="E6">
-        <v>234.32</v>
+        <v>337</v>
       </c>
       <c r="F6">
-        <v>73.59999999999999</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>104.18</v>
+        <v>112.0866666666667</v>
       </c>
       <c r="E7">
-        <v>208.36</v>
+        <v>336.26</v>
       </c>
       <c r="F7">
-        <v>55.00000000000001</v>
+        <v>60.5</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>92.06</v>
+        <v>111.5933333333333</v>
       </c>
       <c r="E8">
-        <v>184.12</v>
+        <v>334.78</v>
       </c>
       <c r="F8">
-        <v>38.1</v>
+        <v>57.4</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>98.93000000000001</v>
+        <v>98.60666666666668</v>
       </c>
       <c r="E9">
-        <v>197.86</v>
+        <v>295.8200000000001</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>101.26</v>
+        <v>88.62666666666667</v>
       </c>
       <c r="E10">
-        <v>202.52</v>
+        <v>265.88</v>
       </c>
       <c r="F10">
-        <v>31.2</v>
+        <v>18.7</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D11">
-        <v>94.55000000000001</v>
+        <v>84.93333333333334</v>
       </c>
       <c r="E11">
-        <v>189.1</v>
+        <v>254.8</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>14.1</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2121,19 +2133,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2141,19 +2153,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2161,19 +2173,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2181,19 +2193,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2201,19 +2213,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2221,19 +2233,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2241,19 +2253,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2261,19 +2273,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2281,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2304,16 +2316,16 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2324,16 +2336,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2343,136 +2355,163 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>-6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="C8">
         <v>-2</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2482,11 +2521,14 @@
       <c r="C10">
         <v>-7</v>
       </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,8 +2538,11 @@
       <c r="C11">
         <v>-13</v>
       </c>
-      <c r="D11" t="s">
-        <v>73</v>
+      <c r="D11">
+        <v>-17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2507,7 +2552,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2515,25 +2560,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2645,25 +2690,103 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-17</v>
+      </c>
+      <c r="F8">
+        <v>-13</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="90">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -53,16 +53,19 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,22 +140,28 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.2-5.8</t>
   </si>
   <si>
     <t>7.8-6.2</t>
@@ -161,16 +170,16 @@
     <t>7.0-7.0</t>
   </si>
   <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>4.9-9.1</t>
+  </si>
+  <si>
+    <t>4.2-9.8</t>
   </si>
   <si>
     <t>9-5</t>
@@ -182,10 +191,13 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
-    <t>6-8</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -197,63 +209,57 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
     <t>suraj bhalani</t>
   </si>
   <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Kiran MADUGULA</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -261,6 +267,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -694,10 +703,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -706,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -729,10 +738,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -752,22 +761,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -776,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -787,22 +796,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -811,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -822,34 +831,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -857,31 +866,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -892,31 +901,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -939,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -962,31 +971,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>11</v>
@@ -1042,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1059,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1073,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1084,13 +1093,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1098,10 +1107,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1112,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1126,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1140,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1154,10 +1163,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1171,10 +1180,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1185,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1206,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1223,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D2">
-        <v>1.1</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1240,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1260,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1274,16 +1283,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D5">
-        <v>-0.3</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1291,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1308,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1325,13 +1334,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1342,16 +1351,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D9">
-        <v>-1.7</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1368,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1379,13 +1388,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1403,40 +1412,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1444,379 +1453,379 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>41.7</v>
+        <v>18.2</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>18.8</v>
       </c>
       <c r="D2">
-        <v>13.8</v>
+        <v>19.6</v>
       </c>
       <c r="E2">
-        <v>7.1</v>
+        <v>17.9</v>
       </c>
       <c r="F2">
-        <v>5.1</v>
+        <v>10.7</v>
       </c>
       <c r="G2">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="H2">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>96</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>17.7</v>
+        <v>28.1</v>
       </c>
       <c r="C3">
-        <v>16.6</v>
+        <v>17.9</v>
       </c>
       <c r="D3">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
       <c r="E3">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="F3">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="G3">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="J3">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>83.3</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>6.4</v>
+        <v>15.2</v>
       </c>
       <c r="C4">
-        <v>11.7</v>
+        <v>17.5</v>
       </c>
       <c r="D4">
-        <v>16.6</v>
+        <v>19.5</v>
       </c>
       <c r="E4">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F4">
-        <v>15.4</v>
+        <v>12.3</v>
       </c>
       <c r="G4">
-        <v>11.6</v>
+        <v>9.4</v>
       </c>
       <c r="H4">
-        <v>10.1</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>6.2</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>77.40000000000001</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>17.8</v>
       </c>
       <c r="C5">
-        <v>15.2</v>
+        <v>18.9</v>
       </c>
       <c r="D5">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="E5">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
       <c r="F5">
-        <v>10.7</v>
+        <v>14.4</v>
       </c>
       <c r="G5">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="H5">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="I5">
-        <v>8.4</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="L5">
-        <v>75.59999999999999</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>14.8</v>
       </c>
       <c r="D6">
-        <v>9.6</v>
+        <v>12.7</v>
       </c>
       <c r="E6">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
       <c r="F6">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="G6">
-        <v>13.7</v>
+        <v>11.4</v>
       </c>
       <c r="H6">
-        <v>12.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I6">
-        <v>10.2</v>
+        <v>4.7</v>
       </c>
       <c r="J6">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="K6">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="L6">
-        <v>64.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="C7">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>11.4</v>
+        <v>8.9</v>
       </c>
       <c r="E7">
-        <v>11.4</v>
+        <v>10.2</v>
       </c>
       <c r="F7">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="G7">
-        <v>12.6</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>11.5</v>
+        <v>15.6</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="K7">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>60.5</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
+        <v>1.7</v>
+      </c>
+      <c r="C8">
         <v>3.8</v>
       </c>
-      <c r="C8">
-        <v>7.1</v>
-      </c>
       <c r="D8">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="E8">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="F8">
-        <v>11.9</v>
+        <v>15.1</v>
       </c>
       <c r="G8">
-        <v>14.3</v>
+        <v>18.5</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>18.6</v>
       </c>
       <c r="I8">
-        <v>11.4</v>
+        <v>12.9</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="K8">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>57.4</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>7.2</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="F9">
-        <v>12.7</v>
+        <v>6.6</v>
       </c>
       <c r="G9">
-        <v>12.4</v>
+        <v>10.5</v>
       </c>
       <c r="H9">
-        <v>15.8</v>
+        <v>17.9</v>
       </c>
       <c r="I9">
-        <v>15.4</v>
+        <v>27.7</v>
       </c>
       <c r="J9">
-        <v>11.5</v>
+        <v>19.7</v>
       </c>
       <c r="K9">
-        <v>4.4</v>
+        <v>11.4</v>
       </c>
       <c r="L9">
-        <v>52.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="F10">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="G10">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="H10">
-        <v>9.300000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="I10">
-        <v>13.9</v>
+        <v>18.6</v>
       </c>
       <c r="J10">
-        <v>21.5</v>
+        <v>33.3</v>
       </c>
       <c r="K10">
-        <v>36.6</v>
+        <v>29.1</v>
       </c>
       <c r="L10">
-        <v>18.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>12.3</v>
       </c>
       <c r="J11">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>34.7</v>
+        <v>52.3</v>
       </c>
       <c r="L11">
-        <v>14.1</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -1834,28 +1843,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1863,259 +1872,259 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>125.0333333333333</v>
+        <v>124.12</v>
       </c>
       <c r="E2">
-        <v>375.1</v>
+        <v>496.48</v>
       </c>
       <c r="F2">
-        <v>96</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>116.9866666666667</v>
+        <v>120.69</v>
       </c>
       <c r="E3">
-        <v>350.96</v>
+        <v>482.76</v>
       </c>
       <c r="F3">
-        <v>83.3</v>
+        <v>90.5</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>116.56</v>
+        <v>106.315</v>
       </c>
       <c r="E4">
-        <v>349.68</v>
+        <v>425.26</v>
       </c>
       <c r="F4">
-        <v>77.40000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>112.4533333333333</v>
+        <v>125.465</v>
       </c>
       <c r="E5">
-        <v>337.36</v>
+        <v>501.86</v>
       </c>
       <c r="F5">
-        <v>75.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>112.3333333333333</v>
+        <v>126.665</v>
       </c>
       <c r="E6">
-        <v>337</v>
+        <v>506.66</v>
       </c>
       <c r="F6">
-        <v>64.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>112.0866666666667</v>
+        <v>112.62</v>
       </c>
       <c r="E7">
-        <v>336.26</v>
+        <v>450.48</v>
       </c>
       <c r="F7">
-        <v>60.5</v>
+        <v>62.4</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>111.5933333333333</v>
+        <v>118.92</v>
       </c>
       <c r="E8">
-        <v>334.78</v>
+        <v>475.68</v>
       </c>
       <c r="F8">
-        <v>57.4</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>98.60666666666668</v>
+        <v>105.465</v>
       </c>
       <c r="E9">
-        <v>295.8200000000001</v>
+        <v>421.86</v>
       </c>
       <c r="F9">
-        <v>52.90000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>88.62666666666667</v>
+        <v>83.89</v>
       </c>
       <c r="E10">
-        <v>265.88</v>
+        <v>335.56</v>
       </c>
       <c r="F10">
-        <v>18.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>84.93333333333334</v>
+        <v>79.345</v>
       </c>
       <c r="E11">
-        <v>254.8</v>
+        <v>317.38</v>
       </c>
       <c r="F11">
-        <v>14.1</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2133,19 +2142,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2153,19 +2162,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2173,19 +2182,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2196,16 +2205,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2216,16 +2225,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2233,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2253,19 +2262,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2273,19 +2282,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2293,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -2313,19 +2322,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2333,19 +2342,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2355,61 +2364,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2422,11 +2440,14 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2439,110 +2460,131 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>-7</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>-6</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>-4</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-2</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
       <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-13</v>
+      </c>
+      <c r="D10">
+        <v>-17</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-7</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-13</v>
       </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-13</v>
-      </c>
-      <c r="D11">
-        <v>-17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
+      <c r="E11">
+        <v>-19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2552,7 +2594,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2560,25 +2602,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2586,25 +2628,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="F2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2615,22 +2657,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2641,22 +2683,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2667,22 +2709,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2690,25 +2732,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2716,25 +2758,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2742,25 +2784,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
       <c r="E8">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2771,21 +2813,73 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>-17</v>
+      </c>
+      <c r="F9">
+        <v>-13</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="89">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -140,61 +140,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
+    <t>3-1</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
     <t>4-0</t>
   </si>
   <si>
     <t>1-3</t>
   </si>
   <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.2-5.8</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.0-7.0</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.9-9.1</t>
-  </si>
-  <si>
-    <t>4.2-9.8</t>
+    <t>8.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>8.3-5.6-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.2-0.1</t>
+  </si>
+  <si>
+    <t>8.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.1</t>
+  </si>
+  <si>
+    <t>7.1-6.8-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>5.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>4.8-9.2-0.1</t>
+  </si>
+  <si>
+    <t>4.2-9.7</t>
+  </si>
+  <si>
+    <t>8-6</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
-  </si>
-  <si>
-    <t>5-9</t>
   </si>
   <si>
     <t>4-10</t>
@@ -1450,78 +1447,78 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>18.2</v>
+        <v>24.1</v>
       </c>
       <c r="C2">
-        <v>18.8</v>
+        <v>18.1</v>
       </c>
       <c r="D2">
-        <v>19.6</v>
+        <v>15.7</v>
       </c>
       <c r="E2">
-        <v>17.9</v>
+        <v>13.4</v>
       </c>
       <c r="F2">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="G2">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="I2">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>92.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>28.1</v>
+        <v>17.3</v>
       </c>
       <c r="C3">
-        <v>17.9</v>
+        <v>20.2</v>
       </c>
       <c r="D3">
-        <v>16.2</v>
+        <v>18.3</v>
       </c>
       <c r="E3">
-        <v>11.4</v>
+        <v>17.6</v>
       </c>
       <c r="F3">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H3">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>90.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1529,37 +1526,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>15.2</v>
+        <v>19.5</v>
       </c>
       <c r="C4">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="D4">
-        <v>19.5</v>
+        <v>14.8</v>
       </c>
       <c r="E4">
-        <v>15.9</v>
+        <v>13.4</v>
       </c>
       <c r="F4">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="G4">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H4">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="J4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>89.8</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1567,31 +1564,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="C5">
-        <v>18.9</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>13.7</v>
+        <v>16.3</v>
       </c>
       <c r="E5">
-        <v>13.7</v>
+        <v>16.2</v>
       </c>
       <c r="F5">
-        <v>14.4</v>
+        <v>11.2</v>
       </c>
       <c r="G5">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="J5">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="K5">
         <v>0.3</v>
@@ -1605,37 +1602,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="C6">
-        <v>14.8</v>
+        <v>15.9</v>
       </c>
       <c r="D6">
-        <v>12.7</v>
+        <v>14.7</v>
       </c>
       <c r="E6">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="F6">
-        <v>13.5</v>
+        <v>14.6</v>
       </c>
       <c r="G6">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="H6">
-        <v>9.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="I6">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="K6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L6">
-        <v>80.90000000000001</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1643,37 +1640,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>8.9</v>
+        <v>10.7</v>
       </c>
       <c r="E7">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
       <c r="F7">
-        <v>13.8</v>
+        <v>15.7</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>16.1</v>
       </c>
       <c r="H7">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="J7">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>62.4</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1681,37 +1678,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>12.2</v>
+        <v>10.3</v>
       </c>
       <c r="F8">
-        <v>15.1</v>
+        <v>14.2</v>
       </c>
       <c r="G8">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>18.6</v>
+        <v>20.7</v>
       </c>
       <c r="I8">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="J8">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>58.6</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1719,37 +1716,37 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="E9">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="F9">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="G9">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="H9">
-        <v>17.9</v>
+        <v>16.4</v>
       </c>
       <c r="I9">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="J9">
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="K9">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="L9">
-        <v>23.3</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1760,34 +1757,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="G10">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="H10">
-        <v>10.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10">
-        <v>18.6</v>
+        <v>17.4</v>
       </c>
       <c r="J10">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="K10">
-        <v>29.1</v>
+        <v>31.6</v>
       </c>
       <c r="L10">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1795,28 +1792,28 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="I11">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="J11">
         <v>26</v>
@@ -1825,7 +1822,7 @@
         <v>52.3</v>
       </c>
       <c r="L11">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1869,22 +1866,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>124.12</v>
+        <v>120.69</v>
       </c>
       <c r="E2">
-        <v>496.48</v>
+        <v>482.76</v>
       </c>
       <c r="F2">
-        <v>92.60000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
@@ -1895,28 +1892,28 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>120.69</v>
+        <v>124.12</v>
       </c>
       <c r="E3">
-        <v>482.76</v>
+        <v>496.48</v>
       </c>
       <c r="F3">
-        <v>90.5</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1936,13 +1933,13 @@
         <v>425.26</v>
       </c>
       <c r="F4">
-        <v>89.8</v>
+        <v>88.5</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1950,7 +1947,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -1968,7 +1965,7 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1976,7 +1973,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1988,13 +1985,13 @@
         <v>506.66</v>
       </c>
       <c r="F6">
-        <v>80.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2002,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -2014,7 +2011,7 @@
         <v>450.48</v>
       </c>
       <c r="F7">
-        <v>62.4</v>
+        <v>65.5</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -2040,7 +2037,7 @@
         <v>475.68</v>
       </c>
       <c r="F8">
-        <v>58.59999999999999</v>
+        <v>54.1</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
@@ -2066,7 +2063,7 @@
         <v>421.86</v>
       </c>
       <c r="F9">
-        <v>23.3</v>
+        <v>25.1</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -2080,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -2092,7 +2089,7 @@
         <v>335.56</v>
       </c>
       <c r="F10">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -2118,13 +2115,13 @@
         <v>317.38</v>
       </c>
       <c r="F11">
-        <v>5.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2145,16 +2142,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2165,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -2174,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2185,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -2194,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2205,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -2214,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2225,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2234,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2245,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2254,7 +2251,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2265,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2274,7 +2271,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2285,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2294,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2305,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2314,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2325,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>-13</v>
@@ -2334,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2345,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>-19</v>
@@ -2354,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2372,19 +2369,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2404,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2424,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2444,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2464,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2484,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2504,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2524,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2544,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2564,7 +2561,7 @@
         <v>-13</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2584,7 +2581,7 @@
         <v>-19</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2602,25 +2599,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="90">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -53,19 +53,22 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -140,60 +143,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>8.6-5.3-0.1</t>
-  </si>
-  <si>
-    <t>8.3-5.6-0.1</t>
-  </si>
-  <si>
-    <t>8.7-5.2-0.1</t>
-  </si>
-  <si>
-    <t>8.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.1</t>
-  </si>
-  <si>
-    <t>7.1-6.8-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>9.4-4.6-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.1-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>8.2-5.7</t>
   </si>
   <si>
     <t>6.4-7.5-0.1</t>
   </si>
   <si>
-    <t>5.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.2-0.1</t>
-  </si>
-  <si>
-    <t>4.2-9.7</t>
+    <t>5.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.8-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.1-8.8-0.1</t>
+  </si>
+  <si>
+    <t>3.9-10.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -206,57 +209,54 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -691,28 +694,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -723,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -744,10 +747,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -758,34 +761,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -793,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -808,16 +811,16 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -828,34 +831,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -863,22 +866,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -887,10 +890,10 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -904,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -913,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -922,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -933,31 +936,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -968,34 +971,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1003,31 +1006,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1048,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1076,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1090,13 +1093,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1104,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1118,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1132,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1146,10 +1149,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1160,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1177,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1212,16 +1215,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1232,10 +1235,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D2">
-        <v>0.7000000000000002</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1246,16 +1249,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>0.6000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1263,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1283,10 +1286,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1297,16 +1300,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2.3</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>-1.7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1314,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1334,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1351,13 +1354,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D9">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1365,16 +1368,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1382,16 +1385,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>-1.1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1409,40 +1412,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1450,37 +1453,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.1</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>18.1</v>
+        <v>23.6</v>
       </c>
       <c r="D2">
-        <v>15.7</v>
+        <v>16.1</v>
       </c>
       <c r="E2">
-        <v>13.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F2">
-        <v>11.6</v>
+        <v>6.4</v>
       </c>
       <c r="G2">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>91.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1488,151 +1491,151 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17.3</v>
+        <v>23.5</v>
       </c>
       <c r="C3">
-        <v>20.2</v>
+        <v>22.9</v>
       </c>
       <c r="D3">
-        <v>18.3</v>
+        <v>22.2</v>
       </c>
       <c r="E3">
-        <v>17.6</v>
+        <v>14.6</v>
       </c>
       <c r="F3">
-        <v>10.2</v>
+        <v>8.9</v>
       </c>
       <c r="G3">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>19.5</v>
+        <v>12.1</v>
       </c>
       <c r="C4">
-        <v>17.8</v>
+        <v>18.4</v>
       </c>
       <c r="D4">
-        <v>14.8</v>
+        <v>17.6</v>
       </c>
       <c r="E4">
-        <v>13.4</v>
+        <v>19.9</v>
       </c>
       <c r="F4">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="G4">
         <v>9.800000000000001</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>88.5</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>18.1</v>
+        <v>16.3</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>18.9</v>
       </c>
       <c r="D5">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E5">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F5">
-        <v>11.2</v>
+        <v>13.4</v>
       </c>
       <c r="G5">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="I5">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K5">
         <v>0.3</v>
       </c>
       <c r="L5">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>14.1</v>
+        <v>8.4</v>
       </c>
       <c r="C6">
-        <v>15.9</v>
+        <v>10.3</v>
       </c>
       <c r="D6">
-        <v>14.7</v>
+        <v>17</v>
       </c>
       <c r="E6">
+        <v>19.2</v>
+      </c>
+      <c r="F6">
+        <v>19.6</v>
+      </c>
+      <c r="G6">
         <v>12.2</v>
       </c>
-      <c r="F6">
-        <v>14.6</v>
-      </c>
-      <c r="G6">
-        <v>11.8</v>
-      </c>
       <c r="H6">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="J6">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1640,37 +1643,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>10.7</v>
+        <v>5.1</v>
       </c>
       <c r="E7">
-        <v>11.8</v>
+        <v>9.1</v>
       </c>
       <c r="F7">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="G7">
-        <v>16.1</v>
+        <v>19.4</v>
       </c>
       <c r="H7">
-        <v>16.6</v>
+        <v>18.5</v>
       </c>
       <c r="I7">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>65.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1678,113 +1681,113 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="E8">
-        <v>10.3</v>
+        <v>4.5</v>
       </c>
       <c r="F8">
-        <v>14.2</v>
+        <v>11.2</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="H8">
-        <v>20.7</v>
+        <v>18.5</v>
       </c>
       <c r="I8">
-        <v>13.4</v>
+        <v>22.2</v>
       </c>
       <c r="J8">
-        <v>8.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>54.1</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
         <v>0.7</v>
       </c>
       <c r="D9">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="G9">
-        <v>11.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9">
-        <v>16.4</v>
+        <v>20.8</v>
       </c>
       <c r="I9">
-        <v>28.5</v>
+        <v>22.9</v>
       </c>
       <c r="J9">
-        <v>20.5</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>9.5</v>
       </c>
       <c r="L9">
-        <v>25.1</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="G10">
-        <v>5.4</v>
+        <v>11.9</v>
       </c>
       <c r="H10">
-        <v>9.199999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="I10">
-        <v>17.4</v>
+        <v>22.2</v>
       </c>
       <c r="J10">
-        <v>33.4</v>
+        <v>26.4</v>
       </c>
       <c r="K10">
-        <v>31.6</v>
+        <v>15</v>
       </c>
       <c r="L10">
-        <v>8.4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1792,37 +1795,37 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
         <v>2.7</v>
       </c>
       <c r="H11">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I11">
-        <v>11.8</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>26</v>
+        <v>20.5</v>
       </c>
       <c r="K11">
-        <v>52.3</v>
+        <v>61.8</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
@@ -1840,28 +1843,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1869,22 +1872,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>120.69</v>
+        <v>125.496</v>
       </c>
       <c r="E2">
-        <v>482.76</v>
+        <v>627.48</v>
       </c>
       <c r="F2">
-        <v>91.10000000000001</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
@@ -1895,22 +1898,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>124.12</v>
+        <v>124.992</v>
       </c>
       <c r="E3">
-        <v>496.48</v>
+        <v>624.96</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
         <v>54</v>
@@ -1918,80 +1921,80 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>106.315</v>
+        <v>122.996</v>
       </c>
       <c r="E4">
-        <v>425.26</v>
+        <v>614.98</v>
       </c>
       <c r="F4">
-        <v>88.5</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>125.465</v>
+        <v>127.472</v>
       </c>
       <c r="E5">
-        <v>501.86</v>
+        <v>637.3599999999999</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>126.665</v>
+        <v>107.016</v>
       </c>
       <c r="E6">
-        <v>506.66</v>
+        <v>535.08</v>
       </c>
       <c r="F6">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1999,25 +2002,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>112.62</v>
+        <v>112.008</v>
       </c>
       <c r="E7">
-        <v>450.48</v>
+        <v>560.04</v>
       </c>
       <c r="F7">
-        <v>65.5</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2025,45 +2028,45 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
-        <v>118.92</v>
+        <v>115.756</v>
       </c>
       <c r="E8">
-        <v>475.68</v>
+        <v>578.78</v>
       </c>
       <c r="F8">
-        <v>54.1</v>
+        <v>36.8</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>105.465</v>
+        <v>90.648</v>
       </c>
       <c r="E9">
-        <v>421.86</v>
+        <v>453.24</v>
       </c>
       <c r="F9">
-        <v>25.1</v>
+        <v>21.8</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -2074,28 +2077,28 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>83.89</v>
+        <v>107.804</v>
       </c>
       <c r="E10">
-        <v>335.56</v>
+        <v>539.02</v>
       </c>
       <c r="F10">
-        <v>8.4</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2103,25 +2106,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>79.345</v>
+        <v>85.00399999999999</v>
       </c>
       <c r="E11">
-        <v>317.38</v>
+        <v>425.02</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2139,19 +2142,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2159,19 +2162,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2179,19 +2182,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2199,19 +2202,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,19 +2222,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2239,19 +2242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2262,16 +2265,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2279,10 +2282,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2291,7 +2294,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2299,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2322,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2342,16 +2345,16 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2361,13 +2364,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2381,110 +2384,128 @@
         <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>-6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2500,51 +2521,60 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2560,11 +2590,14 @@
       <c r="E10">
         <v>-13</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2580,8 +2613,11 @@
       <c r="E11">
         <v>-19</v>
       </c>
-      <c r="F11" t="s">
-        <v>77</v>
+      <c r="F11">
+        <v>-20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2627,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2599,25 +2635,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2651,22 +2687,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F3">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -2680,22 +2716,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2706,22 +2742,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2732,22 +2768,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2755,25 +2791,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2781,25 +2817,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2807,25 +2843,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2833,25 +2869,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>-17</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2859,25 +2895,77 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="97">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -122,6 +123,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -155,28 +174,31 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>9.4-4.6-0.1</t>
+    <t>9.4-4.5-0.1</t>
   </si>
   <si>
     <t>8.8-5.1-0.1</t>
   </si>
   <si>
+    <t>8.2-5.7</t>
+  </si>
+  <si>
     <t>8.2-5.7-0.1</t>
   </si>
   <si>
-    <t>8.2-5.7</t>
+    <t>8.2-5.8-0.1</t>
   </si>
   <si>
     <t>6.4-7.5-0.1</t>
   </si>
   <si>
-    <t>5.6-8.3-0.1</t>
+    <t>5.7-8.3-0.1</t>
   </si>
   <si>
     <t>5.8-8.2-0.1</t>
   </si>
   <si>
-    <t>5.1-8.8-0.1</t>
+    <t>5.2-8.8-0.1</t>
   </si>
   <si>
     <t>3.9-10.1</t>
@@ -1453,37 +1475,37 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>38.8</v>
       </c>
       <c r="C2">
-        <v>23.6</v>
+        <v>21.5</v>
       </c>
       <c r="D2">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="E2">
-        <v>9.300000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="F2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>96.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1491,113 +1513,113 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
       <c r="C3">
-        <v>22.9</v>
+        <v>25.5</v>
       </c>
       <c r="D3">
-        <v>22.2</v>
+        <v>20.8</v>
       </c>
       <c r="E3">
-        <v>14.6</v>
+        <v>16.3</v>
       </c>
       <c r="F3">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="G3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H3">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>96.59999999999999</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>12.1</v>
+        <v>19.2</v>
       </c>
       <c r="C4">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D4">
-        <v>17.6</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>19.9</v>
+        <v>13.6</v>
       </c>
       <c r="F4">
-        <v>13.8</v>
+        <v>14.3</v>
       </c>
       <c r="G4">
-        <v>9.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J4">
         <v>1.5</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>91.59999999999999</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
+        <v>15.2</v>
+      </c>
+      <c r="C5">
         <v>16.3</v>
       </c>
-      <c r="C5">
-        <v>18.9</v>
-      </c>
       <c r="D5">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="E5">
-        <v>16.4</v>
+        <v>17.8</v>
       </c>
       <c r="F5">
-        <v>13.4</v>
+        <v>14.9</v>
       </c>
       <c r="G5">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="H5">
-        <v>4.2</v>
+        <v>5.7</v>
       </c>
       <c r="I5">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0.3</v>
       </c>
       <c r="L5">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1605,37 +1627,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="C6">
-        <v>10.3</v>
+        <v>12.8</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="E6">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="F6">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="G6">
         <v>12.2</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="I6">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>86.7</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1643,37 +1665,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D7">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>9.1</v>
+        <v>11.2</v>
       </c>
       <c r="F7">
-        <v>15.2</v>
+        <v>13.2</v>
       </c>
       <c r="G7">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="H7">
-        <v>18.5</v>
+        <v>19.9</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1681,37 +1703,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="F8">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="G8">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>18.5</v>
+        <v>19.2</v>
       </c>
       <c r="I8">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="J8">
-        <v>14.5</v>
+        <v>15.8</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L8">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1719,37 +1741,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F9">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="G9">
-        <v>9.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="H9">
-        <v>20.8</v>
+        <v>17.1</v>
       </c>
       <c r="I9">
-        <v>22.9</v>
+        <v>21.1</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>26.7</v>
       </c>
       <c r="K9">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="L9">
-        <v>21.8</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1757,37 +1779,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="G10">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="H10">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="I10">
-        <v>22.2</v>
+        <v>24.9</v>
       </c>
       <c r="J10">
-        <v>26.4</v>
+        <v>24.5</v>
       </c>
       <c r="K10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1798,34 +1820,34 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0.4</v>
-      </c>
       <c r="E11">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>61.8</v>
+        <v>63.2</v>
       </c>
       <c r="L11">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -1834,6 +1856,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12.8</v>
+      </c>
+      <c r="C2">
+        <v>77.2</v>
+      </c>
+      <c r="D2">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>91.3</v>
+      </c>
+      <c r="F2">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="G2">
+        <v>97.89999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C3">
+        <v>99.3</v>
+      </c>
+      <c r="D3">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="F3">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="G3">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>99.5</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>57.9</v>
+      </c>
+      <c r="E4">
+        <v>82.8</v>
+      </c>
+      <c r="F4">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>92.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>99.7</v>
+      </c>
+      <c r="C5">
+        <v>95.8</v>
+      </c>
+      <c r="D5">
+        <v>62.1</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>90.5</v>
+      </c>
+      <c r="G5">
+        <v>89.60000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>76.8</v>
+      </c>
+      <c r="C6">
+        <v>26.6</v>
+      </c>
+      <c r="D6">
+        <v>58.5</v>
+      </c>
+      <c r="E6">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="F6">
+        <v>83.3</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10.2</v>
+      </c>
+      <c r="C7">
+        <v>51.8</v>
+      </c>
+      <c r="D7">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>52.1</v>
+      </c>
+      <c r="G7">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>66.2</v>
+      </c>
+      <c r="C8">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="D8">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E8">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="F8">
+        <v>35.6</v>
+      </c>
+      <c r="G8">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>35.7</v>
+      </c>
+      <c r="C9">
+        <v>30.1</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5.5</v>
+      </c>
+      <c r="F9">
+        <v>26.9</v>
+      </c>
+      <c r="G9">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="D10">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>20.8</v>
+      </c>
+      <c r="G10">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>36.7</v>
+      </c>
+      <c r="D11">
+        <v>16.4</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>5.1</v>
+      </c>
+      <c r="G11">
+        <v>4.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1846,25 +2131,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1872,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -1884,13 +2169,13 @@
         <v>627.48</v>
       </c>
       <c r="F2">
-        <v>96.89999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1898,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0.6</v>
@@ -1910,65 +2195,65 @@
         <v>624.96</v>
       </c>
       <c r="F3">
-        <v>96.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4">
-        <v>122.996</v>
+        <v>127.472</v>
       </c>
       <c r="E4">
-        <v>614.98</v>
+        <v>637.3599999999999</v>
       </c>
       <c r="F4">
-        <v>91.60000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0.6</v>
       </c>
       <c r="D5">
-        <v>127.472</v>
+        <v>122.996</v>
       </c>
       <c r="E5">
-        <v>637.3599999999999</v>
+        <v>614.98</v>
       </c>
       <c r="F5">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1976,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0.8</v>
@@ -1988,13 +2273,13 @@
         <v>535.08</v>
       </c>
       <c r="F6">
-        <v>86.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2002,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2014,13 +2299,13 @@
         <v>560.04</v>
       </c>
       <c r="F7">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2028,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0.2</v>
@@ -2040,13 +2325,13 @@
         <v>578.78</v>
       </c>
       <c r="F8">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2054,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -2066,13 +2351,13 @@
         <v>453.24</v>
       </c>
       <c r="F9">
-        <v>21.8</v>
+        <v>24.8</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2080,7 +2365,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>0.2</v>
@@ -2092,13 +2377,13 @@
         <v>539.02</v>
       </c>
       <c r="F10">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2106,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>0.2</v>
@@ -2118,13 +2403,13 @@
         <v>425.02</v>
       </c>
       <c r="F11">
-        <v>4.6</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2145,16 +2430,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2165,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2174,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2185,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2194,7 +2479,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2205,7 +2490,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2214,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2225,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2234,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2245,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2254,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2265,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2274,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2285,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2294,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2305,7 +2590,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>-4</v>
@@ -2314,7 +2599,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2325,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -2334,7 +2619,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2345,7 +2630,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>-20</v>
@@ -2354,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2372,22 +2657,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2410,7 +2695,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2433,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2456,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2479,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2502,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2525,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2548,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2571,7 +2856,7 @@
         <v>-4</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2594,7 +2879,7 @@
         <v>-17</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2617,7 +2902,7 @@
         <v>-20</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -2635,25 +2920,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="104">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -54,22 +54,25 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -141,6 +144,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -162,46 +168,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
   </si>
   <si>
     <t>9.4-4.5-0.1</t>
   </si>
   <si>
+    <t>9.1-4.9-0.1</t>
+  </si>
+  <si>
     <t>8.8-5.1-0.1</t>
   </si>
   <si>
-    <t>8.2-5.7</t>
-  </si>
-  <si>
-    <t>8.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.8-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.8-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.2-8.8-0.1</t>
-  </si>
-  <si>
-    <t>3.9-10.1</t>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>8.0-5.9</t>
+  </si>
+  <si>
+    <t>6.5-7.5-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>5.3-8.6-0.1</t>
+  </si>
+  <si>
+    <t>4.4-9.5-0.1</t>
+  </si>
+  <si>
+    <t>3.6-10.4-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -213,7 +222,7 @@
     <t>8-6</t>
   </si>
   <si>
-    <t>6-8</t>
+    <t>7-7</t>
   </si>
   <si>
     <t>5-9</t>
@@ -222,6 +231,9 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -234,18 +246,18 @@
     <t>Utkarsh Gupta</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>KASHYAP AShok</t>
   </si>
   <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
@@ -261,21 +273,27 @@
     <t>Krishna Padodara</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓4</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -716,31 +737,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -748,31 +769,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -783,34 +804,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -821,31 +842,31 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -853,16 +874,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -877,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -891,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -906,13 +927,13 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -923,16 +944,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -947,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -958,13 +979,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -973,19 +994,19 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -993,22 +1014,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1017,10 +1038,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1040,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -1055,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1073,13 +1094,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1090,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1104,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1118,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1132,10 +1153,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1143,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1157,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1171,10 +1192,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1188,10 +1209,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1199,13 +1220,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1216,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1237,16 +1258,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1257,13 +1278,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D2">
-        <v>0.6000000000000001</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1271,16 +1292,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1288,16 +1309,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>0.3999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1308,10 +1329,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D5">
-        <v>-0.2000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1322,16 +1343,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
-        <v>-1.7</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1339,16 +1360,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1359,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1376,10 +1397,10 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1393,10 +1414,10 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D10">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1410,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D11">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1434,116 +1455,116 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>38.8</v>
+        <v>39.5</v>
       </c>
       <c r="C2">
-        <v>21.5</v>
+        <v>25.8</v>
       </c>
       <c r="D2">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E2">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="G2">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>18.7</v>
+        <v>17.9</v>
       </c>
       <c r="C3">
-        <v>25.5</v>
+        <v>21.3</v>
       </c>
       <c r="D3">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="E3">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
       <c r="G3">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="H3">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>95.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1551,37 +1572,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>19.2</v>
+        <v>26.9</v>
       </c>
       <c r="C4">
-        <v>18.5</v>
+        <v>22.2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>17.6</v>
       </c>
       <c r="E4">
-        <v>13.6</v>
+        <v>14.5</v>
       </c>
       <c r="F4">
-        <v>14.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G4">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="H4">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>90.5</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1589,151 +1610,151 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>15.2</v>
+        <v>4.2</v>
       </c>
       <c r="C5">
+        <v>10.8</v>
+      </c>
+      <c r="D5">
         <v>16.3</v>
       </c>
-      <c r="D5">
-        <v>16.2</v>
-      </c>
       <c r="E5">
-        <v>17.8</v>
+        <v>18.9</v>
       </c>
       <c r="F5">
-        <v>14.9</v>
+        <v>19.9</v>
       </c>
       <c r="G5">
-        <v>9.6</v>
+        <v>15.6</v>
       </c>
       <c r="H5">
-        <v>5.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D6">
-        <v>16.6</v>
+        <v>14.6</v>
       </c>
       <c r="E6">
-        <v>18.4</v>
+        <v>13.9</v>
       </c>
       <c r="F6">
-        <v>18.8</v>
+        <v>18.3</v>
       </c>
       <c r="G6">
-        <v>12.2</v>
+        <v>14.9</v>
       </c>
       <c r="H6">
-        <v>7.9</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L6">
-        <v>85.90000000000001</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
+        <v>6.4</v>
+      </c>
+      <c r="E7">
+        <v>10.7</v>
+      </c>
+      <c r="F7">
+        <v>16.2</v>
+      </c>
+      <c r="G7">
+        <v>21.7</v>
+      </c>
+      <c r="H7">
+        <v>21.7</v>
+      </c>
+      <c r="I7">
+        <v>11.7</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>11.2</v>
-      </c>
-      <c r="F7">
-        <v>13.2</v>
-      </c>
-      <c r="G7">
-        <v>19.3</v>
-      </c>
-      <c r="H7">
-        <v>19.9</v>
-      </c>
-      <c r="I7">
-        <v>13.2</v>
-      </c>
-      <c r="J7">
-        <v>9.6</v>
-      </c>
       <c r="K7">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>53.2</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
       <c r="E8">
-        <v>3.6</v>
+        <v>11.4</v>
       </c>
       <c r="F8">
-        <v>11.1</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>19.9</v>
       </c>
       <c r="H8">
-        <v>19.2</v>
+        <v>24.7</v>
       </c>
       <c r="I8">
-        <v>21.2</v>
+        <v>10.7</v>
       </c>
       <c r="J8">
-        <v>15.8</v>
+        <v>4.6</v>
       </c>
       <c r="K8">
-        <v>7.6</v>
+        <v>1.4</v>
       </c>
       <c r="L8">
-        <v>36.2</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1744,34 +1765,34 @@
         <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>12.7</v>
+        <v>7.9</v>
       </c>
       <c r="H9">
-        <v>17.1</v>
+        <v>14.9</v>
       </c>
       <c r="I9">
-        <v>21.1</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>26.7</v>
+        <v>28.9</v>
       </c>
       <c r="K9">
-        <v>10.3</v>
+        <v>12.4</v>
       </c>
       <c r="L9">
-        <v>24.8</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1779,37 +1800,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="G10">
-        <v>10.3</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>10.4</v>
       </c>
       <c r="I10">
-        <v>24.9</v>
+        <v>26.4</v>
       </c>
       <c r="J10">
-        <v>24.5</v>
+        <v>35.4</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>21.8</v>
       </c>
       <c r="L10">
-        <v>20.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1820,34 +1841,34 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1.3</v>
-      </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>8.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>22.6</v>
       </c>
       <c r="K11">
-        <v>63.2</v>
+        <v>62.3</v>
       </c>
       <c r="L11">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -1857,102 +1878,114 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>12.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C2">
-        <v>77.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D2">
-        <v>76.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E2">
-        <v>91.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F2">
-        <v>96.89999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="G2">
-        <v>97.89999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H2">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C3">
-        <v>99.3</v>
+        <v>35.4</v>
       </c>
       <c r="D3">
-        <v>96.09999999999999</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="E3">
-        <v>94.39999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="F3">
-        <v>97.39999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G3">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H3">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>99.5</v>
+        <v>76.5</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>23.5</v>
       </c>
       <c r="D4">
-        <v>57.9</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="E4">
-        <v>82.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F4">
-        <v>91.40000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="G4">
-        <v>92.30000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>94.8</v>
+      </c>
+      <c r="H4">
+        <v>96.39999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1960,137 +1993,155 @@
         <v>99.7</v>
       </c>
       <c r="C5">
-        <v>95.8</v>
+        <v>95.3</v>
       </c>
       <c r="D5">
-        <v>62.1</v>
+        <v>63.1</v>
       </c>
       <c r="E5">
-        <v>89</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="F5">
-        <v>90.5</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="G5">
-        <v>89.60000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>82.8</v>
+      </c>
+      <c r="H5">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>76.8</v>
+        <v>12.8</v>
       </c>
       <c r="C6">
-        <v>26.6</v>
+        <v>73.8</v>
       </c>
       <c r="D6">
-        <v>58.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E6">
-        <v>85.39999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="F6">
-        <v>83.3</v>
+        <v>97.8</v>
       </c>
       <c r="G6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="H6">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="C7">
-        <v>51.8</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>86.09999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="E7">
-        <v>63</v>
+        <v>61.5</v>
       </c>
       <c r="F7">
-        <v>52.1</v>
+        <v>49.2</v>
       </c>
       <c r="G7">
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>59.9</v>
+      </c>
+      <c r="H7">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="C8">
-        <v>71.89999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="D8">
-        <v>75.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="E8">
-        <v>60.09999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="F8">
-        <v>35.6</v>
+        <v>37.1</v>
       </c>
       <c r="G8">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="H8">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>35.7</v>
+        <v>36.1</v>
       </c>
       <c r="C9">
-        <v>30.1</v>
+        <v>32.5</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="E9">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="F9">
-        <v>26.9</v>
+        <v>25.3</v>
       </c>
       <c r="G9">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>10.4</v>
+      </c>
+      <c r="H9">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C10">
-        <v>78.60000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D10">
-        <v>55.40000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>21.8</v>
       </c>
       <c r="F10">
-        <v>20.8</v>
+        <v>18.4</v>
       </c>
       <c r="G10">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="H10">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2098,19 +2149,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>36.7</v>
+        <v>37.6</v>
       </c>
       <c r="D11">
-        <v>16.4</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="F11">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="G11">
-        <v>4.2</v>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -2128,80 +2182,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>125.496</v>
+        <v>127.72</v>
       </c>
       <c r="E2">
-        <v>627.48</v>
+        <v>766.3200000000001</v>
       </c>
       <c r="F2">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3">
-        <v>124.992</v>
+        <v>110.5866666666667</v>
       </c>
       <c r="E3">
-        <v>624.96</v>
+        <v>663.52</v>
       </c>
       <c r="F3">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2209,25 +2263,25 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>127.472</v>
+        <v>131.7133333333333</v>
       </c>
       <c r="E4">
-        <v>637.3599999999999</v>
+        <v>790.28</v>
       </c>
       <c r="F4">
-        <v>90.5</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2235,103 +2289,103 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>122.996</v>
+        <v>121.0466666666667</v>
       </c>
       <c r="E5">
-        <v>614.98</v>
+        <v>726.28</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>85.7</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>107.016</v>
+        <v>113.1866666666667</v>
       </c>
       <c r="E6">
-        <v>535.08</v>
+        <v>679.12</v>
       </c>
       <c r="F6">
-        <v>85.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>112.008</v>
+        <v>121.3333333333333</v>
       </c>
       <c r="E7">
-        <v>560.04</v>
+        <v>728</v>
       </c>
       <c r="F7">
-        <v>53.2</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>115.756</v>
+        <v>112.07</v>
       </c>
       <c r="E8">
-        <v>578.78</v>
+        <v>672.42</v>
       </c>
       <c r="F8">
-        <v>36.2</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2339,25 +2393,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>90.648</v>
+        <v>87.81333333333333</v>
       </c>
       <c r="E9">
-        <v>453.24</v>
+        <v>526.88</v>
       </c>
       <c r="F9">
-        <v>24.8</v>
+        <v>13.8</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2365,25 +2419,25 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D10">
-        <v>107.804</v>
+        <v>104.8666666666667</v>
       </c>
       <c r="E10">
-        <v>539.02</v>
+        <v>629.2</v>
       </c>
       <c r="F10">
-        <v>20.6</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2391,25 +2445,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>85.00399999999999</v>
+        <v>86.50999999999999</v>
       </c>
       <c r="E11">
-        <v>425.02</v>
+        <v>519.0600000000001</v>
       </c>
       <c r="F11">
-        <v>4.399999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2427,19 +2481,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2450,16 +2504,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2467,19 +2521,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2487,19 +2541,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2507,19 +2561,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2527,19 +2581,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2550,16 +2604,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2570,16 +2624,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2590,16 +2644,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2610,16 +2664,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2630,7 +2684,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>-20</v>
@@ -2639,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2649,33 +2703,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2694,103 +2751,118 @@
       <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-6</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2809,11 +2881,14 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2832,11 +2907,14 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2855,11 +2933,14 @@
       <c r="F9">
         <v>-4</v>
       </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2878,11 +2959,14 @@
       <c r="F10">
         <v>-17</v>
       </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2901,8 +2985,11 @@
       <c r="F11">
         <v>-20</v>
       </c>
-      <c r="G11" t="s">
-        <v>83</v>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2999,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2920,25 +3007,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2972,25 +3059,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-19</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>-20</v>
-      </c>
       <c r="G3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2998,22 +3085,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F4">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -3027,22 +3114,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3053,22 +3140,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3102,25 +3189,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3131,22 +3218,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3157,22 +3244,22 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>-17</v>
-      </c>
-      <c r="F10">
-        <v>-13</v>
-      </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3180,25 +3267,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>-17</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3206,25 +3293,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3232,24 +3319,76 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>7</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="104">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -54,25 +54,28 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -147,6 +150,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -168,72 +174,66 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
   </si>
   <si>
     <t>9.4-4.5-0.1</t>
   </si>
   <si>
-    <t>9.1-4.9-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.1-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>8.0-5.9</t>
-  </si>
-  <si>
-    <t>6.5-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>5.3-8.6-0.1</t>
-  </si>
-  <si>
-    <t>4.4-9.5-0.1</t>
-  </si>
-  <si>
-    <t>3.6-10.4-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
+    <t>8.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.9-5.0</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.2-7.7-0.1</t>
+  </si>
+  <si>
+    <t>5.8-8.1-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.6-0.1</t>
+  </si>
+  <si>
+    <t>4.4-9.5</t>
+  </si>
+  <si>
+    <t>3.9-10.0-0.1</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -243,16 +243,19 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
+    <t>Hayat Khan</t>
   </si>
   <si>
     <t>suraj bhalani</t>
@@ -261,40 +264,34 @@
     <t>Kiran MADUGULA</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -755,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -772,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -787,16 +787,16 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -810,16 +810,16 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -828,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -842,10 +842,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -874,16 +874,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -898,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -909,31 +909,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -944,16 +944,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -962,16 +962,16 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -979,28 +979,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -1014,13 +1014,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1029,19 +1029,19 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1052,19 +1052,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -1073,10 +1073,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1094,13 +1094,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1122,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1136,13 +1136,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1150,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1164,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1178,10 +1178,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1192,13 +1192,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1206,10 +1206,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1223,10 +1223,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1258,16 +1258,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1278,13 +1278,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1295,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1312,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D4">
         <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D5">
-        <v>0.2000000000000002</v>
+        <v>-2.6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1346,13 +1346,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1380,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D8">
-        <v>-0.2000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1397,13 +1397,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1414,13 +1414,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1431,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1455,72 +1455,72 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>39.5</v>
+        <v>22.7</v>
       </c>
       <c r="C2">
-        <v>25.8</v>
+        <v>24.1</v>
       </c>
       <c r="D2">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>20.1</v>
       </c>
       <c r="F2">
-        <v>4.4</v>
+        <v>8.1</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1531,40 +1531,40 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>17.9</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>21.3</v>
+        <v>26.7</v>
       </c>
       <c r="D3">
-        <v>20.7</v>
+        <v>24.5</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F3">
-        <v>11.4</v>
+        <v>6.3</v>
       </c>
       <c r="G3">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1572,28 +1572,28 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>26.9</v>
+        <v>33.3</v>
       </c>
       <c r="C4">
-        <v>22.2</v>
+        <v>23.1</v>
       </c>
       <c r="D4">
-        <v>17.6</v>
+        <v>17.2</v>
       </c>
       <c r="E4">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="F4">
-        <v>8.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G4">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1602,159 +1602,159 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>95.2</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>4.2</v>
+        <v>21.8</v>
       </c>
       <c r="C5">
-        <v>10.8</v>
+        <v>21.1</v>
       </c>
       <c r="D5">
-        <v>16.3</v>
+        <v>23.9</v>
       </c>
       <c r="E5">
-        <v>18.9</v>
+        <v>16.2</v>
       </c>
       <c r="F5">
-        <v>19.9</v>
+        <v>10.4</v>
       </c>
       <c r="G5">
-        <v>15.6</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>9.699999999999999</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>85.7</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="C6">
-        <v>12.5</v>
+        <v>2.3</v>
       </c>
       <c r="D6">
-        <v>14.6</v>
+        <v>4.5</v>
       </c>
       <c r="E6">
-        <v>13.9</v>
+        <v>10.5</v>
       </c>
       <c r="F6">
-        <v>18.3</v>
+        <v>22.2</v>
       </c>
       <c r="G6">
-        <v>14.9</v>
+        <v>19.8</v>
       </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>14.1</v>
       </c>
       <c r="J6">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
-        <v>83.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="E7">
-        <v>10.7</v>
+        <v>6.6</v>
       </c>
       <c r="F7">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="G7">
-        <v>21.7</v>
+        <v>24.8</v>
       </c>
       <c r="H7">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="I7">
-        <v>11.7</v>
+        <v>15.3</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>59.1</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <v>2.8</v>
+      </c>
+      <c r="E8">
+        <v>5.6</v>
+      </c>
+      <c r="F8">
+        <v>14.5</v>
+      </c>
+      <c r="G8">
+        <v>20.8</v>
+      </c>
+      <c r="H8">
+        <v>21.8</v>
+      </c>
+      <c r="I8">
+        <v>18.3</v>
+      </c>
+      <c r="J8">
+        <v>11.2</v>
+      </c>
+      <c r="K8">
         <v>4.1</v>
       </c>
-      <c r="D8">
-        <v>6.9</v>
-      </c>
-      <c r="E8">
-        <v>11.4</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>19.9</v>
-      </c>
-      <c r="H8">
-        <v>24.7</v>
-      </c>
-      <c r="I8">
-        <v>10.7</v>
-      </c>
-      <c r="J8">
-        <v>4.6</v>
-      </c>
-      <c r="K8">
-        <v>1.4</v>
-      </c>
       <c r="L8">
-        <v>58.6</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1762,80 +1762,80 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>13.6</v>
       </c>
       <c r="G9">
-        <v>7.9</v>
+        <v>17.9</v>
       </c>
       <c r="H9">
-        <v>14.9</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>28.9</v>
+        <v>12.7</v>
       </c>
       <c r="K9">
-        <v>12.4</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>13.8</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>10.4</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>26.4</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>35.4</v>
+        <v>30.3</v>
       </c>
       <c r="K10">
-        <v>21.8</v>
+        <v>41.9</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1844,31 +1844,31 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.2</v>
       </c>
-      <c r="E11">
-        <v>0.1</v>
-      </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="I11">
-        <v>10.4</v>
+        <v>15.6</v>
       </c>
       <c r="J11">
-        <v>22.6</v>
+        <v>30.3</v>
       </c>
       <c r="K11">
-        <v>62.3</v>
+        <v>44.3</v>
       </c>
       <c r="L11">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -1878,293 +1878,326 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>98.90000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C2">
-        <v>99.40000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="D2">
-        <v>95.8</v>
+        <v>61.3</v>
       </c>
       <c r="E2">
-        <v>94.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F2">
-        <v>97.39999999999999</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>98.59999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C3">
-        <v>35.4</v>
+        <v>36.2</v>
       </c>
       <c r="D3">
-        <v>59.09999999999999</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="E3">
-        <v>85.39999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="F3">
-        <v>90.90000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G3">
-        <v>95.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="H3">
-        <v>96.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I3">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>76.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C4">
-        <v>23.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D4">
-        <v>58.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="E4">
-        <v>87.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F4">
-        <v>86.8</v>
+        <v>98.2</v>
       </c>
       <c r="G4">
+        <v>98.5</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>12.8</v>
+      </c>
+      <c r="C5">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D5">
+        <v>77.60000000000001</v>
+      </c>
+      <c r="E5">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="G5">
+        <v>83.2</v>
+      </c>
+      <c r="H5">
+        <v>96.2</v>
+      </c>
+      <c r="I5">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C6">
         <v>94.8</v>
       </c>
-      <c r="H4">
-        <v>96.39999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>99.7</v>
-      </c>
-      <c r="C5">
-        <v>95.3</v>
-      </c>
-      <c r="D5">
-        <v>63.1</v>
-      </c>
-      <c r="E5">
-        <v>89.60000000000001</v>
-      </c>
-      <c r="F5">
-        <v>92.80000000000001</v>
-      </c>
-      <c r="G5">
-        <v>82.8</v>
-      </c>
-      <c r="H5">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>12.8</v>
-      </c>
-      <c r="C6">
-        <v>73.8</v>
-      </c>
       <c r="D6">
-        <v>75.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E6">
-        <v>88.8</v>
+        <v>86.7</v>
       </c>
       <c r="F6">
-        <v>97.8</v>
+        <v>91.5</v>
       </c>
       <c r="G6">
-        <v>82.19999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="H6">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>64.3</v>
+      </c>
+      <c r="I6">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>49.2</v>
       </c>
       <c r="D7">
-        <v>85.39999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E7">
-        <v>61.5</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>49.2</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G7">
-        <v>59.9</v>
+        <v>61.7</v>
       </c>
       <c r="H7">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>52.8</v>
+      </c>
+      <c r="I7">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C8">
-        <v>74.8</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>74.5</v>
+        <v>77.2</v>
       </c>
       <c r="E8">
-        <v>62.3</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>37.1</v>
+        <v>30.5</v>
       </c>
       <c r="G8">
-        <v>64.90000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="H8">
-        <v>58.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>40.6</v>
+      </c>
+      <c r="I8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>36.1</v>
+        <v>35.6</v>
       </c>
       <c r="C9">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="E9">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="F9">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="G9">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="H9">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39.4</v>
+      </c>
+      <c r="I9">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>41.9</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>99.8</v>
-      </c>
-      <c r="C10">
-        <v>76.7</v>
-      </c>
-      <c r="D10">
-        <v>54.6</v>
-      </c>
-      <c r="E10">
-        <v>21.8</v>
-      </c>
       <c r="F10">
-        <v>18.4</v>
+        <v>4.9</v>
       </c>
       <c r="G10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
+        <v>6.9</v>
+      </c>
+      <c r="I10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>78.2</v>
+      </c>
+      <c r="D11">
+        <v>52.2</v>
+      </c>
+      <c r="E11">
+        <v>22.1</v>
+      </c>
+      <c r="F11">
+        <v>19.9</v>
+      </c>
+      <c r="G11">
         <v>8.799999999999999</v>
       </c>
-      <c r="H10">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>37.6</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>4.3</v>
-      </c>
-      <c r="F11">
-        <v>4.3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
       <c r="H11">
-        <v>1.6</v>
+        <v>4.8</v>
+      </c>
+      <c r="I11">
+        <v>4.399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2182,80 +2215,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>127.72</v>
+        <v>111.2</v>
       </c>
       <c r="E2">
-        <v>766.3200000000001</v>
+        <v>778.4</v>
       </c>
       <c r="F2">
         <v>99.09999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>110.5866666666667</v>
+        <v>129.0428571428571</v>
       </c>
       <c r="E3">
-        <v>663.52</v>
+        <v>903.3000000000001</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2263,129 +2296,129 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>131.7133333333333</v>
+        <v>130.9314285714285</v>
       </c>
       <c r="E4">
-        <v>790.28</v>
+        <v>916.5199999999999</v>
       </c>
       <c r="F4">
-        <v>95.19999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>121.0466666666667</v>
+        <v>123.48</v>
       </c>
       <c r="E5">
-        <v>726.28</v>
+        <v>864.36</v>
       </c>
       <c r="F5">
-        <v>85.7</v>
+        <v>96.5</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6">
-        <v>113.1866666666667</v>
+        <v>112.32</v>
       </c>
       <c r="E6">
-        <v>679.12</v>
+        <v>786.24</v>
       </c>
       <c r="F6">
-        <v>83.2</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>121.3333333333333</v>
+        <v>112.5028571428571</v>
       </c>
       <c r="E7">
-        <v>728</v>
+        <v>787.52</v>
       </c>
       <c r="F7">
-        <v>59.09999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D8">
-        <v>112.07</v>
+        <v>117.8914285714286</v>
       </c>
       <c r="E8">
-        <v>672.42</v>
+        <v>825.24</v>
       </c>
       <c r="F8">
-        <v>58.59999999999999</v>
+        <v>44.6</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2393,74 +2426,74 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D9">
-        <v>87.81333333333333</v>
+        <v>93.36285714285714</v>
       </c>
       <c r="E9">
-        <v>526.88</v>
+        <v>653.54</v>
       </c>
       <c r="F9">
-        <v>13.8</v>
+        <v>41.8</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>104.8666666666667</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E10">
-        <v>629.2</v>
+        <v>641.1999999999999</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D11">
-        <v>86.50999999999999</v>
+        <v>104.1028571428571</v>
       </c>
       <c r="E11">
-        <v>519.0600000000001</v>
+        <v>728.72</v>
       </c>
       <c r="F11">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>69</v>
@@ -2481,7 +2514,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>70</v>
@@ -2490,7 +2523,7 @@
         <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>72</v>
@@ -2501,13 +2534,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -2521,16 +2554,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>84</v>
@@ -2541,19 +2574,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2561,19 +2594,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2581,19 +2614,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2601,19 +2634,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2621,16 +2654,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -2647,13 +2680,13 @@
         <v>80</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2661,16 +2694,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>89</v>
@@ -2681,19 +2714,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2703,218 +2736,242 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-6</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
       <c r="C4">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2936,60 +2993,69 @@
       <c r="G9">
         <v>-2</v>
       </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <v>-19</v>
+      </c>
+      <c r="F10">
+        <v>-20</v>
+      </c>
+      <c r="G10">
+        <v>-20</v>
+      </c>
+      <c r="H10">
+        <v>-17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>-5</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-13</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-17</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-13</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-17</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-19</v>
       </c>
-      <c r="H10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-13</v>
-      </c>
-      <c r="E11">
-        <v>-19</v>
-      </c>
-      <c r="F11">
-        <v>-20</v>
-      </c>
-      <c r="G11">
-        <v>-20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>90</v>
+      <c r="H11">
+        <v>-23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3085,25 +3151,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3111,22 +3177,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>-17</v>
       </c>
       <c r="F5">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -3137,25 +3203,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F6">
-        <v>-13</v>
+        <v>-20</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3166,22 +3232,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3189,25 +3255,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3241,25 +3307,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3267,25 +3333,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>-17</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3293,25 +3359,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3319,25 +3385,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3348,22 +3414,22 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>-17</v>
+      </c>
+      <c r="F14">
+        <v>-13</v>
+      </c>
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3371,25 +3437,25 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
+      <c r="H15" t="s">
         <v>7</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -168,21 +168,24 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
     <t>Most_Likely_Record</t>
   </si>
   <si>
+    <t>5-2</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
     <t>4-3</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
     <t>3-4</t>
   </si>
   <si>
@@ -192,37 +195,40 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>9.4-4.5-0.1</t>
-  </si>
-  <si>
-    <t>8.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>8.9-5.0</t>
+    <t>9.1-4.8</t>
+  </si>
+  <si>
+    <t>9.5-4.4-0.1</t>
+  </si>
+  <si>
+    <t>8.8-5.1-0.1</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
   </si>
   <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>6.2-7.7-0.1</t>
-  </si>
-  <si>
-    <t>5.8-8.1-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.6-0.1</t>
-  </si>
-  <si>
-    <t>4.4-9.5</t>
-  </si>
-  <si>
-    <t>3.9-10.0-0.1</t>
+    <t>6.2-7.8-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.2</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>4.0-10.0-0.1</t>
   </si>
   <si>
     <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>7-7</t>
@@ -1493,116 +1499,116 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>22.7</v>
+        <v>30.9</v>
       </c>
       <c r="C2">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="D2">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>20.1</v>
+        <v>15.5</v>
       </c>
       <c r="F2">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="G2">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>26.4</v>
       </c>
       <c r="C3">
-        <v>26.7</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24.5</v>
+        <v>20.3</v>
       </c>
       <c r="E3">
-        <v>18.1</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>33.3</v>
+        <v>18.6</v>
       </c>
       <c r="C4">
-        <v>23.1</v>
+        <v>24.8</v>
       </c>
       <c r="D4">
-        <v>17.2</v>
+        <v>27.8</v>
       </c>
       <c r="E4">
-        <v>15.3</v>
+        <v>17.4</v>
       </c>
       <c r="F4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>2.7</v>
       </c>
       <c r="H4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1610,34 +1616,34 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>21.8</v>
+        <v>22.9</v>
       </c>
       <c r="C5">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="D5">
-        <v>23.9</v>
+        <v>21.5</v>
       </c>
       <c r="E5">
-        <v>16.2</v>
+        <v>18.9</v>
       </c>
       <c r="F5">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>96.5</v>
@@ -1651,34 +1657,34 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D6">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="E6">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="F6">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="G6">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>15.6</v>
       </c>
       <c r="I6">
-        <v>14.1</v>
+        <v>11.8</v>
       </c>
       <c r="J6">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K6">
         <v>2.5</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1686,37 +1692,37 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E7">
-        <v>6.6</v>
+        <v>8.1</v>
       </c>
       <c r="F7">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="G7">
-        <v>24.8</v>
+        <v>22.3</v>
       </c>
       <c r="H7">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="I7">
-        <v>15.3</v>
+        <v>17.6</v>
       </c>
       <c r="J7">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>52.1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1727,34 +1733,34 @@
         <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="E8">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="G8">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="H8">
-        <v>21.8</v>
+        <v>21.2</v>
       </c>
       <c r="I8">
-        <v>18.3</v>
+        <v>20.4</v>
       </c>
       <c r="J8">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="K8">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L8">
-        <v>44.6</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1762,37 +1768,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="F9">
-        <v>13.6</v>
+        <v>14.6</v>
       </c>
       <c r="G9">
-        <v>17.9</v>
+        <v>19.4</v>
       </c>
       <c r="H9">
+        <v>21.3</v>
+      </c>
+      <c r="I9">
         <v>20</v>
       </c>
-      <c r="I9">
-        <v>21</v>
-      </c>
       <c r="J9">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="L9">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1803,34 +1809,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E10">
         <v>0.4</v>
       </c>
       <c r="F10">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="J10">
-        <v>30.3</v>
+        <v>28.4</v>
       </c>
       <c r="K10">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="L10">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1847,28 +1853,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G11">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="I11">
-        <v>15.6</v>
+        <v>14.2</v>
       </c>
       <c r="J11">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -1912,31 +1918,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>75.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C2">
-        <v>21.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D2">
-        <v>61.3</v>
+        <v>95.3</v>
       </c>
       <c r="E2">
-        <v>86.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>86</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G2">
-        <v>93.30000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="H2">
-        <v>98.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="I2">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1944,57 +1950,57 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C3">
-        <v>36.2</v>
+        <v>33.6</v>
       </c>
       <c r="D3">
-        <v>56.89999999999999</v>
+        <v>58.5</v>
       </c>
       <c r="E3">
-        <v>85.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="F3">
-        <v>91.60000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="G3">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="H3">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="I3">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>99.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="C4">
-        <v>99.09999999999999</v>
+        <v>25.4</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="E4">
-        <v>95.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="F4">
-        <v>98.2</v>
+        <v>85</v>
       </c>
       <c r="G4">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="H4">
         <v>98.5</v>
       </c>
-      <c r="H4">
-        <v>98</v>
-      </c>
       <c r="I4">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2002,28 +2008,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="C5">
-        <v>75.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D5">
-        <v>77.60000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E5">
-        <v>90.40000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="F5">
-        <v>98</v>
+        <v>96.3</v>
       </c>
       <c r="G5">
-        <v>83.2</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="H5">
+        <v>96.7</v>
+      </c>
+      <c r="I5">
         <v>96.2</v>
-      </c>
-      <c r="I5">
-        <v>96.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2031,86 +2037,86 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C6">
-        <v>94.8</v>
+        <v>95.8</v>
       </c>
       <c r="D6">
-        <v>66.7</v>
+        <v>64.3</v>
       </c>
       <c r="E6">
-        <v>86.7</v>
+        <v>88.3</v>
       </c>
       <c r="F6">
-        <v>91.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G6">
-        <v>82.69999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="H6">
-        <v>64.3</v>
+        <v>61.8</v>
       </c>
       <c r="I6">
-        <v>63.4</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>10.1</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C7">
-        <v>49.2</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D7">
-        <v>82.89999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="E7">
-        <v>61</v>
+        <v>58.8</v>
       </c>
       <c r="F7">
-        <v>55.00000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="G7">
-        <v>61.7</v>
+        <v>62.2</v>
       </c>
       <c r="H7">
-        <v>52.8</v>
+        <v>44</v>
       </c>
       <c r="I7">
-        <v>48.8</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>67.40000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>49.3</v>
       </c>
       <c r="D8">
-        <v>77.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E8">
-        <v>61</v>
+        <v>62.9</v>
       </c>
       <c r="F8">
-        <v>30.5</v>
+        <v>49.9</v>
       </c>
       <c r="G8">
-        <v>62.2</v>
+        <v>62.5</v>
       </c>
       <c r="H8">
-        <v>40.6</v>
+        <v>51.5</v>
       </c>
       <c r="I8">
-        <v>43</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2118,28 +2124,28 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>35.6</v>
+        <v>34.9</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="D9">
-        <v>13.2</v>
+        <v>15.1</v>
       </c>
       <c r="E9">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>24.4</v>
+        <v>26.6</v>
       </c>
       <c r="G9">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="H9">
-        <v>39.4</v>
+        <v>38.6</v>
       </c>
       <c r="I9">
-        <v>42.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2150,25 +2156,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>41.9</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17.6</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="I10">
-        <v>5.2</v>
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2176,28 +2182,28 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>78.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D11">
-        <v>52.2</v>
+        <v>56.3</v>
       </c>
       <c r="E11">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="F11">
-        <v>19.9</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>8.799999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H11">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I11">
-        <v>4.399999999999999</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -2207,13 +2213,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2238,91 +2244,103 @@
       <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2">
+        <v>130.9314285714285</v>
+      </c>
+      <c r="E2">
+        <v>916.5199999999999</v>
+      </c>
+      <c r="F2">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>111.2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>778.4</v>
       </c>
-      <c r="F2">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="F3">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>129.0428571428571</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>903.3000000000001</v>
       </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D4">
-        <v>130.9314285714285</v>
-      </c>
-      <c r="E4">
-        <v>916.5199999999999</v>
-      </c>
       <c r="F4">
-        <v>98.8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
+        <v>98.3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -2336,19 +2354,22 @@
       <c r="F5">
         <v>96.5</v>
       </c>
-      <c r="G5" t="s">
-        <v>59</v>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>0.4285714285714285</v>
@@ -2360,21 +2381,24 @@
         <v>786.24</v>
       </c>
       <c r="F6">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
+        <v>61.8</v>
+      </c>
+      <c r="G6">
+        <v>2.5</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -2386,21 +2410,24 @@
         <v>787.52</v>
       </c>
       <c r="F7">
-        <v>52.1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>2.9</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>0.2857142857142857</v>
@@ -2412,21 +2439,24 @@
         <v>825.24</v>
       </c>
       <c r="F8">
-        <v>44.6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
+        <v>42.8</v>
+      </c>
+      <c r="G8">
+        <v>4.5</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.5714285714285714</v>
@@ -2438,21 +2468,24 @@
         <v>653.54</v>
       </c>
       <c r="F9">
-        <v>41.8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
+        <v>41.9</v>
+      </c>
+      <c r="G9">
+        <v>3.9</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -2464,21 +2497,24 @@
         <v>641.1999999999999</v>
       </c>
       <c r="F10">
-        <v>4.8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
+        <v>6.7</v>
+      </c>
+      <c r="G10">
+        <v>42.2</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>0.1428571428571428</v>
@@ -2490,13 +2526,16 @@
         <v>728.72</v>
       </c>
       <c r="F11">
-        <v>3.3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
+        <v>4.7</v>
+      </c>
+      <c r="G11">
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2517,16 +2556,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2537,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -2546,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2557,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -2566,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2577,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -2586,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2597,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2606,7 +2645,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2617,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2626,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2637,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -2646,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2657,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>-5</v>
@@ -2666,7 +2705,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2677,7 +2716,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>-6</v>
@@ -2686,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2697,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -2706,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2717,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>-23</v>
@@ -2726,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2744,28 +2783,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2794,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2823,7 +2862,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2852,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2881,7 +2920,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2910,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2939,7 +2978,7 @@
         <v>-1</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2968,7 +3007,7 @@
         <v>-5</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2997,7 +3036,7 @@
         <v>-6</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3026,7 +3065,7 @@
         <v>-17</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3055,7 +3094,7 @@
         <v>-23</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3073,25 +3112,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="113">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -54,28 +54,31 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +156,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -177,66 +183,72 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>9.1-4.8</t>
-  </si>
-  <si>
-    <t>9.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>8.8-5.1-0.1</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>6.2-7.8-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.2</t>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>10.2-3.7</t>
+  </si>
+  <si>
+    <t>8.9-5.1</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>7.1-6.9-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
   </si>
   <si>
     <t>6.4-7.6</t>
   </si>
   <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>4.0-10.0-0.1</t>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>3.6-10.3-0.1</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
@@ -252,15 +264,15 @@
     <t>Harshit Aggarwal</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>KASHYAP AShok</t>
   </si>
   <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
@@ -270,34 +282,40 @@
     <t>Kiran MADUGULA</t>
   </si>
   <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑9</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -319,6 +337,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -743,31 +764,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -775,34 +796,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -810,34 +831,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -851,28 +872,28 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -880,31 +901,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -918,31 +939,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -950,34 +971,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -988,31 +1009,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1023,25 +1044,25 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
@@ -1055,13 +1076,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1070,13 +1091,13 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1100,13 +1121,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1114,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1128,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1142,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1156,13 +1177,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1170,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1184,13 +1205,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1198,13 +1219,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1212,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1229,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1243,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1264,16 +1285,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1281,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D2">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1298,16 +1319,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1318,13 +1339,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1335,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D5">
         <v>-2.6</v>
@@ -1352,13 +1373,13 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1369,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D7">
-        <v>0.2000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1386,10 +1407,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D8">
-        <v>0.2000000000000002</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1400,13 +1421,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>1.6</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1417,16 +1438,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1443,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1461,69 +1482,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>30.9</v>
+        <v>45.5</v>
       </c>
       <c r="C2">
-        <v>24.9</v>
+        <v>27.6</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>15.8</v>
       </c>
       <c r="E2">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="F2">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1532,121 +1553,121 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>98.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>26.4</v>
+        <v>16.5</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>20.3</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>20.2</v>
       </c>
       <c r="F3">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="G3">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>18.6</v>
+        <v>23.1</v>
       </c>
       <c r="C4">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D4">
-        <v>27.8</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>17.4</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>10.1</v>
       </c>
       <c r="G4">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>22.9</v>
+        <v>13.9</v>
       </c>
       <c r="C5">
-        <v>20.7</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="E5">
-        <v>18.9</v>
+        <v>24.9</v>
       </c>
       <c r="F5">
-        <v>9.1</v>
+        <v>12.6</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H5">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="I5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1657,191 +1678,191 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>11.7</v>
+        <v>14.7</v>
       </c>
       <c r="F6">
-        <v>22.5</v>
+        <v>24.7</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>22.7</v>
       </c>
       <c r="H6">
-        <v>15.6</v>
+        <v>13.3</v>
       </c>
       <c r="I6">
-        <v>11.8</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>8.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="L6">
-        <v>61.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="E7">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7">
-        <v>15.7</v>
+        <v>18.5</v>
       </c>
       <c r="G7">
-        <v>22.3</v>
+        <v>26.8</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="I7">
-        <v>17.6</v>
+        <v>15.5</v>
       </c>
       <c r="J7">
-        <v>8.5</v>
+        <v>4.4</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F8">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="G8">
-        <v>20.6</v>
+        <v>17.8</v>
       </c>
       <c r="H8">
-        <v>21.2</v>
+        <v>26.3</v>
       </c>
       <c r="I8">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="J8">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="K8">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
-        <v>42.8</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0.2</v>
       </c>
-      <c r="C9">
-        <v>0.9</v>
-      </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="E9">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="F9">
-        <v>14.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G9">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="H9">
-        <v>21.3</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J9">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
       <c r="K9">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>41.9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H10">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="I10">
-        <v>14.2</v>
+        <v>11.6</v>
       </c>
       <c r="J10">
-        <v>28.4</v>
+        <v>35.8</v>
       </c>
       <c r="K10">
-        <v>42.2</v>
+        <v>45.5</v>
       </c>
       <c r="L10">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1853,28 +1874,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H11">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>14.2</v>
+        <v>11.3</v>
       </c>
       <c r="J11">
-        <v>30</v>
+        <v>34.5</v>
       </c>
       <c r="K11">
-        <v>44</v>
+        <v>48.7</v>
       </c>
       <c r="L11">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1884,326 +1905,359 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>74.3</v>
+      </c>
+      <c r="C2">
+        <v>26.6</v>
+      </c>
+      <c r="D2">
+        <v>55.60000000000001</v>
+      </c>
+      <c r="E2">
+        <v>86.3</v>
+      </c>
+      <c r="F2">
+        <v>83</v>
+      </c>
+      <c r="G2">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="H2">
+        <v>98.3</v>
+      </c>
+      <c r="I2">
+        <v>99.8</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C2">
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="E3">
+        <v>95.7</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H3">
+        <v>97.89999999999999</v>
+      </c>
+      <c r="I3">
         <v>98.59999999999999</v>
       </c>
-      <c r="D2">
-        <v>95.3</v>
-      </c>
-      <c r="E2">
-        <v>95</v>
-      </c>
-      <c r="F2">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="G2">
-        <v>98.7</v>
-      </c>
-      <c r="H2">
-        <v>99.2</v>
-      </c>
-      <c r="I2">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="J3">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>12.4</v>
+      </c>
+      <c r="C4">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D4">
+        <v>75.2</v>
+      </c>
+      <c r="E4">
+        <v>90.5</v>
+      </c>
+      <c r="F4">
+        <v>97.5</v>
+      </c>
+      <c r="G4">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="H4">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="I4">
+        <v>98.5</v>
+      </c>
+      <c r="J4">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>99.7</v>
-      </c>
-      <c r="C3">
-        <v>33.6</v>
-      </c>
-      <c r="D3">
-        <v>58.5</v>
-      </c>
-      <c r="E3">
-        <v>84.8</v>
-      </c>
-      <c r="F3">
-        <v>90.3</v>
-      </c>
-      <c r="G3">
-        <v>96.5</v>
-      </c>
-      <c r="H3">
-        <v>98.8</v>
-      </c>
-      <c r="I3">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>75.3</v>
-      </c>
-      <c r="C4">
-        <v>25.4</v>
-      </c>
-      <c r="D4">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="E4">
-        <v>87</v>
-      </c>
-      <c r="F4">
+      <c r="B5">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C5">
+        <v>34.7</v>
+      </c>
+      <c r="D5">
+        <v>56.89999999999999</v>
+      </c>
+      <c r="E5">
         <v>85</v>
       </c>
-      <c r="G4">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="H4">
-        <v>98.5</v>
-      </c>
-      <c r="I4">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>13.9</v>
-      </c>
-      <c r="C5">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D5">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E5">
-        <v>90.7</v>
-      </c>
       <c r="F5">
-        <v>96.3</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G5">
-        <v>82.89999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="H5">
-        <v>96.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I5">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="J5">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C6">
-        <v>95.8</v>
+        <v>94.8</v>
       </c>
       <c r="D6">
-        <v>64.3</v>
+        <v>64.8</v>
       </c>
       <c r="E6">
-        <v>88.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F6">
-        <v>90.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="G6">
-        <v>83.89999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="H6">
-        <v>61.8</v>
+        <v>63.1</v>
       </c>
       <c r="I6">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J6">
+        <v>69.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>65.90000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C7">
-        <v>73.40000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D7">
-        <v>74.2</v>
+        <v>74.7</v>
       </c>
       <c r="E7">
-        <v>58.8</v>
+        <v>61.6</v>
       </c>
       <c r="F7">
-        <v>36.2</v>
+        <v>35.4</v>
       </c>
       <c r="G7">
-        <v>62.2</v>
+        <v>62.5</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>41.7</v>
       </c>
       <c r="I7">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>61.7</v>
+      </c>
+      <c r="J7">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>38.8</v>
+      </c>
+      <c r="C8">
+        <v>32.1</v>
+      </c>
+      <c r="D8">
+        <v>15.8</v>
+      </c>
+      <c r="E8">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="F8">
+        <v>24.3</v>
+      </c>
+      <c r="G8">
+        <v>10.1</v>
+      </c>
+      <c r="H8">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="I8">
+        <v>36.5</v>
+      </c>
+      <c r="J8">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>11.4</v>
-      </c>
-      <c r="C8">
-        <v>49.3</v>
-      </c>
-      <c r="D8">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="E8">
-        <v>62.9</v>
-      </c>
-      <c r="F8">
-        <v>49.9</v>
-      </c>
-      <c r="G8">
-        <v>62.5</v>
-      </c>
-      <c r="H8">
-        <v>51.5</v>
-      </c>
-      <c r="I8">
-        <v>45.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>11.3</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E9">
+        <v>62.8</v>
+      </c>
+      <c r="F9">
+        <v>53.1</v>
+      </c>
+      <c r="G9">
+        <v>60.4</v>
+      </c>
+      <c r="H9">
+        <v>55.1</v>
+      </c>
+      <c r="I9">
+        <v>34.2</v>
+      </c>
+      <c r="J9">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>99.8</v>
+      </c>
+      <c r="C10">
+        <v>76.3</v>
+      </c>
+      <c r="D10">
+        <v>54.3</v>
+      </c>
+      <c r="E10">
+        <v>21.1</v>
+      </c>
+      <c r="F10">
+        <v>21.3</v>
+      </c>
+      <c r="G10">
+        <v>8.6</v>
+      </c>
+      <c r="H10">
+        <v>4.9</v>
+      </c>
+      <c r="I10">
+        <v>1.8</v>
+      </c>
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>38.6</v>
+      </c>
+      <c r="D11">
+        <v>21.2</v>
+      </c>
+      <c r="E11">
+        <v>4.7</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>1.9</v>
+      </c>
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>34.9</v>
-      </c>
-      <c r="C9">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="D9">
-        <v>15.1</v>
-      </c>
-      <c r="E9">
-        <v>5.2</v>
-      </c>
-      <c r="F9">
-        <v>26.6</v>
-      </c>
-      <c r="G9">
-        <v>10.6</v>
-      </c>
-      <c r="H9">
-        <v>38.6</v>
-      </c>
-      <c r="I9">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>17.6</v>
-      </c>
-      <c r="E10">
-        <v>5.5</v>
-      </c>
-      <c r="F10">
-        <v>5.2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>6.4</v>
-      </c>
-      <c r="I10">
-        <v>5.600000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C11">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D11">
-        <v>56.3</v>
-      </c>
-      <c r="E11">
-        <v>21.8</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>7.6</v>
-      </c>
-      <c r="H11">
-        <v>4.5</v>
-      </c>
       <c r="I11">
-        <v>4.3</v>
+        <v>0.8</v>
+      </c>
+      <c r="J11">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -2221,147 +2275,147 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>130.9314285714285</v>
+        <v>117.1475</v>
       </c>
       <c r="E2">
-        <v>916.5199999999999</v>
+        <v>937.1799999999999</v>
       </c>
       <c r="F2">
-        <v>98.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>0.8571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="D3">
-        <v>111.2</v>
+        <v>128.185</v>
       </c>
       <c r="E3">
-        <v>778.4</v>
+        <v>1025.48</v>
       </c>
       <c r="F3">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>129.0428571428571</v>
+        <v>122.3025</v>
       </c>
       <c r="E4">
-        <v>903.3000000000001</v>
+        <v>978.4200000000001</v>
       </c>
       <c r="F4">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
-        <v>123.48</v>
+        <v>128.06</v>
       </c>
       <c r="E5">
-        <v>864.36</v>
+        <v>1024.48</v>
       </c>
       <c r="F5">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2369,173 +2423,173 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>112.32</v>
+        <v>113.2075</v>
       </c>
       <c r="E6">
-        <v>786.24</v>
+        <v>905.66</v>
       </c>
       <c r="F6">
-        <v>61.8</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D7">
-        <v>112.5028571428571</v>
+        <v>121.6825</v>
       </c>
       <c r="E7">
-        <v>787.52</v>
+        <v>973.46</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>57.9</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>117.8914285714286</v>
+        <v>99.715</v>
       </c>
       <c r="E8">
-        <v>825.24</v>
+        <v>797.72</v>
       </c>
       <c r="F8">
-        <v>42.8</v>
+        <v>40.1</v>
       </c>
       <c r="G8">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.5714285714285714</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>93.36285714285714</v>
+        <v>113.3</v>
       </c>
       <c r="E9">
-        <v>653.54</v>
+        <v>906.4</v>
       </c>
       <c r="F9">
-        <v>41.9</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>0.2857142857142857</v>
+        <v>0.125</v>
       </c>
       <c r="D10">
-        <v>91.59999999999999</v>
+        <v>105.075</v>
       </c>
       <c r="E10">
-        <v>641.1999999999999</v>
+        <v>840.6</v>
       </c>
       <c r="F10">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="G10">
-        <v>42.2</v>
+        <v>45.5</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>104.1028571428571</v>
+        <v>91.2625</v>
       </c>
       <c r="E11">
-        <v>728.72</v>
+        <v>730.0999999999999</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>44</v>
+        <v>48.7</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2553,19 +2607,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2576,16 +2630,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D2">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2593,19 +2647,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2613,19 +2667,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2633,19 +2687,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2656,16 +2710,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2676,16 +2730,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2696,16 +2750,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2713,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2733,19 +2787,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2756,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-23</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2775,39 +2829,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2832,98 +2889,110 @@
       <c r="H2">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-6</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2948,11 +3017,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2977,11 +3049,14 @@
       <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>-4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3006,69 +3081,78 @@
       <c r="H8">
         <v>-5</v>
       </c>
-      <c r="I8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>-4</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9">
+        <v>-13</v>
+      </c>
+      <c r="E9">
+        <v>-19</v>
+      </c>
+      <c r="F9">
+        <v>-20</v>
+      </c>
+      <c r="G9">
+        <v>-20</v>
+      </c>
+      <c r="H9">
+        <v>-17</v>
+      </c>
+      <c r="I9">
+        <v>-11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>-4</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-2</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-6</v>
       </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>-4</v>
-      </c>
-      <c r="C10">
-        <v>-7</v>
-      </c>
-      <c r="D10">
-        <v>-13</v>
-      </c>
-      <c r="E10">
-        <v>-19</v>
-      </c>
-      <c r="F10">
-        <v>-20</v>
-      </c>
-      <c r="G10">
-        <v>-20</v>
-      </c>
-      <c r="H10">
-        <v>-17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3093,8 +3177,11 @@
       <c r="H11">
         <v>-23</v>
       </c>
-      <c r="I11" t="s">
-        <v>88</v>
+      <c r="I11">
+        <v>-17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3191,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3112,25 +3199,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3216,25 +3303,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>-17</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3242,22 +3329,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="F6">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -3268,22 +3355,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -3294,25 +3381,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
       <c r="E8">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>-13</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3323,22 +3410,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3349,22 +3436,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3372,19 +3459,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -3398,25 +3485,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
         <v>6</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3424,25 +3511,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3453,22 +3540,22 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>-17</v>
-      </c>
-      <c r="F14">
-        <v>-13</v>
-      </c>
       <c r="G14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3476,25 +3563,51 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>7</v>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>-17</v>
+      </c>
+      <c r="F16">
+        <v>-13</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="116">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -54,31 +54,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -159,6 +162,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -183,55 +189,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>10.2-3.7</t>
-  </si>
-  <si>
-    <t>8.9-5.1</t>
-  </si>
-  <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>7.1-6.9-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>3.6-10.3-0.1</t>
-  </si>
-  <si>
-    <t>4.0-10.0</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>9.4-4.6</t>
+  </si>
+  <si>
+    <t>9.0-4.9</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>4.5-9.5</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
   </si>
   <si>
     <t>10-4</t>
@@ -240,18 +243,18 @@
     <t>9-5</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>3-11</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -276,48 +279,51 @@
     <t>Hayat Khan</t>
   </si>
   <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
+    <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑9</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -340,6 +346,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -767,28 +776,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -808,22 +817,22 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -837,16 +846,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -855,10 +864,10 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -866,34 +875,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -901,16 +910,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -919,7 +928,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -928,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -939,28 +948,28 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -974,28 +983,28 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1009,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1024,16 +1033,16 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1044,31 +1053,31 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1079,31 +1088,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1130,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1138,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1152,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1166,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1180,10 +1189,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1191,13 +1200,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1205,13 +1214,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1222,10 +1231,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1236,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1250,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1285,16 +1294,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1305,13 +1314,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D2">
         <v>0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1322,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="D3">
-        <v>0.4000000000000004</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1339,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D4">
-        <v>-1.1</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1356,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D5">
-        <v>-2.6</v>
+        <v>-2.1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1370,16 +1379,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1387,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>-0.2000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1404,16 +1413,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
-        <v>0.6000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1424,13 +1433,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D9">
-        <v>-0.7999999999999998</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1447,7 +1456,7 @@
         <v>1.8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1458,10 +1467,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1482,40 +1491,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1523,25 +1532,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45.5</v>
+        <v>31.1</v>
       </c>
       <c r="C2">
-        <v>27.6</v>
+        <v>25.7</v>
       </c>
       <c r="D2">
-        <v>15.8</v>
+        <v>21.7</v>
       </c>
       <c r="E2">
-        <v>7.4</v>
+        <v>14.3</v>
       </c>
       <c r="F2">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="G2">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1553,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1561,28 +1570,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>16.5</v>
+        <v>30.9</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>20.2</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="G3">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1591,36 +1600,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>23.1</v>
+        <v>24.9</v>
       </c>
       <c r="C4">
-        <v>25.3</v>
+        <v>21.1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>19.2</v>
       </c>
       <c r="F4">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1629,45 +1638,45 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>13.9</v>
+        <v>12.2</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="D5">
-        <v>21.6</v>
+        <v>22.4</v>
       </c>
       <c r="E5">
         <v>24.9</v>
       </c>
       <c r="F5">
-        <v>12.6</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H5">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1678,153 +1687,153 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>14.7</v>
+        <v>21.7</v>
       </c>
       <c r="F6">
-        <v>24.7</v>
+        <v>32.7</v>
       </c>
       <c r="G6">
-        <v>22.7</v>
+        <v>17.6</v>
       </c>
       <c r="H6">
-        <v>13.3</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="J6">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>72</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="E7">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="F7">
-        <v>18.5</v>
+        <v>16.8</v>
       </c>
       <c r="G7">
-        <v>26.8</v>
+        <v>31.6</v>
       </c>
       <c r="H7">
-        <v>21.5</v>
+        <v>25.8</v>
       </c>
       <c r="I7">
-        <v>15.5</v>
+        <v>13.9</v>
       </c>
       <c r="J7">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L7">
-        <v>57.9</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
+      <c r="F8">
+        <v>8.6</v>
+      </c>
+      <c r="G8">
+        <v>20.3</v>
+      </c>
+      <c r="H8">
+        <v>26.8</v>
+      </c>
+      <c r="I8">
+        <v>27.4</v>
+      </c>
+      <c r="J8">
+        <v>11.4</v>
+      </c>
+      <c r="K8">
         <v>2.9</v>
       </c>
-      <c r="E8">
-        <v>5.7</v>
-      </c>
-      <c r="F8">
-        <v>13.5</v>
-      </c>
-      <c r="G8">
-        <v>17.8</v>
-      </c>
-      <c r="H8">
-        <v>26.3</v>
-      </c>
-      <c r="I8">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>10.1</v>
-      </c>
-      <c r="K8">
-        <v>1.5</v>
-      </c>
       <c r="L8">
-        <v>40.1</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="F9">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="G9">
-        <v>18.6</v>
+        <v>16.8</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>26.8</v>
       </c>
       <c r="I9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J9">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="K9">
         <v>3.2</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1839,30 +1848,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H10">
-        <v>5.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I10">
-        <v>11.6</v>
+        <v>15.5</v>
       </c>
       <c r="J10">
-        <v>35.8</v>
+        <v>51.7</v>
       </c>
       <c r="K10">
-        <v>45.5</v>
+        <v>20.5</v>
       </c>
       <c r="L10">
-        <v>1.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1877,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="I11">
-        <v>11.3</v>
+        <v>6.1</v>
       </c>
       <c r="J11">
-        <v>34.5</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>48.7</v>
+        <v>73</v>
       </c>
       <c r="L11">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1905,359 +1914,392 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>74.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C2">
-        <v>26.6</v>
+        <v>98.7</v>
       </c>
       <c r="D2">
-        <v>55.60000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E2">
-        <v>86.3</v>
+        <v>94.5</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>97.8</v>
       </c>
       <c r="G2">
-        <v>94.69999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="H2">
         <v>98.3</v>
       </c>
       <c r="I2">
+        <v>99.2</v>
+      </c>
+      <c r="J2">
+        <v>99.5</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>77.3</v>
+      </c>
+      <c r="C3">
+        <v>23.2</v>
+      </c>
+      <c r="D3">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="E3">
+        <v>85.5</v>
+      </c>
+      <c r="F3">
+        <v>84.8</v>
+      </c>
+      <c r="G3">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="H3">
+        <v>98.8</v>
+      </c>
+      <c r="I3">
         <v>99.8</v>
       </c>
-      <c r="J2">
+      <c r="J3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K3">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
+        <v>34.8</v>
+      </c>
+      <c r="D4">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="E4">
+        <v>84.2</v>
+      </c>
+      <c r="F4">
+        <v>91.7</v>
+      </c>
+      <c r="G4">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="I4">
+        <v>96.3</v>
+      </c>
+      <c r="J4">
         <v>99.09999999999999</v>
       </c>
-      <c r="D3">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="E3">
-        <v>95.7</v>
-      </c>
-      <c r="F3">
-        <v>98</v>
-      </c>
-      <c r="G3">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="H3">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="I3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J3">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="K4">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>12.4</v>
-      </c>
-      <c r="C4">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D4">
-        <v>75.2</v>
-      </c>
-      <c r="E4">
-        <v>90.5</v>
-      </c>
-      <c r="F4">
-        <v>97.5</v>
-      </c>
-      <c r="G4">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="H4">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="I4">
-        <v>98.5</v>
-      </c>
-      <c r="J4">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B5">
-        <v>99.59999999999999</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>34.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D5">
-        <v>56.89999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="E5">
-        <v>85</v>
+        <v>90.8</v>
       </c>
       <c r="F5">
-        <v>91.60000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="G5">
-        <v>96.7</v>
+        <v>81.3</v>
       </c>
       <c r="H5">
-        <v>98.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="I5">
         <v>97.09999999999999</v>
       </c>
       <c r="J5">
-        <v>96.59999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>96.2</v>
+      </c>
+      <c r="K5">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C6">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>64.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E6">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F6">
-        <v>91.3</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="G6">
-        <v>84.8</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="H6">
-        <v>63.1</v>
+        <v>63.3</v>
       </c>
       <c r="I6">
-        <v>71</v>
+        <v>69.3</v>
       </c>
       <c r="J6">
-        <v>69.19999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>86.8</v>
+      </c>
+      <c r="K6">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10.5</v>
+      </c>
+      <c r="C7">
+        <v>51.7</v>
+      </c>
+      <c r="D7">
+        <v>85.5</v>
+      </c>
+      <c r="E7">
+        <v>61.7</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>60.8</v>
+      </c>
+      <c r="H7">
+        <v>54.7</v>
+      </c>
+      <c r="I7">
+        <v>35.2</v>
+      </c>
+      <c r="J7">
+        <v>53.7</v>
+      </c>
+      <c r="K7">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="C7">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="D7">
-        <v>74.7</v>
-      </c>
-      <c r="E7">
-        <v>61.6</v>
-      </c>
-      <c r="F7">
+      <c r="B8">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C8">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="D8">
+        <v>73.8</v>
+      </c>
+      <c r="E8">
+        <v>59.9</v>
+      </c>
+      <c r="F8">
+        <v>35.2</v>
+      </c>
+      <c r="G8">
+        <v>63.5</v>
+      </c>
+      <c r="H8">
+        <v>42.5</v>
+      </c>
+      <c r="I8">
+        <v>63.6</v>
+      </c>
+      <c r="J8">
+        <v>33.3</v>
+      </c>
+      <c r="K8">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>34.3</v>
+      </c>
+      <c r="C9">
+        <v>31.5</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5.4</v>
+      </c>
+      <c r="F9">
+        <v>23.5</v>
+      </c>
+      <c r="G9">
+        <v>10.3</v>
+      </c>
+      <c r="H9">
+        <v>38.7</v>
+      </c>
+      <c r="I9">
         <v>35.4</v>
       </c>
-      <c r="G7">
-        <v>62.5</v>
-      </c>
-      <c r="H7">
-        <v>41.7</v>
-      </c>
-      <c r="I7">
-        <v>61.7</v>
-      </c>
-      <c r="J7">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>38.8</v>
-      </c>
-      <c r="C8">
-        <v>32.1</v>
-      </c>
-      <c r="D8">
-        <v>15.8</v>
-      </c>
-      <c r="E8">
+      <c r="J9">
+        <v>27.6</v>
+      </c>
+      <c r="K9">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>38.5</v>
+      </c>
+      <c r="D10">
+        <v>17.9</v>
+      </c>
+      <c r="E10">
         <v>4.399999999999999</v>
       </c>
-      <c r="F8">
-        <v>24.3</v>
-      </c>
-      <c r="G8">
-        <v>10.1</v>
-      </c>
-      <c r="H8">
-        <v>39.90000000000001</v>
-      </c>
-      <c r="I8">
-        <v>36.5</v>
-      </c>
-      <c r="J8">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>11.3</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>85.09999999999999</v>
-      </c>
-      <c r="E9">
-        <v>62.8</v>
-      </c>
-      <c r="F9">
-        <v>53.1</v>
-      </c>
-      <c r="G9">
-        <v>60.4</v>
-      </c>
-      <c r="H9">
-        <v>55.1</v>
-      </c>
-      <c r="I9">
-        <v>34.2</v>
-      </c>
-      <c r="J9">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="F10">
+        <v>4.3</v>
+      </c>
+      <c r="G10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
+        <v>4.5</v>
+      </c>
+      <c r="I10">
+        <v>1.7</v>
+      </c>
+      <c r="J10">
+        <v>3.9</v>
+      </c>
+      <c r="K10">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>99.8</v>
-      </c>
-      <c r="C10">
-        <v>76.3</v>
-      </c>
-      <c r="D10">
-        <v>54.3</v>
-      </c>
-      <c r="E10">
-        <v>21.1</v>
-      </c>
-      <c r="F10">
-        <v>21.3</v>
-      </c>
-      <c r="G10">
+      <c r="B11">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C11">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="D11">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="E11">
+        <v>25.3</v>
+      </c>
+      <c r="F11">
+        <v>20.6</v>
+      </c>
+      <c r="G11">
         <v>8.6</v>
       </c>
-      <c r="H10">
-        <v>4.9</v>
-      </c>
-      <c r="I10">
-        <v>1.8</v>
-      </c>
-      <c r="J10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>38.6</v>
-      </c>
-      <c r="D11">
-        <v>21.2</v>
-      </c>
-      <c r="E11">
-        <v>4.7</v>
-      </c>
-      <c r="F11">
-        <v>4.5</v>
-      </c>
-      <c r="G11">
-        <v>1.9</v>
-      </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2275,31 +2317,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2307,28 +2349,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>117.1475</v>
+        <v>116.76</v>
       </c>
       <c r="E2">
-        <v>937.1799999999999</v>
+        <v>1050.84</v>
       </c>
       <c r="F2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2336,25 +2378,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>128.185</v>
+        <v>129.7422222222222</v>
       </c>
       <c r="E3">
-        <v>1025.48</v>
+        <v>1167.68</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
         <v>71</v>
@@ -2362,60 +2404,60 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>122.3025</v>
+        <v>128.2711111111111</v>
       </c>
       <c r="E4">
-        <v>978.4200000000001</v>
+        <v>1154.44</v>
       </c>
       <c r="F4">
-        <v>98.2</v>
+        <v>99.3</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>128.06</v>
+        <v>121.2577777777778</v>
       </c>
       <c r="E5">
-        <v>1024.48</v>
+        <v>1091.32</v>
       </c>
       <c r="F5">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2423,173 +2465,173 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D6">
-        <v>113.2075</v>
+        <v>115.8977777777778</v>
       </c>
       <c r="E6">
-        <v>905.66</v>
+        <v>1043.08</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D7">
-        <v>121.6825</v>
+        <v>113.7888888888889</v>
       </c>
       <c r="E7">
-        <v>973.46</v>
+        <v>1024.1</v>
       </c>
       <c r="F7">
-        <v>57.9</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="G7">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>99.715</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="E8">
-        <v>797.72</v>
+        <v>1054.2</v>
       </c>
       <c r="F8">
-        <v>40.1</v>
+        <v>31.5</v>
       </c>
       <c r="G8">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
-        <v>113.3</v>
+        <v>99.52444444444444</v>
       </c>
       <c r="E9">
-        <v>906.4</v>
+        <v>895.72</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>24.7</v>
       </c>
       <c r="G9">
         <v>3.2</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>105.075</v>
+        <v>92.30222222222223</v>
       </c>
       <c r="E10">
-        <v>840.6</v>
+        <v>830.7199999999999</v>
       </c>
       <c r="F10">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>45.5</v>
+        <v>20.5</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D11">
-        <v>91.2625</v>
+        <v>102.0311111111111</v>
       </c>
       <c r="E11">
-        <v>730.0999999999999</v>
+        <v>918.28</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>48.7</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2607,19 +2649,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2630,16 +2672,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2650,16 +2692,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2670,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2690,16 +2732,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2710,16 +2752,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2727,19 +2769,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2747,19 +2789,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2767,19 +2809,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2787,19 +2829,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2807,19 +2849,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2829,42 +2871,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2892,11 +2937,14 @@
       <c r="I2">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2924,11 +2972,14 @@
       <c r="I3">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2956,11 +3007,14 @@
       <c r="I4">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2988,11 +3042,14 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3020,168 +3077,186 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
+      </c>
+      <c r="I7">
+        <v>-7</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-19</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>-20</v>
+      </c>
+      <c r="H8">
+        <v>-17</v>
+      </c>
+      <c r="I8">
+        <v>-11</v>
+      </c>
+      <c r="J8">
+        <v>-11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>-4</v>
       </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="J9">
+        <v>-12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-13</v>
+      </c>
+      <c r="D10">
+        <v>-17</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-19</v>
+      </c>
+      <c r="H10">
+        <v>-23</v>
+      </c>
+      <c r="I10">
+        <v>-17</v>
+      </c>
+      <c r="J10">
+        <v>-12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
+      <c r="B11">
+        <v>-7</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
-      <c r="I8">
-        <v>-7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>-4</v>
       </c>
-      <c r="C9">
-        <v>-7</v>
-      </c>
-      <c r="D9">
-        <v>-13</v>
-      </c>
-      <c r="E9">
-        <v>-19</v>
-      </c>
-      <c r="F9">
+      <c r="G11">
+        <v>-2</v>
+      </c>
+      <c r="H11">
+        <v>-6</v>
+      </c>
+      <c r="I11">
+        <v>-14</v>
+      </c>
+      <c r="J11">
         <v>-20</v>
       </c>
-      <c r="G9">
-        <v>-20</v>
-      </c>
-      <c r="H9">
-        <v>-17</v>
-      </c>
-      <c r="I9">
-        <v>-11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="H10">
-        <v>-6</v>
-      </c>
-      <c r="I10">
-        <v>-14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-13</v>
-      </c>
-      <c r="D11">
-        <v>-17</v>
-      </c>
-      <c r="E11">
-        <v>-13</v>
-      </c>
-      <c r="F11">
-        <v>-17</v>
-      </c>
-      <c r="G11">
-        <v>-19</v>
-      </c>
-      <c r="H11">
-        <v>-23</v>
-      </c>
-      <c r="I11">
-        <v>-17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>96</v>
+      <c r="K11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3266,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3199,25 +3274,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3459,22 +3534,22 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -3485,25 +3560,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="F12">
+        <v>-20</v>
+      </c>
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3511,19 +3586,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>6</v>
@@ -3537,25 +3612,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3563,25 +3638,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3592,21 +3667,73 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>-17</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>-13</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>0</v>
       </c>
     </row>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="116">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -54,34 +54,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>0-10-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -165,6 +165,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -189,52 +192,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>9.4-4.6</t>
-  </si>
-  <si>
-    <t>9.0-4.9</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>4.5-9.5</t>
-  </si>
-  <si>
-    <t>3.0-11.0</t>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>9.7-4.3</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.5-8.4</t>
+  </si>
+  <si>
+    <t>3.6-10.3</t>
+  </si>
+  <si>
+    <t>4.1-9.9</t>
   </si>
   <si>
     <t>10-4</t>
@@ -246,15 +249,15 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -273,57 +276,51 @@
     <t>KASHYAP AShok</t>
   </si>
   <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Kiran MADUGULA</t>
   </si>
   <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Hark Nanda</t>
   </si>
   <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -776,16 +776,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -814,25 +814,25 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -846,16 +846,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -864,10 +864,10 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -896,7 +896,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -928,7 +928,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -957,19 +957,19 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1004,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1024,22 +1024,22 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -1053,13 +1053,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1068,10 +1068,10 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -1088,31 +1088,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1147,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1186,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1245,10 +1245,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1259,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1314,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D2">
-        <v>0.7000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1331,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D3">
-        <v>0.2000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D4">
-        <v>-0.7000000000000002</v>
+        <v>-1.1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="D5">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1379,16 +1379,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D6">
-        <v>-0.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1413,16 +1413,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1433,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D9">
-        <v>-0.6000000000000001</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1450,13 +1450,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.1</v>
+        <v>41.9</v>
       </c>
       <c r="C2">
-        <v>25.7</v>
+        <v>30.2</v>
       </c>
       <c r="D2">
-        <v>21.7</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>14.3</v>
+        <v>7.6</v>
       </c>
       <c r="F2">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1570,28 +1570,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>30.9</v>
+        <v>36.5</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>34.6</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="F3">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="G3">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1600,36 +1600,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>24.9</v>
+        <v>14.4</v>
       </c>
       <c r="C4">
-        <v>21.1</v>
+        <v>22.6</v>
       </c>
       <c r="D4">
-        <v>21.9</v>
+        <v>31.3</v>
       </c>
       <c r="E4">
-        <v>19.2</v>
+        <v>20.5</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1638,36 +1638,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>12.2</v>
+        <v>7.2</v>
       </c>
       <c r="C5">
-        <v>16.2</v>
+        <v>11.4</v>
       </c>
       <c r="D5">
-        <v>22.4</v>
+        <v>20.5</v>
       </c>
       <c r="E5">
-        <v>24.9</v>
+        <v>39.6</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="G5">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H5">
         <v>1.9</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1684,113 +1684,113 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="E6">
-        <v>21.7</v>
+        <v>14.5</v>
       </c>
       <c r="F6">
-        <v>32.7</v>
+        <v>35.6</v>
       </c>
       <c r="G6">
-        <v>17.6</v>
+        <v>20.7</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>13.4</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
         <v>0.1</v>
       </c>
       <c r="L6">
-        <v>87.40000000000001</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>16.8</v>
+        <v>18.3</v>
       </c>
       <c r="G7">
-        <v>31.6</v>
+        <v>35.8</v>
       </c>
       <c r="H7">
-        <v>25.8</v>
+        <v>24.1</v>
       </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="J7">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>55.4</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="F8">
-        <v>8.6</v>
+        <v>16.6</v>
       </c>
       <c r="G8">
-        <v>20.3</v>
+        <v>25.3</v>
       </c>
       <c r="H8">
-        <v>26.8</v>
+        <v>32.2</v>
       </c>
       <c r="I8">
-        <v>27.4</v>
+        <v>15.3</v>
       </c>
       <c r="J8">
-        <v>11.4</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>31.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1798,42 +1798,42 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="G9">
-        <v>16.8</v>
+        <v>10.5</v>
       </c>
       <c r="H9">
-        <v>26.8</v>
+        <v>20.8</v>
       </c>
       <c r="I9">
-        <v>33</v>
+        <v>43.1</v>
       </c>
       <c r="J9">
-        <v>12.3</v>
+        <v>15.5</v>
       </c>
       <c r="K9">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="L9">
-        <v>24.7</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1848,30 +1848,30 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <v>8.300000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="I10">
-        <v>15.5</v>
+        <v>12.7</v>
       </c>
       <c r="J10">
-        <v>51.7</v>
+        <v>38.7</v>
       </c>
       <c r="K10">
-        <v>20.5</v>
+        <v>45.4</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1886,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H11">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>38.9</v>
       </c>
       <c r="K11">
-        <v>73</v>
+        <v>48.3</v>
       </c>
       <c r="L11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1914,13 +1914,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1951,288 +1951,315 @@
       <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>75.2</v>
+      </c>
+      <c r="C2">
+        <v>25.3</v>
+      </c>
+      <c r="D2">
+        <v>60.7</v>
+      </c>
+      <c r="E2">
+        <v>86.3</v>
+      </c>
+      <c r="F2">
+        <v>84.3</v>
+      </c>
+      <c r="G2">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H2">
+        <v>98.7</v>
+      </c>
+      <c r="I2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J2">
         <v>99.40000000000001</v>
-      </c>
-      <c r="C2">
-        <v>98.7</v>
-      </c>
-      <c r="D2">
-        <v>97.3</v>
-      </c>
-      <c r="E2">
-        <v>94.5</v>
-      </c>
-      <c r="F2">
-        <v>97.8</v>
-      </c>
-      <c r="G2">
-        <v>98.8</v>
-      </c>
-      <c r="H2">
-        <v>98.3</v>
-      </c>
-      <c r="I2">
-        <v>99.2</v>
-      </c>
-      <c r="J2">
-        <v>99.5</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>77.3</v>
+        <v>99.3</v>
       </c>
       <c r="C3">
-        <v>23.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D3">
-        <v>59.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E3">
-        <v>85.5</v>
+        <v>96.3</v>
       </c>
       <c r="F3">
-        <v>84.8</v>
+        <v>97.7</v>
       </c>
       <c r="G3">
-        <v>95.89999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H3">
-        <v>98.8</v>
+        <v>98.3</v>
       </c>
       <c r="I3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J3">
+        <v>99.5</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>15.3</v>
+      </c>
+      <c r="C4">
+        <v>76.3</v>
+      </c>
+      <c r="D4">
+        <v>76.2</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="G4">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>97.8</v>
+      </c>
+      <c r="J4">
+        <v>97.3</v>
+      </c>
+      <c r="K4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L4">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>99.8</v>
       </c>
-      <c r="J3">
+      <c r="C5">
+        <v>31.4</v>
+      </c>
+      <c r="D5">
+        <v>56.7</v>
+      </c>
+      <c r="E5">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="F5">
+        <v>89.7</v>
+      </c>
+      <c r="G5">
+        <v>95.7</v>
+      </c>
+      <c r="H5">
+        <v>98.5</v>
+      </c>
+      <c r="I5">
+        <v>96.8</v>
+      </c>
+      <c r="J5">
         <v>99.40000000000001</v>
       </c>
-      <c r="K3">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>34.8</v>
-      </c>
-      <c r="D4">
-        <v>55.40000000000001</v>
-      </c>
-      <c r="E4">
-        <v>84.2</v>
-      </c>
-      <c r="F4">
-        <v>91.7</v>
-      </c>
-      <c r="G4">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="H4">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="I4">
-        <v>96.3</v>
-      </c>
-      <c r="J4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K4">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="D5">
-        <v>72.5</v>
-      </c>
-      <c r="E5">
-        <v>90.8</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="L5">
         <v>97.3</v>
       </c>
-      <c r="G5">
-        <v>81.3</v>
-      </c>
-      <c r="H5">
-        <v>95.8</v>
-      </c>
-      <c r="I5">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J5">
-        <v>96.2</v>
-      </c>
-      <c r="K5">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="D6">
-        <v>65.90000000000001</v>
+        <v>65.60000000000001</v>
       </c>
       <c r="E6">
-        <v>88.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F6">
-        <v>92.80000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G6">
-        <v>83.39999999999999</v>
+        <v>83</v>
       </c>
       <c r="H6">
-        <v>63.3</v>
+        <v>65</v>
       </c>
       <c r="I6">
-        <v>69.3</v>
+        <v>68.5</v>
       </c>
       <c r="J6">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="K6">
-        <v>86.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>77.2</v>
+      </c>
+      <c r="L6">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="C7">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D7">
+        <v>77.60000000000001</v>
+      </c>
+      <c r="E7">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="F7">
+        <v>34.1</v>
+      </c>
+      <c r="G7">
+        <v>61.4</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>61.8</v>
+      </c>
+      <c r="J7">
+        <v>35.4</v>
+      </c>
+      <c r="K7">
+        <v>61.6</v>
+      </c>
+      <c r="L7">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>10.5</v>
-      </c>
-      <c r="C7">
-        <v>51.7</v>
-      </c>
-      <c r="D7">
-        <v>85.5</v>
-      </c>
-      <c r="E7">
-        <v>61.7</v>
-      </c>
-      <c r="F7">
-        <v>52</v>
-      </c>
-      <c r="G7">
-        <v>60.8</v>
-      </c>
-      <c r="H7">
-        <v>54.7</v>
-      </c>
-      <c r="I7">
-        <v>35.2</v>
-      </c>
-      <c r="J7">
-        <v>53.7</v>
-      </c>
-      <c r="K7">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B8">
-        <v>66.90000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="C8">
-        <v>73.59999999999999</v>
+        <v>51.3</v>
       </c>
       <c r="D8">
-        <v>73.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E8">
-        <v>59.9</v>
+        <v>63</v>
       </c>
       <c r="F8">
-        <v>35.2</v>
+        <v>52.2</v>
       </c>
       <c r="G8">
-        <v>63.5</v>
+        <v>64.3</v>
       </c>
       <c r="H8">
-        <v>42.5</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="I8">
-        <v>63.6</v>
+        <v>34.4</v>
       </c>
       <c r="J8">
-        <v>33.3</v>
+        <v>52.8</v>
       </c>
       <c r="K8">
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>45.5</v>
+      </c>
+      <c r="L8">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>34.3</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="C9">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13.7</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="F9">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
       <c r="G9">
-        <v>10.3</v>
+        <v>8.9</v>
       </c>
       <c r="H9">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="I9">
-        <v>35.4</v>
+        <v>39</v>
       </c>
       <c r="J9">
-        <v>27.6</v>
+        <v>24.1</v>
       </c>
       <c r="K9">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>16.2</v>
+      </c>
+      <c r="L9">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2240,66 +2267,72 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>38.5</v>
+        <v>39.2</v>
       </c>
       <c r="D10">
-        <v>17.9</v>
+        <v>18.9</v>
       </c>
       <c r="E10">
-        <v>4.399999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="F10">
         <v>4.3</v>
       </c>
       <c r="G10">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I10">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K10">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>1.2</v>
+      </c>
+      <c r="L10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>78.60000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="D11">
-        <v>57.09999999999999</v>
+        <v>51.9</v>
       </c>
       <c r="E11">
-        <v>25.3</v>
+        <v>20.2</v>
       </c>
       <c r="F11">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="G11">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I11">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>1.3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2320,28 +2353,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2349,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>116.76</v>
+        <v>118.694</v>
       </c>
       <c r="E2">
-        <v>1050.84</v>
+        <v>1186.94</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2367,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2378,86 +2411,86 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>129.7422222222222</v>
+        <v>130.908</v>
       </c>
       <c r="E3">
-        <v>1167.68</v>
+        <v>1309.08</v>
       </c>
       <c r="F3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>128.2711111111111</v>
+        <v>121.432</v>
       </c>
       <c r="E4">
-        <v>1154.44</v>
+        <v>1214.32</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>121.2577777777778</v>
+        <v>124.546</v>
       </c>
       <c r="E5">
-        <v>1091.32</v>
+        <v>1245.46</v>
       </c>
       <c r="F5">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2465,86 +2498,86 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>115.8977777777778</v>
+        <v>114.932</v>
       </c>
       <c r="E6">
-        <v>1043.08</v>
+        <v>1149.32</v>
       </c>
       <c r="F6">
-        <v>87.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>113.7888888888889</v>
+        <v>121.058</v>
       </c>
       <c r="E7">
-        <v>1024.1</v>
+        <v>1210.58</v>
       </c>
       <c r="F7">
-        <v>55.40000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="G7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>117.1333333333333</v>
+        <v>114.84</v>
       </c>
       <c r="E8">
-        <v>1054.2</v>
+        <v>1148.4</v>
       </c>
       <c r="F8">
-        <v>31.5</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2552,86 +2585,86 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>99.52444444444444</v>
+        <v>100.714</v>
       </c>
       <c r="E9">
-        <v>895.72</v>
+        <v>1007.14</v>
       </c>
       <c r="F9">
-        <v>24.7</v>
+        <v>15.4</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>92.30222222222223</v>
+        <v>102.022</v>
       </c>
       <c r="E10">
-        <v>830.7199999999999</v>
+        <v>1020.22</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>20.5</v>
+        <v>45.4</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0.1111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>102.0311111111111</v>
+        <v>89.74600000000001</v>
       </c>
       <c r="E11">
-        <v>918.28</v>
+        <v>897.4599999999999</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>73</v>
+        <v>48.3</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2652,16 +2685,16 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2672,16 +2705,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2692,16 +2725,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2712,16 +2745,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2729,19 +2762,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2749,16 +2782,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
@@ -2772,13 +2805,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -2792,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2809,19 +2842,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2829,19 +2862,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2852,16 +2885,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2871,45 +2904,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2940,11 +2976,14 @@
       <c r="J2">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2975,11 +3014,14 @@
       <c r="J3">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3010,81 +3052,90 @@
       <c r="J4">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="C5">
         <v>-2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
       </c>
       <c r="C6">
         <v>-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3115,11 +3166,14 @@
       <c r="J7">
         <v>-5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>-2</v>
+      </c>
+      <c r="L7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3150,81 +3204,90 @@
       <c r="J8">
         <v>-11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>-12</v>
+      </c>
+      <c r="L8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>-17</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>-19</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>-23</v>
       </c>
       <c r="I9">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="J9">
         <v>-12</v>
       </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>-17</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>-19</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>-23</v>
+        <v>-1</v>
       </c>
       <c r="I10">
-        <v>-17</v>
+        <v>-4</v>
       </c>
       <c r="J10">
         <v>-12</v>
       </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3255,8 +3318,11 @@
       <c r="J11">
         <v>-20</v>
       </c>
-      <c r="K11" t="s">
-        <v>99</v>
+      <c r="K11">
+        <v>-24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3332,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3404,25 +3470,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3430,22 +3496,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="F7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -3456,25 +3522,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>6</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3482,25 +3548,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3511,22 +3577,22 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3534,25 +3600,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3563,22 +3629,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
         <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3586,25 +3652,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>-12</v>
+      </c>
+      <c r="F13">
+        <v>-20</v>
+      </c>
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-2</v>
-      </c>
-      <c r="F13">
+      <c r="H13" t="s">
         <v>4</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3615,22 +3681,22 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3638,103 +3704,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17">
         <v>1</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>-17</v>
-      </c>
-      <c r="F18">
-        <v>-13</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="115">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -54,34 +54,31 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>0-10-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +165,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,52 +192,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>9.7-4.3</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>8.8-5.2</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>6.6-7.3</t>
   </si>
   <si>
     <t>6.1-7.9</t>
   </si>
   <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>3.6-10.3</t>
-  </si>
-  <si>
-    <t>4.1-9.9</t>
+    <t>3.9-10.1</t>
+  </si>
+  <si>
+    <t>3.1-10.9</t>
   </si>
   <si>
     <t>10-4</t>
@@ -246,9 +240,6 @@
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -258,6 +249,9 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -297,30 +291,30 @@
     <t>Hark Nanda</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -349,6 +343,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -776,13 +773,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -794,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -843,31 +840,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -881,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -899,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -916,10 +913,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -928,13 +925,13 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -951,28 +948,28 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -986,28 +983,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1021,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1056,28 +1053,28 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1085,34 +1082,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1130,13 +1127,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1147,10 +1144,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1158,13 +1155,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1172,13 +1169,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1186,13 +1183,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1200,13 +1197,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1214,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1228,13 +1225,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1242,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1259,10 +1256,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1273,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1294,16 +1291,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1314,13 +1311,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1331,13 +1328,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="D3">
         <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1345,16 +1342,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D4">
-        <v>-1.1</v>
+        <v>1.2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1365,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
-        <v>-2.3</v>
+        <v>-1.9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1379,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,13 +1393,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1413,16 +1410,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000004</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1433,13 +1430,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>-0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1450,13 +1447,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D10">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1467,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>-0.6000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1491,63 +1488,63 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>41.9</v>
+        <v>50.7</v>
       </c>
       <c r="C2">
-        <v>30.2</v>
+        <v>28.5</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>15.3</v>
       </c>
       <c r="E2">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="F2">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1567,29 +1564,29 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>36.5</v>
+        <v>26.8</v>
       </c>
       <c r="C3">
-        <v>34.6</v>
+        <v>37.4</v>
       </c>
       <c r="D3">
-        <v>20.3</v>
+        <v>22.7</v>
       </c>
       <c r="E3">
-        <v>6.8</v>
+        <v>11.6</v>
       </c>
       <c r="F3">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -1600,36 +1597,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>14.4</v>
+        <v>17.3</v>
       </c>
       <c r="C4">
-        <v>22.6</v>
+        <v>19.5</v>
       </c>
       <c r="D4">
-        <v>31.3</v>
+        <v>32.3</v>
       </c>
       <c r="E4">
-        <v>20.5</v>
+        <v>22.9</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="G4">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H4">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1638,36 +1635,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>7.2</v>
+        <v>5.2</v>
       </c>
       <c r="C5">
-        <v>11.4</v>
+        <v>14.1</v>
       </c>
       <c r="D5">
-        <v>20.5</v>
+        <v>24.6</v>
       </c>
       <c r="E5">
-        <v>39.6</v>
+        <v>35.4</v>
       </c>
       <c r="F5">
-        <v>14.5</v>
+        <v>11.1</v>
       </c>
       <c r="G5">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="H5">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1676,88 +1673,88 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.7</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D6">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
       <c r="E6">
-        <v>14.5</v>
+        <v>10.7</v>
       </c>
       <c r="F6">
-        <v>35.6</v>
+        <v>33.9</v>
       </c>
       <c r="G6">
-        <v>20.7</v>
+        <v>24.9</v>
       </c>
       <c r="H6">
-        <v>13.4</v>
+        <v>20.6</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>78.8</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="F7">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="G7">
-        <v>35.8</v>
+        <v>30.2</v>
       </c>
       <c r="H7">
-        <v>24.1</v>
+        <v>31.4</v>
       </c>
       <c r="I7">
-        <v>12.7</v>
+        <v>11.8</v>
       </c>
       <c r="J7">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>60.3</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1766,31 +1763,31 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>5.2</v>
+        <v>7.9</v>
       </c>
       <c r="F8">
-        <v>16.6</v>
+        <v>20.8</v>
       </c>
       <c r="G8">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="H8">
-        <v>32.2</v>
+        <v>26.5</v>
       </c>
       <c r="I8">
-        <v>15.3</v>
+        <v>18.4</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1804,36 +1801,36 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="F9">
-        <v>4.1</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="H9">
-        <v>20.8</v>
+        <v>17.2</v>
       </c>
       <c r="I9">
-        <v>43.1</v>
+        <v>59.3</v>
       </c>
       <c r="J9">
-        <v>15.5</v>
+        <v>3.1</v>
       </c>
       <c r="K9">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>15.4</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1851,27 +1848,27 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
-        <v>12.7</v>
+        <v>2.3</v>
       </c>
       <c r="J10">
-        <v>38.7</v>
+        <v>56.7</v>
       </c>
       <c r="K10">
-        <v>45.4</v>
+        <v>40.8</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1886,25 +1883,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="J11">
-        <v>38.9</v>
+        <v>39.5</v>
       </c>
       <c r="K11">
-        <v>48.3</v>
+        <v>59.2</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1914,86 +1911,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C2">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="D2">
-        <v>60.7</v>
+        <v>59</v>
       </c>
       <c r="E2">
-        <v>86.3</v>
+        <v>88.8</v>
       </c>
       <c r="F2">
-        <v>84.3</v>
+        <v>85.2</v>
       </c>
       <c r="G2">
         <v>95.59999999999999</v>
       </c>
       <c r="H2">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J2">
         <v>99.40000000000001</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2001,22 +2004,22 @@
         <v>99.3</v>
       </c>
       <c r="C3">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D3">
-        <v>95.59999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="E3">
-        <v>96.3</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="F3">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="G3">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H3">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="I3">
         <v>98.90000000000001</v>
@@ -2030,236 +2033,257 @@
       <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>33.4</v>
+      </c>
+      <c r="D4">
+        <v>56.89999999999999</v>
+      </c>
+      <c r="E4">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="F4">
+        <v>91.60000000000001</v>
+      </c>
+      <c r="G4">
+        <v>95.8</v>
+      </c>
+      <c r="H4">
+        <v>98.7</v>
+      </c>
+      <c r="I4">
+        <v>96.8</v>
+      </c>
+      <c r="J4">
+        <v>99</v>
+      </c>
+      <c r="K4">
+        <v>97.7</v>
+      </c>
+      <c r="L4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="M4">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>15.3</v>
-      </c>
-      <c r="C4">
-        <v>76.3</v>
-      </c>
-      <c r="D4">
-        <v>76.2</v>
-      </c>
-      <c r="E4">
-        <v>91</v>
-      </c>
-      <c r="F4">
-        <v>97.39999999999999</v>
-      </c>
-      <c r="G4">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="H4">
+      <c r="B5">
+        <v>13.2</v>
+      </c>
+      <c r="C5">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D5">
+        <v>74.3</v>
+      </c>
+      <c r="E5">
+        <v>91.60000000000001</v>
+      </c>
+      <c r="F5">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>82.5</v>
+      </c>
+      <c r="H5">
+        <v>95.3</v>
+      </c>
+      <c r="I5">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J5">
         <v>96.09999999999999</v>
       </c>
-      <c r="I4">
-        <v>97.8</v>
-      </c>
-      <c r="J4">
-        <v>97.3</v>
-      </c>
-      <c r="K4">
+      <c r="K5">
         <v>98.90000000000001</v>
       </c>
-      <c r="L4">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>99.8</v>
-      </c>
-      <c r="C5">
-        <v>31.4</v>
-      </c>
-      <c r="D5">
-        <v>56.7</v>
-      </c>
-      <c r="E5">
-        <v>82.39999999999999</v>
-      </c>
-      <c r="F5">
-        <v>89.7</v>
-      </c>
-      <c r="G5">
-        <v>95.7</v>
-      </c>
-      <c r="H5">
-        <v>98.5</v>
-      </c>
-      <c r="I5">
-        <v>96.8</v>
-      </c>
-      <c r="J5">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="K5">
-        <v>98.09999999999999</v>
-      </c>
       <c r="L5">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>94</v>
+      </c>
+      <c r="M5">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>99.40000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="C6">
-        <v>95.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D6">
-        <v>65.60000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="E6">
-        <v>87.90000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="F6">
-        <v>90.90000000000001</v>
+        <v>34.1</v>
       </c>
       <c r="G6">
-        <v>83</v>
+        <v>64.7</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>41.4</v>
       </c>
       <c r="I6">
-        <v>68.5</v>
+        <v>62.7</v>
       </c>
       <c r="J6">
-        <v>87.2</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="K6">
-        <v>77.2</v>
+        <v>62.7</v>
       </c>
       <c r="L6">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M6">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>64.40000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="C7">
-        <v>71.09999999999999</v>
+        <v>51.3</v>
       </c>
       <c r="D7">
-        <v>77.60000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E7">
         <v>60.09999999999999</v>
       </c>
       <c r="F7">
-        <v>34.1</v>
+        <v>52.8</v>
       </c>
       <c r="G7">
-        <v>61.4</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="I7">
-        <v>61.8</v>
+        <v>34.9</v>
       </c>
       <c r="J7">
-        <v>35.4</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="K7">
-        <v>61.6</v>
+        <v>43.5</v>
       </c>
       <c r="L7">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>58.9</v>
+      </c>
+      <c r="M7">
+        <v>59.09999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>11.5</v>
+        <v>99.2</v>
       </c>
       <c r="C8">
-        <v>51.3</v>
+        <v>96.2</v>
       </c>
       <c r="D8">
-        <v>83.09999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="E8">
-        <v>63</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F8">
-        <v>52.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G8">
-        <v>64.3</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="H8">
-        <v>55.60000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="I8">
-        <v>34.4</v>
+        <v>68.5</v>
       </c>
       <c r="J8">
-        <v>52.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8">
-        <v>45.5</v>
+        <v>76.2</v>
       </c>
       <c r="L8">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="M8">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>35.09999999999999</v>
+        <v>37.3</v>
       </c>
       <c r="C9">
-        <v>32.5</v>
+        <v>30.9</v>
       </c>
       <c r="D9">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="E9">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="F9">
-        <v>28.5</v>
+        <v>24.5</v>
       </c>
       <c r="G9">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>39.4</v>
       </c>
       <c r="I9">
-        <v>39</v>
+        <v>36.8</v>
       </c>
       <c r="J9">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="K9">
-        <v>16.2</v>
+        <v>18.8</v>
       </c>
       <c r="L9">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19.4</v>
+      </c>
+      <c r="M9">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2267,37 +2291,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>39.2</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="E10">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="G10">
+        <v>2.3</v>
+      </c>
+      <c r="H10">
+        <v>5.7</v>
+      </c>
+      <c r="I10">
         <v>2.2</v>
       </c>
-      <c r="H10">
-        <v>4.7</v>
-      </c>
-      <c r="I10">
-        <v>1.6</v>
-      </c>
       <c r="J10">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2305,34 +2332,37 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="D11">
-        <v>51.9</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E11">
-        <v>20.2</v>
+        <v>22.6</v>
       </c>
       <c r="F11">
-        <v>20.9</v>
+        <v>19.1</v>
       </c>
       <c r="G11">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="J11">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="K11">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>48</v>
@@ -2379,19 +2409,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>118.694</v>
+        <v>128.2818181818182</v>
       </c>
       <c r="E2">
-        <v>1186.94</v>
+        <v>1411.1</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2400,184 +2430,184 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D3">
-        <v>130.908</v>
+        <v>117.28</v>
       </c>
       <c r="E3">
-        <v>1309.08</v>
+        <v>1290.08</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>121.432</v>
+        <v>126.4690909090909</v>
       </c>
       <c r="E4">
-        <v>1214.32</v>
+        <v>1391.16</v>
       </c>
       <c r="F4">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>124.546</v>
+        <v>117.9418181818182</v>
       </c>
       <c r="E5">
-        <v>1245.46</v>
+        <v>1297.36</v>
       </c>
       <c r="F5">
-        <v>97.7</v>
+        <v>96.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D6">
-        <v>114.932</v>
+        <v>122.7109090909091</v>
       </c>
       <c r="E6">
-        <v>1149.32</v>
+        <v>1349.82</v>
       </c>
       <c r="F6">
-        <v>78.8</v>
+        <v>72.7</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>121.058</v>
+        <v>115.0036363636364</v>
       </c>
       <c r="E7">
-        <v>1210.58</v>
+        <v>1265.04</v>
       </c>
       <c r="F7">
-        <v>60.3</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D8">
-        <v>114.84</v>
+        <v>113.1</v>
       </c>
       <c r="E8">
-        <v>1148.4</v>
+        <v>1244.1</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>54.8</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2585,86 +2615,86 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D9">
-        <v>100.714</v>
+        <v>101.4963636363636</v>
       </c>
       <c r="E9">
-        <v>1007.14</v>
+        <v>1116.46</v>
       </c>
       <c r="F9">
-        <v>15.4</v>
+        <v>20.4</v>
       </c>
       <c r="G9">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D10">
-        <v>102.022</v>
+        <v>90.74727272727273</v>
       </c>
       <c r="E10">
-        <v>1020.22</v>
+        <v>998.2199999999999</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>45.4</v>
+        <v>40.8</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D11">
-        <v>89.74600000000001</v>
+        <v>102.3672727272727</v>
       </c>
       <c r="E11">
-        <v>897.4599999999999</v>
+        <v>1126.04</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>48.3</v>
+        <v>59.2</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2682,19 +2712,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2705,16 +2735,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2725,16 +2755,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2745,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2765,16 +2795,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2785,16 +2815,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2805,16 +2835,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2825,16 +2855,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2845,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2865,16 +2895,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2885,16 +2915,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2904,48 +2934,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2979,11 +3012,14 @@
       <c r="K2">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3017,11 +3053,14 @@
       <c r="K3">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3055,11 +3094,14 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3093,11 +3135,14 @@
       <c r="K5">
         <v>7</v>
       </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3131,11 +3176,14 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3169,11 +3217,14 @@
       <c r="K7">
         <v>-2</v>
       </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>-5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3207,11 +3258,14 @@
       <c r="K8">
         <v>-12</v>
       </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3245,11 +3299,14 @@
       <c r="K9">
         <v>-13</v>
       </c>
-      <c r="L9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3283,11 +3340,14 @@
       <c r="K10">
         <v>-18</v>
       </c>
-      <c r="L10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -3321,8 +3381,11 @@
       <c r="K11">
         <v>-24</v>
       </c>
-      <c r="L11" t="s">
-        <v>98</v>
+      <c r="L11">
+        <v>-30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3395,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3340,25 +3403,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3671,58 +3734,6 @@
       </c>
       <c r="H13" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>-2</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="120">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -168,6 +169,57 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -216,22 +268,16 @@
     <t>8.6-5.4</t>
   </si>
   <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
     <t>6.6-7.4</t>
   </si>
   <si>
-    <t>6.6-7.3</t>
-  </si>
-  <si>
     <t>6.1-7.9</t>
   </si>
   <si>
     <t>3.9-10.1</t>
   </si>
   <si>
-    <t>3.1-10.9</t>
+    <t>3.2-10.8</t>
   </si>
   <si>
     <t>10-4</t>
@@ -259,36 +305,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
-    <t>Hark Nanda</t>
   </si>
   <si>
     <t>↓3</t>
@@ -1117,6 +1133,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-13</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-19</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-23</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>-17</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-18</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>-17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>-12</v>
+      </c>
+      <c r="F13">
+        <v>-20</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1526,25 +1890,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>50.7</v>
+        <v>28.2</v>
       </c>
       <c r="C2">
-        <v>28.5</v>
+        <v>34.6</v>
       </c>
       <c r="D2">
-        <v>15.3</v>
+        <v>24.1</v>
       </c>
       <c r="E2">
-        <v>5.1</v>
+        <v>10.6</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1564,28 +1928,28 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>26.8</v>
+        <v>51.1</v>
       </c>
       <c r="C3">
-        <v>37.4</v>
+        <v>26.9</v>
       </c>
       <c r="D3">
-        <v>22.7</v>
+        <v>16.3</v>
       </c>
       <c r="E3">
-        <v>11.6</v>
+        <v>5.4</v>
       </c>
       <c r="F3">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1597,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1605,22 +1969,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>17.3</v>
+        <v>15.9</v>
       </c>
       <c r="C4">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>32.3</v>
+        <v>30.8</v>
       </c>
       <c r="E4">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F4">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G4">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H4">
         <v>0.5</v>
@@ -1643,28 +2007,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="C5">
-        <v>14.1</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>24.6</v>
+        <v>23.4</v>
       </c>
       <c r="E5">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="F5">
-        <v>11.1</v>
+        <v>12.2</v>
       </c>
       <c r="G5">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1673,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.3</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1684,34 +2048,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="E6">
-        <v>10.7</v>
+        <v>9.4</v>
       </c>
       <c r="F6">
-        <v>33.9</v>
+        <v>35.3</v>
       </c>
       <c r="G6">
-        <v>24.9</v>
+        <v>23.1</v>
       </c>
       <c r="H6">
-        <v>20.6</v>
+        <v>19.4</v>
       </c>
       <c r="I6">
-        <v>6.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>72.7</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1725,31 +2089,31 @@
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E7">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="F7">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="G7">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="H7">
         <v>31.4</v>
       </c>
       <c r="I7">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>56.4</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1760,34 +2124,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="G8">
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
       <c r="H8">
-        <v>26.5</v>
+        <v>25.6</v>
       </c>
       <c r="I8">
-        <v>18.4</v>
+        <v>20.1</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>54.8</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1801,31 +2165,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="G9">
-        <v>11.4</v>
+        <v>14.5</v>
       </c>
       <c r="H9">
-        <v>17.2</v>
+        <v>19.7</v>
       </c>
       <c r="I9">
-        <v>59.3</v>
+        <v>56.3</v>
       </c>
       <c r="J9">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L9">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1854,13 +2218,13 @@
         <v>0.2</v>
       </c>
       <c r="I10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J10">
-        <v>56.7</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>40.8</v>
+        <v>41.4</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1892,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="J11">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="K11">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1957,37 +2321,37 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>74.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C2">
-        <v>24.9</v>
+        <v>99.7</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="E2">
-        <v>88.8</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>85.2</v>
+        <v>96.8</v>
       </c>
       <c r="G2">
-        <v>95.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="H2">
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="I2">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J2">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="K2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -1998,34 +2362,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>99.3</v>
+        <v>76.2</v>
       </c>
       <c r="C3">
-        <v>99.40000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="D3">
-        <v>96.89999999999999</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="E3">
-        <v>94.89999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="F3">
-        <v>97.3</v>
+        <v>82.3</v>
       </c>
       <c r="G3">
-        <v>98.59999999999999</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="H3">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="I3">
-        <v>98.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J3">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2034,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2045,37 +2409,37 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C4">
-        <v>33.4</v>
+        <v>31.4</v>
       </c>
       <c r="D4">
-        <v>56.89999999999999</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="E4">
-        <v>83.89999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="F4">
-        <v>91.60000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="G4">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="H4">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="I4">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="J4">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K4">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="L4">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M4">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2083,40 +2447,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="C5">
-        <v>74.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="D5">
-        <v>74.3</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="E5">
-        <v>91.60000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F5">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="G5">
-        <v>82.5</v>
+        <v>80.7</v>
       </c>
       <c r="H5">
-        <v>95.3</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="I5">
-        <v>98.40000000000001</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="J5">
-        <v>96.09999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="K5">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L5">
-        <v>94</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="M5">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2124,122 +2488,122 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>65.3</v>
+        <v>66.8</v>
       </c>
       <c r="C6">
-        <v>74.09999999999999</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="D6">
-        <v>75.2</v>
+        <v>74.8</v>
       </c>
       <c r="E6">
-        <v>57.7</v>
+        <v>60.7</v>
       </c>
       <c r="F6">
-        <v>34.1</v>
+        <v>35.9</v>
       </c>
       <c r="G6">
-        <v>64.7</v>
+        <v>61.6</v>
       </c>
       <c r="H6">
-        <v>41.4</v>
+        <v>43.6</v>
       </c>
       <c r="I6">
-        <v>62.7</v>
+        <v>63.9</v>
       </c>
       <c r="J6">
-        <v>34.59999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="K6">
-        <v>62.7</v>
+        <v>62.1</v>
       </c>
       <c r="L6">
         <v>73.40000000000001</v>
       </c>
       <c r="M6">
-        <v>72.09999999999999</v>
+        <v>72.89999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>11.2</v>
+        <v>99.3</v>
       </c>
       <c r="C7">
-        <v>51.3</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>86.59999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="E7">
-        <v>60.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F7">
-        <v>52.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G7">
-        <v>60.09999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="H7">
-        <v>54.50000000000001</v>
+        <v>63.5</v>
       </c>
       <c r="I7">
-        <v>34.9</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="J7">
-        <v>56.10000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K7">
-        <v>43.5</v>
+        <v>77.8</v>
       </c>
       <c r="L7">
-        <v>58.9</v>
+        <v>52.1</v>
       </c>
       <c r="M7">
-        <v>59.09999999999999</v>
+        <v>56.49999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>99.2</v>
+        <v>10.8</v>
       </c>
       <c r="C8">
-        <v>96.2</v>
+        <v>50.5</v>
       </c>
       <c r="D8">
-        <v>63.2</v>
+        <v>84.8</v>
       </c>
       <c r="E8">
-        <v>89.90000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="F8">
-        <v>92.90000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="G8">
-        <v>83.89999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="H8">
-        <v>63.4</v>
+        <v>53.7</v>
       </c>
       <c r="I8">
-        <v>68.5</v>
+        <v>33.6</v>
       </c>
       <c r="J8">
-        <v>85.59999999999999</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>76.2</v>
+        <v>44.7</v>
       </c>
       <c r="L8">
-        <v>54.90000000000001</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="M8">
-        <v>55.1</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2247,40 +2611,40 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>37.3</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="C9">
-        <v>30.9</v>
+        <v>32.8</v>
       </c>
       <c r="D9">
-        <v>13.1</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>5.5</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="F9">
-        <v>24.5</v>
+        <v>27.1</v>
       </c>
       <c r="G9">
-        <v>8.5</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="H9">
-        <v>39.4</v>
+        <v>38.2</v>
       </c>
       <c r="I9">
-        <v>36.8</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="J9">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
       <c r="K9">
-        <v>18.8</v>
+        <v>15.6</v>
       </c>
       <c r="L9">
-        <v>19.4</v>
+        <v>22.8</v>
       </c>
       <c r="M9">
-        <v>17.8</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2288,40 +2652,40 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>39.3</v>
       </c>
       <c r="D10">
-        <v>18.8</v>
+        <v>16.8</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H10">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="I10">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J10">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K10">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2332,34 +2696,34 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>78.2</v>
+        <v>79.2</v>
       </c>
       <c r="D11">
-        <v>56.00000000000001</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="E11">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="F11">
-        <v>19.1</v>
+        <v>20.6</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="H11">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="I11">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J11">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2379,322 +2743,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>102.37</v>
+      </c>
+      <c r="E2">
+        <v>0.182</v>
+      </c>
+      <c r="F2">
+        <v>117.92</v>
+      </c>
+      <c r="G2">
+        <v>0.515</v>
+      </c>
+      <c r="H2">
+        <v>7.3</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>128.2818181818182</v>
-      </c>
-      <c r="E2">
-        <v>1411.1</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D3">
+        <v>128.28</v>
+      </c>
+      <c r="E3">
+        <v>0.727</v>
+      </c>
+      <c r="F3">
+        <v>116.89</v>
+      </c>
+      <c r="G3">
+        <v>0.515</v>
+      </c>
+      <c r="H3">
+        <v>5.3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>101.5</v>
+      </c>
+      <c r="E4">
+        <v>0.455</v>
+      </c>
+      <c r="F4">
+        <v>119.55</v>
+      </c>
+      <c r="G4">
+        <v>0.636</v>
+      </c>
+      <c r="H4">
+        <v>4.7</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>126.47</v>
+      </c>
+      <c r="E5">
+        <v>0.636</v>
+      </c>
+      <c r="F5">
+        <v>111.34</v>
+      </c>
+      <c r="G5">
+        <v>0.485</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6">
+        <v>90.75</v>
+      </c>
+      <c r="E6">
+        <v>0.273</v>
+      </c>
+      <c r="F6">
+        <v>119.58</v>
+      </c>
+      <c r="G6">
+        <v>0.606</v>
+      </c>
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>122.71</v>
+      </c>
+      <c r="E7">
+        <v>0.455</v>
+      </c>
+      <c r="F7">
+        <v>115.98</v>
+      </c>
+      <c r="G7">
+        <v>0.545</v>
+      </c>
+      <c r="H7">
+        <v>0.7</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D3">
+      <c r="D8">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>0.455</v>
+      </c>
+      <c r="F8">
+        <v>111.72</v>
+      </c>
+      <c r="G8">
+        <v>0.515</v>
+      </c>
+      <c r="H8">
+        <v>-4.3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>117.94</v>
+      </c>
+      <c r="E9">
+        <v>0.636</v>
+      </c>
+      <c r="F9">
+        <v>110.16</v>
+      </c>
+      <c r="G9">
+        <v>0.364</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>113.1</v>
+      </c>
+      <c r="E10">
+        <v>0.455</v>
+      </c>
+      <c r="F10">
+        <v>107.27</v>
+      </c>
+      <c r="G10">
+        <v>0.424</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11">
         <v>117.28</v>
       </c>
-      <c r="E3">
-        <v>1290.08</v>
-      </c>
-      <c r="F3">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>126.4690909090909</v>
-      </c>
-      <c r="E4">
-        <v>1391.16</v>
-      </c>
-      <c r="F4">
-        <v>99.5</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>117.9418181818182</v>
-      </c>
-      <c r="E5">
-        <v>1297.36</v>
-      </c>
-      <c r="F5">
-        <v>96.3</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D6">
-        <v>122.7109090909091</v>
-      </c>
-      <c r="E6">
-        <v>1349.82</v>
-      </c>
-      <c r="F6">
-        <v>72.7</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>115.0036363636364</v>
-      </c>
-      <c r="E7">
-        <v>1265.04</v>
-      </c>
-      <c r="F7">
-        <v>56.39999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D8">
-        <v>113.1</v>
-      </c>
-      <c r="E8">
-        <v>1244.1</v>
-      </c>
-      <c r="F8">
-        <v>54.8</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D9">
-        <v>101.4963636363636</v>
-      </c>
-      <c r="E9">
-        <v>1116.46</v>
-      </c>
-      <c r="F9">
-        <v>20.4</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D10">
-        <v>90.74727272727273</v>
-      </c>
-      <c r="E10">
-        <v>998.2199999999999</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>40.8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D11">
-        <v>102.3672727272727</v>
-      </c>
       <c r="E11">
-        <v>1126.04</v>
+        <v>0.727</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>104.98</v>
       </c>
       <c r="G11">
-        <v>59.2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>75</v>
+        <v>0.394</v>
+      </c>
+      <c r="H11">
+        <v>-7</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2703,6 +3064,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>117.28</v>
+      </c>
+      <c r="E2">
+        <v>1290.08</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>128.2818181818182</v>
+      </c>
+      <c r="E3">
+        <v>1411.1</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>126.4690909090909</v>
+      </c>
+      <c r="E4">
+        <v>1391.16</v>
+      </c>
+      <c r="F4">
+        <v>99.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>117.9418181818182</v>
+      </c>
+      <c r="E5">
+        <v>1297.36</v>
+      </c>
+      <c r="F5">
+        <v>96.7</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D6">
+        <v>122.7109090909091</v>
+      </c>
+      <c r="E6">
+        <v>1349.82</v>
+      </c>
+      <c r="F6">
+        <v>71.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>115.0036363636364</v>
+      </c>
+      <c r="E7">
+        <v>1265.04</v>
+      </c>
+      <c r="F7">
+        <v>58.4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D8">
+        <v>113.1</v>
+      </c>
+      <c r="E8">
+        <v>1244.1</v>
+      </c>
+      <c r="F8">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D9">
+        <v>101.4963636363636</v>
+      </c>
+      <c r="E9">
+        <v>1116.46</v>
+      </c>
+      <c r="F9">
+        <v>20.7</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D10">
+        <v>90.74727272727273</v>
+      </c>
+      <c r="E10">
+        <v>998.2199999999999</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>41.4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D11">
+        <v>102.3672727272727</v>
+      </c>
+      <c r="E11">
+        <v>1126.04</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>58.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2715,16 +3408,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2735,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>29</v>
@@ -2744,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2755,7 +3448,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -2764,7 +3457,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2775,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -2784,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2795,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2804,7 +3497,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2815,7 +3508,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -2824,7 +3517,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2835,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>-5</v>
@@ -2844,7 +3537,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2855,7 +3548,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>-8</v>
@@ -2864,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2875,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D9">
         <v>-10</v>
@@ -2884,7 +3577,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2895,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -2904,7 +3597,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2915,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>-30</v>
@@ -2924,7 +3617,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +3625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -2942,40 +3635,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3016,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3057,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3098,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3139,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3180,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3221,7 +3914,7 @@
         <v>-5</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3262,7 +3955,7 @@
         <v>-8</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3303,7 +3996,7 @@
         <v>-10</v>
       </c>
       <c r="M9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3344,7 +4037,7 @@
         <v>-17</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3385,355 +4078,7 @@
         <v>-30</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>-13</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>-19</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-23</v>
-      </c>
-      <c r="G4">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>-17</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-18</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>-17</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>-4</v>
-      </c>
-      <c r="F8">
-        <v>-20</v>
-      </c>
-      <c r="G8">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>-2</v>
-      </c>
-      <c r="F11">
-        <v>-13</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>-12</v>
-      </c>
-      <c r="F13">
-        <v>-20</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="121">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -175,7 +175,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>6.6-7.3</t>
   </si>
   <si>
     <t>6.6-7.4</t>
@@ -1143,25 +1146,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1893,22 +1896,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.2</v>
+        <v>26.4</v>
       </c>
       <c r="C2">
-        <v>34.6</v>
+        <v>37.2</v>
       </c>
       <c r="D2">
-        <v>24.1</v>
+        <v>20.2</v>
       </c>
       <c r="E2">
-        <v>10.6</v>
+        <v>13.8</v>
       </c>
       <c r="F2">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1931,19 +1934,19 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>51.1</v>
+        <v>52.2</v>
       </c>
       <c r="C3">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="D3">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="E3">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1969,25 +1972,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>15.9</v>
+        <v>16.9</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="D4">
-        <v>30.8</v>
+        <v>31.4</v>
       </c>
       <c r="E4">
-        <v>22.8</v>
+        <v>21.2</v>
       </c>
       <c r="F4">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G4">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2007,25 +2010,25 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="D5">
-        <v>23.4</v>
+        <v>27.3</v>
       </c>
       <c r="E5">
-        <v>35.6</v>
+        <v>34.2</v>
       </c>
       <c r="F5">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="G5">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
         <v>0.1</v>
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2048,25 +2051,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="E6">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="F6">
-        <v>35.3</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="H6">
-        <v>19.4</v>
+        <v>18.1</v>
       </c>
       <c r="I6">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -2075,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>71.3</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2086,34 +2089,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="F7">
-        <v>19.6</v>
+        <v>18.4</v>
       </c>
       <c r="G7">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="H7">
-        <v>31.4</v>
+        <v>29.6</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>58.4</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2127,31 +2130,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E8">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="F8">
         <v>19.6</v>
       </c>
       <c r="G8">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="H8">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
       <c r="I8">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="J8">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2171,25 +2174,25 @@
         <v>0.8</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="G9">
-        <v>14.5</v>
+        <v>13.1</v>
       </c>
       <c r="H9">
-        <v>19.7</v>
+        <v>22.9</v>
       </c>
       <c r="I9">
-        <v>56.3</v>
+        <v>54.8</v>
       </c>
       <c r="J9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K9">
         <v>0.1</v>
       </c>
       <c r="L9">
-        <v>20.7</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2212,22 +2215,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I10">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>56</v>
+        <v>54.7</v>
       </c>
       <c r="K10">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2259,10 +2262,10 @@
         <v>1.9</v>
       </c>
       <c r="J11">
-        <v>39.6</v>
+        <v>40.1</v>
       </c>
       <c r="K11">
-        <v>58.5</v>
+        <v>58</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2321,40 +2324,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>99.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="C2">
-        <v>99.7</v>
+        <v>24.9</v>
       </c>
       <c r="D2">
-        <v>95.89999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="E2">
-        <v>95</v>
+        <v>85.8</v>
       </c>
       <c r="F2">
-        <v>96.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G2">
-        <v>98.7</v>
+        <v>94</v>
       </c>
       <c r="H2">
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="I2">
-        <v>99.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -2362,34 +2365,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>76.2</v>
+        <v>99.5</v>
       </c>
       <c r="C3">
-        <v>25.9</v>
+        <v>98.7</v>
       </c>
       <c r="D3">
-        <v>57.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="E3">
-        <v>88.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="F3">
-        <v>82.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G3">
-        <v>94.69999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H3">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="I3">
-        <v>99.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J3">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2398,7 +2401,7 @@
         <v>100</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2406,40 +2409,40 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C4">
-        <v>31.4</v>
+        <v>36.3</v>
       </c>
       <c r="D4">
-        <v>57.49999999999999</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="E4">
-        <v>85.3</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="F4">
-        <v>91.3</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="G4">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="H4">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I4">
-        <v>96.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="J4">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K4">
-        <v>97.8</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="L4">
         <v>99.09999999999999</v>
       </c>
       <c r="M4">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2447,40 +2450,40 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
       <c r="C5">
+        <v>75.8</v>
+      </c>
+      <c r="D5">
         <v>74.8</v>
       </c>
-      <c r="D5">
-        <v>77.10000000000001</v>
-      </c>
       <c r="E5">
-        <v>89.8</v>
+        <v>90.3</v>
       </c>
       <c r="F5">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>96</v>
+      </c>
+      <c r="I5">
         <v>97.8</v>
       </c>
-      <c r="G5">
-        <v>80.7</v>
-      </c>
-      <c r="H5">
-        <v>96.39999999999999</v>
-      </c>
-      <c r="I5">
-        <v>97.89999999999999</v>
-      </c>
       <c r="J5">
-        <v>95.89999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="K5">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="L5">
-        <v>94.89999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="M5">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2488,119 +2491,119 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>66.8</v>
+        <v>65.8</v>
       </c>
       <c r="C6">
-        <v>70.39999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="D6">
-        <v>74.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E6">
-        <v>60.7</v>
+        <v>61.8</v>
       </c>
       <c r="F6">
-        <v>35.9</v>
+        <v>34.7</v>
       </c>
       <c r="G6">
-        <v>61.6</v>
+        <v>63.7</v>
       </c>
       <c r="H6">
         <v>43.6</v>
       </c>
       <c r="I6">
-        <v>63.9</v>
+        <v>62.3</v>
       </c>
       <c r="J6">
-        <v>37.4</v>
+        <v>36.2</v>
       </c>
       <c r="K6">
-        <v>62.1</v>
+        <v>60.5</v>
       </c>
       <c r="L6">
-        <v>73.40000000000001</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="M6">
-        <v>72.89999999999999</v>
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>99.3</v>
+        <v>11.2</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>53.1</v>
       </c>
       <c r="D7">
-        <v>62.4</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E7">
-        <v>86.40000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="F7">
-        <v>91.40000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="G7">
-        <v>85.5</v>
+        <v>60.4</v>
       </c>
       <c r="H7">
-        <v>63.5</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="I7">
-        <v>70.19999999999999</v>
+        <v>33.3</v>
       </c>
       <c r="J7">
-        <v>86.09999999999999</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="K7">
-        <v>77.8</v>
+        <v>46.3</v>
       </c>
       <c r="L7">
-        <v>52.1</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="M7">
-        <v>56.49999999999999</v>
+        <v>56.10000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>10.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C8">
-        <v>50.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D8">
-        <v>84.8</v>
+        <v>63.8</v>
       </c>
       <c r="E8">
-        <v>62.4</v>
+        <v>88</v>
       </c>
       <c r="F8">
-        <v>52.7</v>
+        <v>92.5</v>
       </c>
       <c r="G8">
-        <v>62.2</v>
+        <v>83.5</v>
       </c>
       <c r="H8">
-        <v>53.7</v>
+        <v>61.5</v>
       </c>
       <c r="I8">
-        <v>33.6</v>
+        <v>70.3</v>
       </c>
       <c r="J8">
-        <v>53</v>
+        <v>86.2</v>
       </c>
       <c r="K8">
-        <v>44.7</v>
+        <v>77.3</v>
       </c>
       <c r="L8">
-        <v>57.09999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="M8">
         <v>55.00000000000001</v>
@@ -2611,40 +2614,40 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>33.90000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="C9">
-        <v>32.8</v>
+        <v>31.5</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14.3</v>
       </c>
       <c r="E9">
-        <v>4.399999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="F9">
-        <v>27.1</v>
+        <v>24.8</v>
       </c>
       <c r="G9">
-        <v>9.700000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="H9">
-        <v>38.2</v>
+        <v>39.2</v>
       </c>
       <c r="I9">
-        <v>35.09999999999999</v>
+        <v>37.8</v>
       </c>
       <c r="J9">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="K9">
-        <v>15.6</v>
+        <v>16.9</v>
       </c>
       <c r="L9">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>19.6</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2652,40 +2655,40 @@
         <v>4</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>36.6</v>
+      </c>
+      <c r="D10">
+        <v>18.3</v>
+      </c>
+      <c r="E10">
+        <v>4.9</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1.3</v>
+      </c>
+      <c r="H10">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.7</v>
+      </c>
+      <c r="J10">
+        <v>4.2</v>
+      </c>
+      <c r="K10">
+        <v>0.8</v>
+      </c>
+      <c r="L10">
         <v>0.1</v>
       </c>
-      <c r="C10">
-        <v>39.3</v>
-      </c>
-      <c r="D10">
-        <v>16.8</v>
-      </c>
-      <c r="E10">
-        <v>4.5</v>
-      </c>
-      <c r="F10">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="G10">
-        <v>1.2</v>
-      </c>
-      <c r="H10">
-        <v>6.1</v>
-      </c>
-      <c r="I10">
-        <v>1.9</v>
-      </c>
-      <c r="J10">
-        <v>3.5</v>
-      </c>
-      <c r="K10">
-        <v>1.3</v>
-      </c>
-      <c r="L10">
-        <v>0.3</v>
-      </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2696,34 +2699,34 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>79.2</v>
+        <v>76.3</v>
       </c>
       <c r="D11">
-        <v>57.09999999999999</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="E11">
         <v>23.1</v>
       </c>
       <c r="F11">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="G11">
-        <v>9.700000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="H11">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="I11">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2781,8 +2784,8 @@
       <c r="D2">
         <v>102.37</v>
       </c>
-      <c r="E2">
-        <v>0.182</v>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2">
         <v>117.92</v>
@@ -2810,8 +2813,8 @@
       <c r="D3">
         <v>128.28</v>
       </c>
-      <c r="E3">
-        <v>0.727</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3">
         <v>116.89</v>
@@ -2839,8 +2842,8 @@
       <c r="D4">
         <v>101.5</v>
       </c>
-      <c r="E4">
-        <v>0.455</v>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4">
         <v>119.55</v>
@@ -2868,8 +2871,8 @@
       <c r="D5">
         <v>126.47</v>
       </c>
-      <c r="E5">
-        <v>0.636</v>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
       <c r="F5">
         <v>111.34</v>
@@ -2897,8 +2900,8 @@
       <c r="D6">
         <v>90.75</v>
       </c>
-      <c r="E6">
-        <v>0.273</v>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <v>119.58</v>
@@ -2926,8 +2929,8 @@
       <c r="D7">
         <v>122.71</v>
       </c>
-      <c r="E7">
-        <v>0.455</v>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7">
         <v>115.98</v>
@@ -2955,8 +2958,8 @@
       <c r="D8">
         <v>115</v>
       </c>
-      <c r="E8">
-        <v>0.455</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
         <v>111.72</v>
@@ -2984,8 +2987,8 @@
       <c r="D9">
         <v>117.94</v>
       </c>
-      <c r="E9">
-        <v>0.636</v>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
       <c r="F9">
         <v>110.16</v>
@@ -3013,8 +3016,8 @@
       <c r="D10">
         <v>113.1</v>
       </c>
-      <c r="E10">
-        <v>0.455</v>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
       <c r="F10">
         <v>107.27</v>
@@ -3042,8 +3045,8 @@
       <c r="D11">
         <v>117.28</v>
       </c>
-      <c r="E11">
-        <v>0.727</v>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
       <c r="F11">
         <v>104.98</v>
@@ -3126,7 +3129,7 @@
         <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3155,7 +3158,7 @@
         <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3175,7 +3178,7 @@
         <v>1391.16</v>
       </c>
       <c r="F4">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3184,7 +3187,7 @@
         <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3204,7 +3207,7 @@
         <v>1297.36</v>
       </c>
       <c r="F5">
-        <v>96.7</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3213,7 +3216,7 @@
         <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3233,7 +3236,7 @@
         <v>1349.82</v>
       </c>
       <c r="F6">
-        <v>71.3</v>
+        <v>74.2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3242,7 +3245,7 @@
         <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3262,16 +3265,16 @@
         <v>1265.04</v>
       </c>
       <c r="F7">
-        <v>58.4</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3291,16 +3294,16 @@
         <v>1244.1</v>
       </c>
       <c r="F8">
-        <v>53.40000000000001</v>
+        <v>53.7</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3320,16 +3323,16 @@
         <v>1116.46</v>
       </c>
       <c r="F9">
-        <v>20.7</v>
+        <v>18.7</v>
       </c>
       <c r="G9">
         <v>0.1</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3349,16 +3352,16 @@
         <v>998.2199999999999</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3381,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.5</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3408,16 +3411,16 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3437,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3457,7 +3460,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3477,7 +3480,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3497,7 +3500,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3517,7 +3520,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3537,7 +3540,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3557,7 +3560,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3577,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3597,7 +3600,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3617,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3635,40 +3638,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3709,7 +3712,7 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3750,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3791,7 +3794,7 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3832,7 +3835,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3873,7 +3876,7 @@
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3914,7 +3917,7 @@
         <v>-5</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3955,7 +3958,7 @@
         <v>-8</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3996,7 +3999,7 @@
         <v>-10</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4037,7 +4040,7 @@
         <v>-17</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4078,7 +4081,7 @@
         <v>-30</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -55,31 +55,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -169,6 +172,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -190,36 +196,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
     <t>suraj bhalani</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
   </si>
   <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Hark Nanda</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -244,49 +250,61 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>8.8-5.2</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>6.6-7.3</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>10.3-3.7</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>6.9-7.1</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
   </si>
   <si>
     <t>6.1-7.9</t>
   </si>
   <si>
+    <t>3.6-10.4</t>
+  </si>
+  <si>
     <t>3.9-10.1</t>
   </si>
   <si>
-    <t>3.2-10.8</t>
+    <t>9-5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>7-7</t>
@@ -295,12 +313,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>3-11</t>
+  </si>
+  <si>
     <t>4-10</t>
   </si>
   <si>
-    <t>3-11</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -310,6 +328,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
@@ -319,18 +343,6 @@
     <t>↓2</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
@@ -365,6 +377,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -789,28 +804,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -821,31 +836,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -856,34 +871,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -891,34 +906,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -926,34 +941,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -961,19 +976,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -982,10 +997,10 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -996,34 +1011,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1034,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1043,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -1055,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1066,31 +1081,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1101,34 +1116,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1153,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1146,25 +1161,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1172,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1198,19 +1213,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -1224,22 +1239,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-19</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-23</v>
-      </c>
       <c r="G4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -1250,22 +1265,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -1276,25 +1291,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1302,25 +1317,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1328,22 +1343,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="F8">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1354,25 +1369,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F9">
+        <v>-20</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
         <v>6</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1380,25 +1395,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1409,22 +1424,22 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1432,51 +1447,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>-12</v>
-      </c>
-      <c r="F13">
-        <v>-20</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1494,13 +1483,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1511,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1522,10 +1511,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1536,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1550,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1564,13 +1553,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1581,10 +1570,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1595,7 +1584,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1606,13 +1595,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1623,10 +1612,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1637,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1658,16 +1647,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1678,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1695,13 +1684,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1709,16 +1698,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1729,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D5">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1743,13 +1732,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1760,13 +1749,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1780,10 +1769,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
-        <v>0.09999999999999964</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1797,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1814,10 +1803,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -1837,7 +1826,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1855,40 +1844,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1896,22 +1885,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.4</v>
+        <v>2.7</v>
       </c>
       <c r="C2">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="D2">
-        <v>20.2</v>
+        <v>34.6</v>
       </c>
       <c r="E2">
-        <v>13.8</v>
+        <v>24.6</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1931,25 +1920,25 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>52.2</v>
+        <v>3.4</v>
       </c>
       <c r="C3">
-        <v>26.4</v>
+        <v>37.3</v>
       </c>
       <c r="D3">
-        <v>16.5</v>
+        <v>28.6</v>
       </c>
       <c r="E3">
-        <v>4.8</v>
+        <v>24.8</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1969,28 +1958,28 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>16.9</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>22.4</v>
+        <v>5.7</v>
       </c>
       <c r="D4">
-        <v>31.4</v>
+        <v>2.2</v>
       </c>
       <c r="E4">
-        <v>21.2</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2002,36 +1991,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="C5">
-        <v>13.2</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>27.3</v>
+        <v>32.3</v>
       </c>
       <c r="E5">
-        <v>34.2</v>
+        <v>39.1</v>
       </c>
       <c r="F5">
-        <v>11.6</v>
+        <v>5.3</v>
       </c>
       <c r="G5">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2040,88 +2029,88 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.40000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
         <v>2.3</v>
       </c>
       <c r="E6">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>36.8</v>
       </c>
       <c r="G6">
-        <v>23.8</v>
+        <v>28.4</v>
       </c>
       <c r="H6">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="I6">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>74.2</v>
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
         <v>18.4</v>
       </c>
       <c r="G7">
-        <v>30.2</v>
+        <v>27.1</v>
       </c>
       <c r="H7">
-        <v>29.6</v>
+        <v>22.6</v>
       </c>
       <c r="I7">
-        <v>12.3</v>
+        <v>31</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>57.6</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2130,36 +2119,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
-        <v>19.6</v>
+        <v>16.6</v>
       </c>
       <c r="G8">
-        <v>24.9</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>24.9</v>
+        <v>33.7</v>
       </c>
       <c r="I8">
-        <v>20.3</v>
+        <v>26.9</v>
       </c>
       <c r="J8">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>53.7</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2171,28 +2160,28 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.8</v>
+        <v>15.9</v>
       </c>
       <c r="G9">
-        <v>13.1</v>
+        <v>21.2</v>
       </c>
       <c r="H9">
-        <v>22.9</v>
+        <v>24.7</v>
       </c>
       <c r="I9">
-        <v>54.8</v>
+        <v>35.7</v>
       </c>
       <c r="J9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>18.7</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2215,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>54.7</v>
+        <v>20.9</v>
       </c>
       <c r="K10">
-        <v>41.9</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2259,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="J11">
-        <v>40.1</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K11">
-        <v>58</v>
+        <v>20.9</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2278,420 +2267,450 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78.8</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>24.9</v>
+        <v>23.7</v>
       </c>
       <c r="D2">
-        <v>57.3</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="E2">
-        <v>85.8</v>
+        <v>87.5</v>
       </c>
       <c r="F2">
-        <v>84.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H2">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I2">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J2">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>99.8</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13.2</v>
+      </c>
+      <c r="C3">
+        <v>76.7</v>
+      </c>
+      <c r="D3">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>91.2</v>
+      </c>
+      <c r="F3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G3">
+        <v>81.5</v>
+      </c>
+      <c r="H3">
+        <v>96.7</v>
+      </c>
+      <c r="I3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="J3">
+        <v>96.5</v>
+      </c>
+      <c r="K3">
+        <v>98.7</v>
+      </c>
+      <c r="L3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="M3">
+        <v>99.8</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>98.7</v>
+      </c>
+      <c r="C4">
+        <v>99.3</v>
+      </c>
+      <c r="D4">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F4">
+        <v>97.3</v>
+      </c>
+      <c r="G4">
+        <v>98.3</v>
+      </c>
+      <c r="H4">
+        <v>97.8</v>
+      </c>
+      <c r="I4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J4">
+        <v>99.8</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>99.7</v>
+      </c>
+      <c r="C5">
+        <v>34.2</v>
+      </c>
+      <c r="D5">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="E5">
+        <v>82.5</v>
+      </c>
+      <c r="F5">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G5">
+        <v>96.3</v>
+      </c>
+      <c r="H5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>96.8</v>
+      </c>
+      <c r="J5">
+        <v>99.5</v>
+      </c>
+      <c r="K5">
+        <v>98.2</v>
+      </c>
+      <c r="L5">
+        <v>99.3</v>
+      </c>
+      <c r="M5">
+        <v>98.8</v>
+      </c>
+      <c r="N5">
         <v>99.90000000000001</v>
       </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>99.5</v>
-      </c>
-      <c r="C3">
-        <v>98.7</v>
-      </c>
-      <c r="D3">
-        <v>95.5</v>
-      </c>
-      <c r="E3">
-        <v>94.8</v>
-      </c>
-      <c r="F3">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="G3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="H3">
-        <v>97.8</v>
-      </c>
-      <c r="I3">
-        <v>98.7</v>
-      </c>
-      <c r="J3">
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10.6</v>
+      </c>
+      <c r="C6">
+        <v>50.1</v>
+      </c>
+      <c r="D6">
+        <v>85.3</v>
+      </c>
+      <c r="E6">
+        <v>61.3</v>
+      </c>
+      <c r="F6">
+        <v>51.6</v>
+      </c>
+      <c r="G6">
+        <v>62.5</v>
+      </c>
+      <c r="H6">
+        <v>54.3</v>
+      </c>
+      <c r="I6">
+        <v>32.1</v>
+      </c>
+      <c r="J6">
+        <v>55.3</v>
+      </c>
+      <c r="K6">
+        <v>46.1</v>
+      </c>
+      <c r="L6">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="M6">
+        <v>80</v>
+      </c>
+      <c r="N6">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>39.4</v>
+      </c>
+      <c r="C7">
+        <v>34.1</v>
+      </c>
+      <c r="D7">
+        <v>14.7</v>
+      </c>
+      <c r="E7">
+        <v>6.3</v>
+      </c>
+      <c r="F7">
+        <v>25.3</v>
+      </c>
+      <c r="G7">
+        <v>9.9</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>37.3</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>15.1</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="N7">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>63.6</v>
+      </c>
+      <c r="C8">
+        <v>70.7</v>
+      </c>
+      <c r="D8">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E8">
+        <v>60.7</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>63.5</v>
+      </c>
+      <c r="H8">
+        <v>42.3</v>
+      </c>
+      <c r="I8">
+        <v>62.6</v>
+      </c>
+      <c r="J8">
+        <v>33.4</v>
+      </c>
+      <c r="K8">
+        <v>62.3</v>
+      </c>
+      <c r="L8">
+        <v>72.2</v>
+      </c>
+      <c r="M8">
+        <v>45.8</v>
+      </c>
+      <c r="N8">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>99.7</v>
       </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C4">
-        <v>36.3</v>
-      </c>
-      <c r="D4">
-        <v>57.09999999999999</v>
-      </c>
-      <c r="E4">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="F4">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="G4">
-        <v>96.2</v>
-      </c>
-      <c r="H4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I4">
+      <c r="C9">
         <v>96.09999999999999</v>
       </c>
-      <c r="J4">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K4">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="L4">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="M4">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>13.2</v>
-      </c>
-      <c r="C5">
-        <v>75.8</v>
-      </c>
-      <c r="D5">
-        <v>74.8</v>
-      </c>
-      <c r="E5">
-        <v>90.3</v>
-      </c>
-      <c r="F5">
-        <v>96.89999999999999</v>
-      </c>
-      <c r="G5">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>96</v>
-      </c>
-      <c r="I5">
-        <v>97.8</v>
-      </c>
-      <c r="J5">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="K5">
-        <v>98.8</v>
-      </c>
-      <c r="L5">
-        <v>95.19999999999999</v>
-      </c>
-      <c r="M5">
-        <v>96.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>65.8</v>
-      </c>
-      <c r="C6">
-        <v>71.7</v>
-      </c>
-      <c r="D6">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E6">
-        <v>61.8</v>
-      </c>
-      <c r="F6">
-        <v>34.7</v>
-      </c>
-      <c r="G6">
-        <v>63.7</v>
-      </c>
-      <c r="H6">
-        <v>43.6</v>
-      </c>
-      <c r="I6">
-        <v>62.3</v>
-      </c>
-      <c r="J6">
-        <v>36.2</v>
-      </c>
-      <c r="K6">
-        <v>60.5</v>
-      </c>
-      <c r="L6">
+      <c r="D9">
+        <v>67.60000000000001</v>
+      </c>
+      <c r="E9">
+        <v>87.7</v>
+      </c>
+      <c r="F9">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="G9">
+        <v>84</v>
+      </c>
+      <c r="H9">
+        <v>59.8</v>
+      </c>
+      <c r="I9">
         <v>72.39999999999999</v>
       </c>
-      <c r="M6">
-        <v>73.09999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>11.2</v>
-      </c>
-      <c r="C7">
-        <v>53.1</v>
-      </c>
-      <c r="D7">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="E7">
-        <v>60.8</v>
-      </c>
-      <c r="F7">
-        <v>53.1</v>
-      </c>
-      <c r="G7">
-        <v>60.4</v>
-      </c>
-      <c r="H7">
-        <v>54.90000000000001</v>
-      </c>
-      <c r="I7">
-        <v>33.3</v>
-      </c>
-      <c r="J7">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="K7">
-        <v>46.3</v>
-      </c>
-      <c r="L7">
-        <v>56.49999999999999</v>
-      </c>
-      <c r="M7">
-        <v>56.10000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C8">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="D8">
-        <v>63.8</v>
-      </c>
-      <c r="E8">
-        <v>88</v>
-      </c>
-      <c r="F8">
-        <v>92.5</v>
-      </c>
-      <c r="G8">
-        <v>83.5</v>
-      </c>
-      <c r="H8">
-        <v>61.5</v>
-      </c>
-      <c r="I8">
-        <v>70.3</v>
-      </c>
-      <c r="J8">
-        <v>86.2</v>
-      </c>
-      <c r="K8">
-        <v>77.3</v>
-      </c>
-      <c r="L8">
-        <v>52.8</v>
-      </c>
-      <c r="M8">
-        <v>55.00000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>32.5</v>
-      </c>
-      <c r="C9">
-        <v>31.5</v>
-      </c>
-      <c r="D9">
-        <v>14.3</v>
-      </c>
-      <c r="E9">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="F9">
-        <v>24.8</v>
-      </c>
-      <c r="G9">
-        <v>10.4</v>
-      </c>
-      <c r="H9">
-        <v>39.2</v>
-      </c>
-      <c r="I9">
-        <v>37.8</v>
-      </c>
       <c r="J9">
-        <v>24.8</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K9">
-        <v>16.9</v>
+        <v>77.5</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="M9">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35.3</v>
+      </c>
+      <c r="N9">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>36.6</v>
+        <v>40.7</v>
       </c>
       <c r="D10">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="E10">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
+        <v>1.7</v>
+      </c>
+      <c r="H10">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.1</v>
+      </c>
+      <c r="J10">
+        <v>4.3</v>
+      </c>
+      <c r="K10">
         <v>1.3</v>
-      </c>
-      <c r="H10">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="I10">
-        <v>1.7</v>
-      </c>
-      <c r="J10">
-        <v>4.2</v>
-      </c>
-      <c r="K10">
-        <v>0.8</v>
       </c>
       <c r="L10">
         <v>0.1</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2699,36 +2718,39 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>76.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D11">
-        <v>55.40000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="E11">
-        <v>23.1</v>
+        <v>24.3</v>
       </c>
       <c r="F11">
-        <v>20.7</v>
+        <v>18.8</v>
       </c>
       <c r="G11">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="H11">
-        <v>3.7</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I11">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M11">
+        <v>0.1</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
     </row>
@@ -2747,28 +2769,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2776,28 +2798,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>102.37</v>
+        <v>102.01</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>117.92</v>
+        <v>121.57</v>
       </c>
       <c r="G2">
-        <v>0.515</v>
+        <v>0.583</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>16.5</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2805,28 +2827,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>128.28</v>
+        <v>119.29</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>116.89</v>
+        <v>123.89</v>
       </c>
       <c r="G3">
-        <v>0.515</v>
+        <v>0.708</v>
       </c>
       <c r="H3">
-        <v>5.3</v>
+        <v>13.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2834,28 +2856,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>101.5</v>
+        <v>114.51</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>119.55</v>
+        <v>122.79</v>
       </c>
       <c r="G4">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2863,28 +2885,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>126.47</v>
+        <v>131.42</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>111.34</v>
+        <v>110.65</v>
       </c>
       <c r="G5">
-        <v>0.485</v>
+        <v>0.458</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2895,25 +2917,25 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>90.75</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>119.58</v>
+        <v>122.36</v>
       </c>
       <c r="G6">
-        <v>0.606</v>
+        <v>0.625</v>
       </c>
       <c r="H6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2921,28 +2943,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>103.88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>114.47</v>
+      </c>
+      <c r="G7">
+        <v>0.542</v>
+      </c>
+      <c r="H7">
+        <v>1.5</v>
+      </c>
+      <c r="I7">
         <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>122.71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>115.98</v>
-      </c>
-      <c r="G7">
-        <v>0.545</v>
-      </c>
-      <c r="H7">
-        <v>0.7</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2950,28 +2972,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>115</v>
+        <v>117.24</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>111.72</v>
+        <v>109.2</v>
       </c>
       <c r="G8">
-        <v>0.515</v>
+        <v>0.375</v>
       </c>
       <c r="H8">
-        <v>-4.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2979,28 +3001,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>117.94</v>
+        <v>116.36</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>110.16</v>
+        <v>104.47</v>
       </c>
       <c r="G9">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="H9">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3011,25 +3033,25 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>113.1</v>
+        <v>111.71</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10">
-        <v>107.27</v>
+        <v>102.94</v>
       </c>
       <c r="G10">
-        <v>0.424</v>
+        <v>0.375</v>
       </c>
       <c r="H10">
-        <v>-5</v>
+        <v>-13.5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3037,28 +3059,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>117.28</v>
+        <v>128.35</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>104.98</v>
+        <v>102.08</v>
       </c>
       <c r="G11">
-        <v>0.394</v>
+        <v>0.375</v>
       </c>
       <c r="H11">
-        <v>-7</v>
+        <v>-16</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3076,31 +3098,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3108,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>117.28</v>
+        <v>116.3616666666667</v>
       </c>
       <c r="E2">
-        <v>1290.08</v>
+        <v>1396.34</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3126,27 +3148,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>128.2818181818182</v>
+        <v>117.2366666666667</v>
       </c>
       <c r="E3">
-        <v>1411.1</v>
+        <v>1406.84</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3155,184 +3177,184 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>126.4690909090909</v>
+        <v>131.4216666666667</v>
       </c>
       <c r="E4">
-        <v>1391.16</v>
+        <v>1577.06</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>117.9418181818182</v>
+        <v>128.3516666666667</v>
       </c>
       <c r="E5">
-        <v>1297.36</v>
+        <v>1540.22</v>
       </c>
       <c r="F5">
-        <v>96.39999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>122.7109090909091</v>
+        <v>114.51</v>
       </c>
       <c r="E6">
-        <v>1349.82</v>
+        <v>1374.12</v>
       </c>
       <c r="F6">
-        <v>74.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>115.0036363636364</v>
+        <v>102.01</v>
       </c>
       <c r="E7">
-        <v>1265.04</v>
+        <v>1224.12</v>
       </c>
       <c r="F7">
-        <v>57.59999999999999</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>113.1</v>
+        <v>119.2866666666667</v>
       </c>
       <c r="E8">
-        <v>1244.1</v>
+        <v>1431.44</v>
       </c>
       <c r="F8">
-        <v>53.7</v>
+        <v>39.4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>101.4963636363636</v>
+        <v>111.71</v>
       </c>
       <c r="E9">
-        <v>1116.46</v>
+        <v>1340.52</v>
       </c>
       <c r="F9">
-        <v>18.7</v>
+        <v>37.1</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3340,28 +3362,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>90.74727272727273</v>
+        <v>89.64833333333333</v>
       </c>
       <c r="E10">
-        <v>998.2199999999999</v>
+        <v>1075.78</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>41.9</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3369,28 +3391,28 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>102.3672727272727</v>
+        <v>103.88</v>
       </c>
       <c r="E11">
-        <v>1126.04</v>
+        <v>1246.56</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.99999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3408,19 +3430,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3431,16 +3453,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3448,19 +3470,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3468,19 +3490,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3488,19 +3510,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3508,19 +3530,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3531,16 +3553,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3554,13 +3576,13 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3574,13 +3596,13 @@
         <v>64</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3591,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>-17</v>
@@ -3600,7 +3622,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3611,16 +3633,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3630,51 +3652,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>118</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3711,175 +3736,190 @@
       <c r="L2">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>17</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>11</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>-4</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
       </c>
       <c r="C6">
         <v>-2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
         <v>7</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
-      <c r="M6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3916,11 +3956,14 @@
       <c r="L7">
         <v>-5</v>
       </c>
-      <c r="M7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3957,11 +4000,14 @@
       <c r="L8">
         <v>-8</v>
       </c>
-      <c r="M8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3998,11 +4044,14 @@
       <c r="L9">
         <v>-10</v>
       </c>
-      <c r="M9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4039,11 +4088,14 @@
       <c r="L10">
         <v>-17</v>
       </c>
-      <c r="M10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4080,8 +4132,11 @@
       <c r="L11">
         <v>-30</v>
       </c>
-      <c r="M11" t="s">
-        <v>102</v>
+      <c r="M11">
+        <v>-36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="129">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -55,34 +55,34 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -175,6 +175,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -196,36 +199,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
     <t>Krishna Padodara</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Hark Nanda</t>
-  </si>
-  <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
     <t>KASHYAP AShok</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -250,52 +253,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>10.3-3.7</t>
-  </si>
-  <si>
-    <t>8.3-5.7</t>
-  </si>
-  <si>
-    <t>6.9-7.1</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>3.6-10.4</t>
-  </si>
-  <si>
-    <t>3.9-10.1</t>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>7.4-6.6</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>3.3-10.7</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
   </si>
   <si>
     <t>9-5</t>
@@ -304,9 +307,6 @@
     <t>10-4</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -328,22 +328,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -380,6 +386,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -804,16 +813,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -822,13 +831,13 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -842,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -860,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -874,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -883,16 +892,16 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -915,25 +924,25 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -944,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -956,16 +965,16 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -976,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -991,19 +1000,19 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1014,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1032,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1052,28 +1061,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1081,22 +1090,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -1108,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1116,34 +1125,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1161,25 +1170,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1187,25 +1196,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>-17</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1213,25 +1222,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1239,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -1265,22 +1274,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-19</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-23</v>
-      </c>
       <c r="G5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -1291,22 +1300,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -1317,25 +1326,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1343,25 +1352,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1369,22 +1378,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="F9">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1395,25 +1404,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F10">
+        <v>-20</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
         <v>6</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1421,25 +1430,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1450,22 +1459,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1511,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1525,13 +1534,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1542,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1553,13 +1562,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1570,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1581,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1598,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1612,10 +1621,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1626,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1667,13 +1676,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1684,13 +1693,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D3">
-        <v>1.1</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1698,16 +1707,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D4">
-        <v>-1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1715,16 +1724,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D5">
-        <v>-1.6</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1732,16 +1741,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D6">
-        <v>0.2999999999999998</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1749,16 +1758,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1766,16 +1775,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1783,16 +1792,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1803,13 +1812,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1820,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -1885,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>36.8</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>34.6</v>
+        <v>46.2</v>
       </c>
       <c r="E2">
-        <v>24.6</v>
+        <v>30.9</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1923,19 +1932,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>37.3</v>
+        <v>17.5</v>
       </c>
       <c r="D3">
-        <v>28.6</v>
+        <v>33.5</v>
       </c>
       <c r="E3">
-        <v>24.8</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>5.7</v>
+        <v>11.8</v>
       </c>
       <c r="G3">
         <v>0.2</v>
@@ -1961,16 +1970,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1999,25 +2008,25 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.9</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>47.5</v>
       </c>
       <c r="D5">
-        <v>32.3</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>39.1</v>
+        <v>17.5</v>
       </c>
       <c r="F5">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2029,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>99.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2040,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>2.3</v>
       </c>
       <c r="E6">
-        <v>9.699999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="F6">
-        <v>36.8</v>
+        <v>40.1</v>
       </c>
       <c r="G6">
-        <v>28.4</v>
+        <v>31.8</v>
       </c>
       <c r="H6">
-        <v>18.7</v>
+        <v>11.5</v>
       </c>
       <c r="I6">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2067,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>77.40000000000001</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2084,19 +2093,19 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
-        <v>18.4</v>
+        <v>30.4</v>
       </c>
       <c r="G7">
-        <v>27.1</v>
+        <v>48.4</v>
       </c>
       <c r="H7">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="I7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2105,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>46.4</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2122,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>16.6</v>
+        <v>12.8</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>19.6</v>
       </c>
       <c r="H8">
-        <v>33.7</v>
+        <v>67.3</v>
       </c>
       <c r="I8">
-        <v>26.9</v>
+        <v>0.3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2143,12 +2152,12 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>39.4</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2163,30 +2172,30 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>37.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2210,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J10">
-        <v>20.9</v>
+        <v>97.5</v>
       </c>
       <c r="K10">
-        <v>79.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2224,7 +2233,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2245,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I11">
+        <v>97.2</v>
+      </c>
+      <c r="J11">
         <v>2.5</v>
       </c>
-      <c r="J11">
-        <v>76.59999999999999</v>
-      </c>
       <c r="K11">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2267,13 +2276,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2313,125 +2322,134 @@
       <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="C2">
-        <v>23.7</v>
+        <v>27.4</v>
       </c>
       <c r="D2">
-        <v>55.90000000000001</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>87.8</v>
       </c>
       <c r="F2">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="G2">
-        <v>95.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H2">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J2">
-        <v>98.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="M2">
-        <v>99.8</v>
-      </c>
       <c r="N2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="O2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="C3">
-        <v>76.7</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>72.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="E3">
-        <v>91.2</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="F3">
         <v>97.59999999999999</v>
       </c>
       <c r="G3">
-        <v>81.5</v>
+        <v>82.8</v>
       </c>
       <c r="H3">
-        <v>96.7</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>97.59999999999999</v>
       </c>
       <c r="J3">
-        <v>96.5</v>
+        <v>95.8</v>
       </c>
       <c r="K3">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="L3">
-        <v>94.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="M3">
         <v>99.8</v>
       </c>
       <c r="N3">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="O3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>95.7</v>
+      </c>
+      <c r="E4">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="F4">
+        <v>96.8</v>
+      </c>
+      <c r="G4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>99.5</v>
+      </c>
+      <c r="I4">
         <v>99.3</v>
       </c>
-      <c r="D4">
-        <v>96</v>
-      </c>
-      <c r="E4">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F4">
-        <v>97.3</v>
-      </c>
-      <c r="G4">
-        <v>98.3</v>
-      </c>
-      <c r="H4">
-        <v>97.8</v>
-      </c>
-      <c r="I4">
-        <v>99.40000000000001</v>
-      </c>
       <c r="J4">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2445,260 +2463,278 @@
       <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C5">
-        <v>34.2</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>56.59999999999999</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="E5">
-        <v>82.5</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>91.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G5">
-        <v>96.3</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="H5">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="I5">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="J5">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K5">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
       <c r="L5">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M5">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="N5">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="C6">
-        <v>50.1</v>
+        <v>49.2</v>
       </c>
       <c r="D6">
-        <v>85.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E6">
-        <v>61.3</v>
+        <v>62.6</v>
       </c>
       <c r="F6">
-        <v>51.6</v>
+        <v>52.5</v>
       </c>
       <c r="G6">
-        <v>62.5</v>
+        <v>62.4</v>
       </c>
       <c r="H6">
-        <v>54.3</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="I6">
-        <v>32.1</v>
+        <v>33.1</v>
       </c>
       <c r="J6">
-        <v>55.3</v>
+        <v>52.2</v>
       </c>
       <c r="K6">
-        <v>46.1</v>
+        <v>43.4</v>
       </c>
       <c r="L6">
-        <v>56.00000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="M6">
-        <v>80</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="N6">
-        <v>76.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="O6">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>39.4</v>
+        <v>36.6</v>
       </c>
       <c r="C7">
-        <v>34.1</v>
+        <v>32.3</v>
       </c>
       <c r="D7">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
       <c r="E7">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="F7">
-        <v>25.3</v>
+        <v>26.4</v>
       </c>
       <c r="G7">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="I7">
-        <v>37.3</v>
+        <v>38.9</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="K7">
-        <v>15.1</v>
+        <v>16.2</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>20.9</v>
       </c>
       <c r="M7">
-        <v>40.40000000000001</v>
+        <v>39.3</v>
       </c>
       <c r="N7">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>58.4</v>
+      </c>
+      <c r="O7">
+        <v>76.59999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>63.6</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C8">
-        <v>70.7</v>
+        <v>71.89999999999999</v>
       </c>
       <c r="D8">
-        <v>74.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="E8">
-        <v>60.7</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G8">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="H8">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="I8">
-        <v>62.6</v>
+        <v>63</v>
       </c>
       <c r="J8">
-        <v>33.4</v>
+        <v>36.3</v>
       </c>
       <c r="K8">
-        <v>62.3</v>
+        <v>61.5</v>
       </c>
       <c r="L8">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="M8">
-        <v>45.8</v>
+        <v>45.4</v>
       </c>
       <c r="N8">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>53.2</v>
+      </c>
+      <c r="O8">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>38.8</v>
+      </c>
+      <c r="D9">
+        <v>18.5</v>
+      </c>
+      <c r="E9">
+        <v>5.1</v>
+      </c>
+      <c r="F9">
+        <v>3.8</v>
+      </c>
+      <c r="G9">
+        <v>1.9</v>
+      </c>
+      <c r="H9">
+        <v>6.1</v>
+      </c>
+      <c r="I9">
+        <v>1.8</v>
+      </c>
+      <c r="J9">
+        <v>4.9</v>
+      </c>
+      <c r="K9">
+        <v>1.2</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <v>99.7</v>
       </c>
-      <c r="C9">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D9">
-        <v>67.60000000000001</v>
-      </c>
-      <c r="E9">
-        <v>87.7</v>
-      </c>
-      <c r="F9">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="G9">
-        <v>84</v>
-      </c>
-      <c r="H9">
-        <v>59.8</v>
-      </c>
-      <c r="I9">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="J9">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="K9">
-        <v>77.5</v>
-      </c>
-      <c r="L9">
-        <v>54.50000000000001</v>
-      </c>
-      <c r="M9">
-        <v>35.3</v>
-      </c>
-      <c r="N9">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
       <c r="C10">
-        <v>40.7</v>
+        <v>78.2</v>
       </c>
       <c r="D10">
-        <v>19.3</v>
+        <v>58.4</v>
       </c>
       <c r="E10">
-        <v>3.9</v>
+        <v>21.9</v>
       </c>
       <c r="F10">
-        <v>4.5</v>
+        <v>19.8</v>
       </c>
       <c r="G10">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>7.399999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="I10">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="J10">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="K10">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
         <v>0.1</v>
@@ -2709,48 +2745,54 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C11">
-        <v>74.40000000000001</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="D11">
-        <v>58.4</v>
+        <v>66.7</v>
       </c>
       <c r="E11">
-        <v>24.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F11">
-        <v>18.8</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="G11">
-        <v>6.7</v>
+        <v>82.8</v>
       </c>
       <c r="H11">
-        <v>4.399999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>67.5</v>
       </c>
       <c r="J11">
-        <v>0.8999999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="L11">
-        <v>0.3</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="N11">
+        <v>8.200000000000001</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
     </row>
@@ -2772,25 +2814,25 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2798,28 +2840,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>102.01</v>
+        <v>120.67</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>121.57</v>
+        <v>128.1</v>
       </c>
       <c r="G2">
-        <v>0.583</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H2">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2827,28 +2869,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>119.29</v>
+        <v>128.1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>123.89</v>
+        <v>120.67</v>
       </c>
       <c r="G3">
-        <v>0.708</v>
+        <v>0.462</v>
       </c>
       <c r="H3">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2859,25 +2901,25 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>114.51</v>
+        <v>114.73</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>122.79</v>
+        <v>127.16</v>
       </c>
       <c r="G4">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2885,28 +2927,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>131.42</v>
+        <v>103.18</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>110.65</v>
+        <v>115.17</v>
       </c>
       <c r="G5">
-        <v>0.458</v>
+        <v>0.615</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2914,28 +2956,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>89.65000000000001</v>
+        <v>127.16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>122.36</v>
+        <v>114.73</v>
       </c>
       <c r="G6">
-        <v>0.625</v>
+        <v>0.538</v>
       </c>
       <c r="H6">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2943,28 +2985,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>103.88</v>
+        <v>89.81</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7">
-        <v>114.47</v>
+        <v>116.07</v>
       </c>
       <c r="G7">
-        <v>0.542</v>
+        <v>0.615</v>
       </c>
       <c r="H7">
-        <v>1.5</v>
+        <v>-8</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2972,28 +3014,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>109.2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>104.2</v>
+      </c>
+      <c r="G8">
+        <v>0.538</v>
+      </c>
+      <c r="H8">
+        <v>-8</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>117.24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>109.2</v>
-      </c>
-      <c r="G8">
-        <v>0.375</v>
-      </c>
-      <c r="H8">
-        <v>-6.5</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3001,28 +3043,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>116.36</v>
+        <v>104.2</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>104.47</v>
+        <v>109.2</v>
       </c>
       <c r="G9">
-        <v>0.333</v>
+        <v>0.385</v>
       </c>
       <c r="H9">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3030,28 +3072,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>111.71</v>
+        <v>115.17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>102.94</v>
+        <v>103.18</v>
       </c>
       <c r="G10">
-        <v>0.375</v>
+        <v>0.308</v>
       </c>
       <c r="H10">
-        <v>-13.5</v>
+        <v>-22</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3059,28 +3101,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>128.35</v>
+        <v>116.07</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>102.08</v>
+        <v>89.81</v>
       </c>
       <c r="G11">
-        <v>0.375</v>
+        <v>0.231</v>
       </c>
       <c r="H11">
-        <v>-16</v>
+        <v>-37</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3143,28 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3130,16 +3172,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D2">
-        <v>116.3616666666667</v>
+        <v>116.0707692307692</v>
       </c>
       <c r="E2">
-        <v>1396.34</v>
+        <v>1508.92</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3148,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3159,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D3">
-        <v>117.2366666666667</v>
+        <v>115.1738461538462</v>
       </c>
       <c r="E3">
-        <v>1406.84</v>
+        <v>1497.26</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3177,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3188,16 +3230,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D4">
-        <v>131.4216666666667</v>
+        <v>128.1015384615385</v>
       </c>
       <c r="E4">
-        <v>1577.06</v>
+        <v>1665.32</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3206,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3217,19 +3259,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D5">
-        <v>128.3516666666667</v>
+        <v>127.1630769230769</v>
       </c>
       <c r="E5">
-        <v>1540.22</v>
+        <v>1653.12</v>
       </c>
       <c r="F5">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3238,7 +3280,7 @@
         <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3249,22 +3291,22 @@
         <v>78</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6">
-        <v>114.51</v>
+        <v>114.7276923076923</v>
       </c>
       <c r="E6">
-        <v>1374.12</v>
+        <v>1491.46</v>
       </c>
       <c r="F6">
-        <v>77.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
         <v>94</v>
@@ -3278,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D7">
-        <v>102.01</v>
+        <v>104.2015384615385</v>
       </c>
       <c r="E7">
-        <v>1224.12</v>
+        <v>1354.62</v>
       </c>
       <c r="F7">
-        <v>46.40000000000001</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -3307,22 +3349,22 @@
         <v>79</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>119.2866666666667</v>
+        <v>120.6661538461538</v>
       </c>
       <c r="E8">
-        <v>1431.44</v>
+        <v>1568.66</v>
       </c>
       <c r="F8">
-        <v>39.4</v>
+        <v>32.4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
         <v>95</v>
@@ -3330,89 +3372,89 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D9">
-        <v>111.71</v>
+        <v>89.81076923076922</v>
       </c>
       <c r="E9">
-        <v>1340.52</v>
+        <v>1167.54</v>
       </c>
       <c r="F9">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D10">
-        <v>89.64833333333333</v>
+        <v>103.1846153846154</v>
       </c>
       <c r="E10">
-        <v>1075.78</v>
+        <v>1341.4</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.10000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D11">
-        <v>103.88</v>
+        <v>109.1953846153846</v>
       </c>
       <c r="E11">
-        <v>1246.56</v>
+        <v>1419.54</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3453,13 +3495,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>101</v>
@@ -3470,16 +3512,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>102</v>
@@ -3490,16 +3532,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>103</v>
@@ -3513,16 +3555,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3533,10 +3575,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -3550,19 +3592,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
       </c>
       <c r="D7">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3570,16 +3612,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>105</v>
@@ -3590,19 +3632,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3613,16 +3655,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3633,16 +3675,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3652,54 +3694,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3739,99 +3784,108 @@
       <c r="M2">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>-2</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
+      <c r="N4">
         <v>17</v>
       </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3871,11 +3925,14 @@
       <c r="M5">
         <v>10</v>
       </c>
-      <c r="N5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3915,143 +3972,155 @@
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-13</v>
+      </c>
+      <c r="E7">
+        <v>-19</v>
+      </c>
+      <c r="F7">
+        <v>-20</v>
+      </c>
+      <c r="G7">
+        <v>-20</v>
+      </c>
+      <c r="H7">
+        <v>-17</v>
+      </c>
+      <c r="I7">
+        <v>-11</v>
+      </c>
+      <c r="J7">
+        <v>-11</v>
+      </c>
+      <c r="K7">
+        <v>-12</v>
+      </c>
+      <c r="L7">
+        <v>-8</v>
+      </c>
+      <c r="M7">
+        <v>-10</v>
+      </c>
+      <c r="N7">
+        <v>-8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-13</v>
+      </c>
+      <c r="D8">
+        <v>-17</v>
+      </c>
+      <c r="E8">
+        <v>-13</v>
+      </c>
+      <c r="F8">
+        <v>-17</v>
+      </c>
+      <c r="G8">
+        <v>-19</v>
+      </c>
+      <c r="H8">
+        <v>-23</v>
+      </c>
+      <c r="I8">
+        <v>-17</v>
+      </c>
+      <c r="J8">
+        <v>-12</v>
+      </c>
+      <c r="K8">
+        <v>-13</v>
+      </c>
+      <c r="L8">
+        <v>-10</v>
+      </c>
+      <c r="M8">
+        <v>-13</v>
+      </c>
+      <c r="N8">
+        <v>-8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>-1</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>-5</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>-7</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>-5</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <v>-2</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>-5</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>-7</v>
       </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
-      <c r="D8">
-        <v>-13</v>
-      </c>
-      <c r="E8">
-        <v>-19</v>
-      </c>
-      <c r="F8">
-        <v>-20</v>
-      </c>
-      <c r="G8">
-        <v>-20</v>
-      </c>
-      <c r="H8">
-        <v>-17</v>
-      </c>
-      <c r="I8">
-        <v>-11</v>
-      </c>
-      <c r="J8">
-        <v>-11</v>
-      </c>
-      <c r="K8">
-        <v>-12</v>
-      </c>
-      <c r="L8">
-        <v>-8</v>
-      </c>
-      <c r="M8">
-        <v>-10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-13</v>
-      </c>
-      <c r="D9">
-        <v>-17</v>
-      </c>
-      <c r="E9">
-        <v>-13</v>
-      </c>
-      <c r="F9">
-        <v>-17</v>
-      </c>
-      <c r="G9">
-        <v>-19</v>
-      </c>
-      <c r="H9">
-        <v>-23</v>
-      </c>
-      <c r="I9">
-        <v>-17</v>
-      </c>
-      <c r="J9">
-        <v>-12</v>
-      </c>
-      <c r="K9">
-        <v>-13</v>
-      </c>
-      <c r="L9">
-        <v>-10</v>
-      </c>
-      <c r="M9">
-        <v>-13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>-14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4091,11 +4160,14 @@
       <c r="M10">
         <v>-17</v>
       </c>
-      <c r="N10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4135,8 +4207,11 @@
       <c r="M11">
         <v>-36</v>
       </c>
-      <c r="N11" t="s">
-        <v>106</v>
+      <c r="N11">
+        <v>-37</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="124">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -55,34 +55,37 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,6 +181,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -199,36 +205,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Hark Nanda</t>
-  </si>
-  <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -253,54 +259,6 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>8.6-5.4</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
-    <t>7.4-6.6</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>3.3-10.7</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
@@ -310,6 +268,9 @@
     <t>7-7</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -319,6 +280,27 @@
     <t>4-10</t>
   </si>
   <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -328,30 +310,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -389,6 +371,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -816,19 +801,19 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -837,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -851,13 +836,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -886,16 +871,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -924,25 +909,25 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -953,31 +938,31 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -991,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1012,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1020,25 +1005,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -1047,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1058,19 +1043,19 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -1079,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -1096,19 +1081,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -1117,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1125,34 +1110,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1170,25 +1155,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1422,58 +1407,6 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>-7</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1492,13 +1425,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1509,10 +1442,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1523,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1537,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1551,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1562,13 +1495,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1579,10 +1512,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1590,13 +1523,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1607,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1621,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1635,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1656,16 +1589,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1676,13 +1609,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="D2">
         <v>0.09999999999999964</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1699,7 +1632,7 @@
         <v>0.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1710,13 +1643,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1724,16 +1657,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>-1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1741,16 +1674,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1758,13 +1691,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1778,13 +1711,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1795,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1812,10 +1745,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D10">
-        <v>0.9000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1829,13 +1762,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D11">
-        <v>-0.1000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1853,40 +1786,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1897,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>46.2</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1935,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>17.5</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1970,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2005,25 +1938,25 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2052,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>40.1</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2076,12 +2009,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2093,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>48.4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2114,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>79.09999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2134,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>19.6</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>67.3</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2152,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>32.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2219,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2254,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2276,83 +2209,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76.2</v>
+        <v>73.7</v>
       </c>
       <c r="C2">
-        <v>27.4</v>
+        <v>25.1</v>
       </c>
       <c r="D2">
-        <v>57.49999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="E2">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="F2">
-        <v>83.3</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G2">
-        <v>94.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H2">
-        <v>98.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J2">
         <v>99.59999999999999</v>
@@ -2364,51 +2300,54 @@
         <v>99.90000000000001</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="N2">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.7</v>
+        <v>15.5</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>76.5</v>
       </c>
       <c r="D3">
-        <v>71.3</v>
+        <v>74.5</v>
       </c>
       <c r="E3">
-        <v>93.30000000000001</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>97.59999999999999</v>
       </c>
       <c r="G3">
-        <v>82.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="I3">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="J3">
-        <v>95.8</v>
+        <v>96.3</v>
       </c>
       <c r="K3">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L3">
-        <v>95.8</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="M3">
         <v>99.8</v>
@@ -2419,37 +2358,40 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="D4">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="E4">
-        <v>93.60000000000001</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="F4">
-        <v>96.8</v>
+        <v>97.7</v>
       </c>
       <c r="G4">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H4">
-        <v>99.5</v>
+        <v>98.8</v>
       </c>
       <c r="I4">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J4">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2466,228 +2408,243 @@
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>99.40000000000001</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>32.7</v>
       </c>
       <c r="D5">
-        <v>57.59999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="E5">
-        <v>83</v>
+        <v>5.7</v>
       </c>
       <c r="F5">
-        <v>92.90000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="G5">
-        <v>96.39999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>39.3</v>
       </c>
       <c r="I5">
-        <v>96.7</v>
+        <v>38.7</v>
       </c>
       <c r="J5">
-        <v>99.09999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="K5">
-        <v>97.8</v>
+        <v>15.7</v>
       </c>
       <c r="L5">
-        <v>99.09999999999999</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>99</v>
+        <v>42.4</v>
       </c>
       <c r="N5">
+        <v>59.2</v>
+      </c>
+      <c r="O5">
+        <v>48.1</v>
+      </c>
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="C6">
         <v>49.2</v>
       </c>
       <c r="D6">
-        <v>86.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="E6">
-        <v>62.6</v>
+        <v>62.2</v>
       </c>
       <c r="F6">
-        <v>52.5</v>
+        <v>49.6</v>
       </c>
       <c r="G6">
-        <v>62.4</v>
+        <v>61.1</v>
       </c>
       <c r="H6">
-        <v>54.90000000000001</v>
+        <v>56.3</v>
       </c>
       <c r="I6">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="J6">
-        <v>52.2</v>
+        <v>56.2</v>
       </c>
       <c r="K6">
-        <v>43.4</v>
+        <v>43.9</v>
       </c>
       <c r="L6">
+        <v>59.7</v>
+      </c>
+      <c r="M6">
+        <v>77.7</v>
+      </c>
+      <c r="N6">
+        <v>83.39999999999999</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>99.5</v>
+      </c>
+      <c r="C7">
+        <v>35.7</v>
+      </c>
+      <c r="D7">
         <v>58.4</v>
       </c>
-      <c r="M6">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="N6">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="O6">
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>36.6</v>
-      </c>
-      <c r="C7">
-        <v>32.3</v>
-      </c>
-      <c r="D7">
-        <v>13.5</v>
-      </c>
       <c r="E7">
-        <v>6.2</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>26.4</v>
+        <v>91.2</v>
       </c>
       <c r="G7">
-        <v>8.5</v>
+        <v>96.2</v>
       </c>
       <c r="H7">
-        <v>39.6</v>
+        <v>98.2</v>
       </c>
       <c r="I7">
-        <v>38.9</v>
+        <v>96.5</v>
       </c>
       <c r="J7">
-        <v>26.1</v>
+        <v>98.7</v>
       </c>
       <c r="K7">
-        <v>16.2</v>
+        <v>98.3</v>
       </c>
       <c r="L7">
-        <v>20.9</v>
+        <v>99.5</v>
       </c>
       <c r="M7">
-        <v>39.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="N7">
-        <v>58.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O7">
-        <v>76.59999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>65.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="C8">
-        <v>71.89999999999999</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="D8">
-        <v>74.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E8">
-        <v>58.59999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="F8">
-        <v>34.59999999999999</v>
+        <v>34.4</v>
       </c>
       <c r="G8">
-        <v>63.8</v>
+        <v>61.2</v>
       </c>
       <c r="H8">
-        <v>41.2</v>
+        <v>42.5</v>
       </c>
       <c r="I8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J8">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="K8">
-        <v>61.5</v>
+        <v>65.2</v>
       </c>
       <c r="L8">
-        <v>72.3</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="M8">
-        <v>45.4</v>
+        <v>44.9</v>
       </c>
       <c r="N8">
-        <v>53.2</v>
+        <v>50.9</v>
       </c>
       <c r="O8">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>38.8</v>
       </c>
       <c r="D9">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="F9">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="G9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H9">
-        <v>6.1</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="I9">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J9">
-        <v>4.9</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="K9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="L9">
         <v>0.1</v>
@@ -2701,43 +2658,46 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="C10">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="D10">
-        <v>58.4</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="E10">
         <v>21.9</v>
       </c>
       <c r="F10">
-        <v>19.8</v>
+        <v>21.6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="I10">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="J10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
         <v>0.8</v>
       </c>
       <c r="L10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2748,51 +2708,57 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C11">
-        <v>94.19999999999999</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="D11">
-        <v>66.7</v>
+        <v>63.6</v>
       </c>
       <c r="E11">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="F11">
-        <v>92.30000000000001</v>
+        <v>91</v>
       </c>
       <c r="G11">
-        <v>82.8</v>
+        <v>83.8</v>
       </c>
       <c r="H11">
-        <v>62.6</v>
+        <v>60.5</v>
       </c>
       <c r="I11">
-        <v>67.5</v>
+        <v>69.19999999999999</v>
       </c>
       <c r="J11">
-        <v>85.8</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K11">
-        <v>79.60000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="L11">
-        <v>53.40000000000001</v>
+        <v>51.4</v>
       </c>
       <c r="M11">
-        <v>35.09999999999999</v>
+        <v>36.5</v>
       </c>
       <c r="N11">
-        <v>8.200000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="O11">
+        <v>27.9</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2811,28 +2777,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2840,28 +2806,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>120.67</v>
+        <v>114.66</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>128.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2869,28 +2835,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>128.1</v>
+        <v>116.6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>120.67</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2898,28 +2864,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>114.73</v>
+        <v>121.33</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>127.16</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2927,28 +2893,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>103.18</v>
+        <v>131.28</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>115.17</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2956,28 +2922,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>127.16</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>114.73</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2985,28 +2951,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>89.81</v>
+        <v>102.42</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>116.07</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3014,28 +2980,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>109.2</v>
+        <v>103.17</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>104.2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3043,28 +3009,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>104.2</v>
+        <v>108.36</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>109.2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3072,28 +3038,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>115.17</v>
+        <v>113.2</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>103.18</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3101,28 +3067,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>116.07</v>
+        <v>124.22</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>89.81</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3140,31 +3106,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3172,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D2">
-        <v>116.0707692307692</v>
+        <v>114.6628571428571</v>
       </c>
       <c r="E2">
-        <v>1508.92</v>
+        <v>1605.28</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3190,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3201,16 +3167,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>0.6153846153846154</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D3">
-        <v>115.1738461538462</v>
+        <v>116.6</v>
       </c>
       <c r="E3">
-        <v>1497.26</v>
+        <v>1632.4</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3219,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3230,16 +3196,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>128.1015384615385</v>
+        <v>131.2828571428572</v>
       </c>
       <c r="E4">
-        <v>1665.32</v>
+        <v>1837.96</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3248,27 +3214,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>127.1630769230769</v>
+        <v>103.1685714285714</v>
       </c>
       <c r="E5">
-        <v>1653.12</v>
+        <v>1444.36</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -3277,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3288,57 +3254,57 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>114.7276923076923</v>
+        <v>113.1957142857143</v>
       </c>
       <c r="E6">
-        <v>1491.46</v>
+        <v>1584.74</v>
       </c>
       <c r="F6">
-        <v>88.5</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>104.2015384615385</v>
+        <v>124.2157142857143</v>
       </c>
       <c r="E7">
-        <v>1354.62</v>
+        <v>1739.02</v>
       </c>
       <c r="F7">
-        <v>79.10000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3346,28 +3312,28 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>120.6661538461538</v>
+        <v>121.33</v>
       </c>
       <c r="E8">
-        <v>1568.66</v>
+        <v>1698.62</v>
       </c>
       <c r="F8">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3375,16 +3341,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D9">
-        <v>89.81076923076922</v>
+        <v>89.99285714285713</v>
       </c>
       <c r="E9">
-        <v>1167.54</v>
+        <v>1259.9</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3393,10 +3359,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3404,16 +3370,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C10">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D10">
-        <v>103.1846153846154</v>
+        <v>102.4185714285714</v>
       </c>
       <c r="E10">
-        <v>1341.4</v>
+        <v>1433.86</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3422,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3436,13 +3402,13 @@
         <v>82</v>
       </c>
       <c r="C11">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>109.1953846153846</v>
+        <v>108.3628571428572</v>
       </c>
       <c r="E11">
-        <v>1419.54</v>
+        <v>1517.08</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3451,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3472,19 +3438,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3495,16 +3461,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3515,16 +3481,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3532,19 +3498,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3552,19 +3518,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3575,16 +3541,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3592,19 +3558,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3612,19 +3578,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3635,16 +3601,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3655,16 +3621,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3675,16 +3641,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>-37</v>
+        <v>-41</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3694,57 +3660,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3787,11 +3756,14 @@
       <c r="N2">
         <v>38</v>
       </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3834,105 +3806,114 @@
       <c r="N3">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
         <v>12</v>
       </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="E5">
         <v>7</v>
-      </c>
-      <c r="M4">
-        <v>16</v>
-      </c>
-      <c r="N4">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>-6</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3975,105 +3956,114 @@
       <c r="N6">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D7">
+        <v>-17</v>
+      </c>
+      <c r="E7">
         <v>-13</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>-17</v>
+      </c>
+      <c r="G7">
         <v>-19</v>
       </c>
-      <c r="F7">
-        <v>-20</v>
-      </c>
-      <c r="G7">
-        <v>-20</v>
-      </c>
       <c r="H7">
+        <v>-23</v>
+      </c>
+      <c r="I7">
         <v>-17</v>
       </c>
-      <c r="I7">
-        <v>-11</v>
-      </c>
       <c r="J7">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="K7">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="L7">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="M7">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="N7">
         <v>-8</v>
       </c>
-      <c r="O7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>-10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
         <v>-13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>-19</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>-20</v>
+      </c>
+      <c r="H8">
         <v>-17</v>
       </c>
-      <c r="E8">
-        <v>-13</v>
-      </c>
-      <c r="F8">
-        <v>-17</v>
-      </c>
-      <c r="G8">
-        <v>-19</v>
-      </c>
-      <c r="H8">
-        <v>-23</v>
-      </c>
       <c r="I8">
-        <v>-17</v>
+        <v>-11</v>
       </c>
       <c r="J8">
+        <v>-11</v>
+      </c>
+      <c r="K8">
         <v>-12</v>
       </c>
-      <c r="K8">
-        <v>-13</v>
-      </c>
       <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
         <v>-10</v>
-      </c>
-      <c r="M8">
-        <v>-13</v>
       </c>
       <c r="N8">
         <v>-8</v>
       </c>
-      <c r="O8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4116,11 +4106,14 @@
       <c r="N9">
         <v>-14</v>
       </c>
-      <c r="O9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4163,11 +4156,14 @@
       <c r="N10">
         <v>-22</v>
       </c>
-      <c r="O10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4210,8 +4206,11 @@
       <c r="N11">
         <v>-37</v>
       </c>
-      <c r="O11" t="s">
-        <v>108</v>
+      <c r="O11">
+        <v>-41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="136">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -55,186 +55,216 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>1-14-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>9-5-0</t>
   </si>
   <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
     <t>8-6-0</t>
   </si>
   <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Hark Nanda</t>
-  </si>
-  <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -310,30 +340,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↑10</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -374,6 +407,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -798,31 +834,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -830,34 +866,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -865,34 +901,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -900,34 +936,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -935,34 +971,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -970,34 +1006,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1005,34 +1041,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1043,31 +1079,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1075,34 +1111,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1116,28 +1152,28 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1155,25 +1191,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1425,13 +1461,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1442,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1456,10 +1492,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1467,13 +1503,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1481,13 +1517,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1498,10 +1534,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1512,10 +1548,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1523,13 +1559,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1537,13 +1573,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1551,13 +1587,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1565,13 +1601,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1589,16 +1625,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1609,13 +1645,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>10.1</v>
+        <v>10.7</v>
       </c>
       <c r="D2">
-        <v>0.09999999999999964</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1626,13 +1662,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1640,16 +1676,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1657,16 +1693,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D5">
-        <v>-1.3</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1677,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="D6">
-        <v>-0.4000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1694,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="D7">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1708,16 +1744,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1725,16 +1761,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1745,13 +1781,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1762,13 +1798,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D11">
-        <v>0.1000000000000001</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1786,40 +1822,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2217,49 +2253,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2267,43 +2303,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73.7</v>
+        <v>77.10000000000001</v>
       </c>
       <c r="C2">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>57.3</v>
+        <v>59.3</v>
       </c>
       <c r="E2">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="F2">
-        <v>85.39999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G2">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="H2">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="J2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="M2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2317,43 +2353,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.5</v>
+        <v>13.4</v>
       </c>
       <c r="C3">
-        <v>76.5</v>
+        <v>74.7</v>
       </c>
       <c r="D3">
-        <v>74.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F3">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="G3">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="H3">
-        <v>95.3</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="I3">
-        <v>97.2</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="J3">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="K3">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="L3">
-        <v>95.19999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="M3">
         <v>99.8</v>
       </c>
       <c r="N3">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2370,28 +2406,28 @@
         <v>99.09999999999999</v>
       </c>
       <c r="C4">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="D4">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="E4">
-        <v>94.39999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F4">
+        <v>97.5</v>
+      </c>
+      <c r="G4">
+        <v>98.7</v>
+      </c>
+      <c r="H4">
         <v>97.7</v>
       </c>
-      <c r="G4">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="H4">
-        <v>98.8</v>
-      </c>
       <c r="I4">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J4">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2417,46 +2453,46 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="C5">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="D5">
-        <v>13.9</v>
+        <v>16.4</v>
       </c>
       <c r="E5">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>25.1</v>
+        <v>26.2</v>
       </c>
       <c r="G5">
-        <v>11.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H5">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="I5">
-        <v>38.7</v>
+        <v>37.1</v>
       </c>
       <c r="J5">
-        <v>20.3</v>
+        <v>23.1</v>
       </c>
       <c r="K5">
-        <v>15.7</v>
+        <v>17.7</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>20.9</v>
       </c>
       <c r="M5">
-        <v>42.4</v>
+        <v>39.2</v>
       </c>
       <c r="N5">
-        <v>59.2</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="O5">
-        <v>48.1</v>
+        <v>46.5</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2467,43 +2503,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>49.2</v>
+        <v>50.2</v>
       </c>
       <c r="D6">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E6">
-        <v>62.2</v>
+        <v>63.2</v>
       </c>
       <c r="F6">
-        <v>49.6</v>
+        <v>51.3</v>
       </c>
       <c r="G6">
-        <v>61.1</v>
+        <v>62</v>
       </c>
       <c r="H6">
-        <v>56.3</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="I6">
-        <v>32.8</v>
+        <v>37.5</v>
       </c>
       <c r="J6">
-        <v>56.2</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="K6">
-        <v>43.9</v>
+        <v>42.4</v>
       </c>
       <c r="L6">
-        <v>59.7</v>
+        <v>55.8</v>
       </c>
       <c r="M6">
-        <v>77.7</v>
+        <v>80.5</v>
       </c>
       <c r="N6">
-        <v>83.39999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2517,43 +2553,43 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C7">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="D7">
-        <v>58.4</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="E7">
-        <v>84</v>
+        <v>83.3</v>
       </c>
       <c r="F7">
-        <v>91.2</v>
+        <v>90.5</v>
       </c>
       <c r="G7">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="H7">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="I7">
         <v>96.5</v>
       </c>
       <c r="J7">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="K7">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="L7">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="M7">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="N7">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2567,37 +2603,37 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>65.3</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="C8">
-        <v>70.19999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="D8">
-        <v>74.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E8">
-        <v>61.2</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>34.4</v>
+        <v>37.4</v>
       </c>
       <c r="G8">
-        <v>61.2</v>
+        <v>61.7</v>
       </c>
       <c r="H8">
-        <v>42.5</v>
+        <v>40.5</v>
       </c>
       <c r="I8">
-        <v>65</v>
+        <v>61.9</v>
       </c>
       <c r="J8">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="K8">
-        <v>65.2</v>
+        <v>61.1</v>
       </c>
       <c r="L8">
-        <v>70.89999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="M8">
         <v>44.9</v>
@@ -2606,7 +2642,7 @@
         <v>50.9</v>
       </c>
       <c r="O8">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2617,37 +2653,37 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>38.8</v>
+        <v>36.1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>18.7</v>
       </c>
       <c r="E9">
         <v>4.6</v>
       </c>
       <c r="F9">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>5.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="I9">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J9">
-        <v>4.100000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="L9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2667,37 +2703,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C10">
-        <v>77.7</v>
+        <v>79.5</v>
       </c>
       <c r="D10">
-        <v>55.90000000000001</v>
+        <v>56.7</v>
       </c>
       <c r="E10">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="F10">
-        <v>21.6</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H10">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I10">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2717,46 +2753,46 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C11">
-        <v>94.89999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="D11">
-        <v>63.6</v>
+        <v>62.4</v>
       </c>
       <c r="E11">
-        <v>88.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F11">
-        <v>91</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="G11">
-        <v>83.8</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="H11">
-        <v>60.5</v>
+        <v>62.8</v>
       </c>
       <c r="I11">
-        <v>69.19999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="J11">
-        <v>88.40000000000001</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="K11">
-        <v>76.2</v>
+        <v>79</v>
       </c>
       <c r="L11">
-        <v>51.4</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="M11">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="N11">
-        <v>7.7</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="O11">
-        <v>27.9</v>
+        <v>30.8</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2777,28 +2813,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2809,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>114.66</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2838,13 +2874,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>116.6</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2867,13 +2903,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>121.33</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2896,13 +2932,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>131.28</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2925,13 +2961,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>89.98999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2954,13 +2990,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>102.42</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2983,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>103.17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3012,13 +3048,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>108.36</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3041,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>113.2</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3070,13 +3106,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>124.22</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3106,31 +3142,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3138,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0.6428571428571429</v>
@@ -3156,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3167,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3185,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3196,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3214,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3225,7 +3261,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -3243,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3254,7 +3290,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3272,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3283,7 +3319,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3301,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3312,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -3330,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3341,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0.2142857142857143</v>
@@ -3359,10 +3395,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3370,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -3388,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3399,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -3417,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3438,19 +3474,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3461,16 +3497,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3481,16 +3517,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3501,16 +3537,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3518,19 +3554,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3538,19 +3574,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3561,16 +3597,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,16 +3617,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3601,16 +3637,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3621,16 +3657,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3641,16 +3677,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>-41</v>
+        <v>-46</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3660,60 +3696,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3759,11 +3798,14 @@
       <c r="O2">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3809,11 +3851,14 @@
       <c r="O3">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3859,111 +3904,120 @@
       <c r="O4">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="C5">
         <v>-2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>7</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
       </c>
       <c r="C6">
         <v>-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>7</v>
       </c>
       <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4009,11 +4063,14 @@
       <c r="O7">
         <v>-10</v>
       </c>
-      <c r="P7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>-7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4059,11 +4116,14 @@
       <c r="O8">
         <v>-12</v>
       </c>
-      <c r="P8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4109,11 +4169,14 @@
       <c r="O9">
         <v>-16</v>
       </c>
-      <c r="P9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-22</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -4159,11 +4222,14 @@
       <c r="O10">
         <v>-20</v>
       </c>
-      <c r="P10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4209,8 +4275,11 @@
       <c r="O11">
         <v>-41</v>
       </c>
-      <c r="P11" t="s">
-        <v>101</v>
+      <c r="P11">
+        <v>-46</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="135">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -55,46 +55,49 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>1-14-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>8-6-1</t>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>1-15-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>10-5-1</t>
+  </si>
+  <si>
+    <t>2-14-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>8-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -340,33 +343,24 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑10</t>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↓8</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -410,6 +404,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -834,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -872,28 +869,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -901,22 +898,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -925,10 +922,10 @@
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -936,13 +933,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -951,19 +948,19 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -971,7 +968,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -986,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -995,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -1006,34 +1003,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1041,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1056,19 +1053,19 @@
         <v>18</v>
       </c>
       <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1088,19 +1085,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1114,31 +1111,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1155,25 +1152,25 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1191,25 +1188,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1269,25 +1266,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-13</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1295,19 +1292,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -1321,22 +1318,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-19</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>-23</v>
-      </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -1347,22 +1344,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -1373,25 +1370,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1399,25 +1396,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1425,22 +1422,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="F10">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1461,13 +1458,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1478,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1492,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -1506,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1520,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1531,13 +1528,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1545,13 +1542,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1559,13 +1556,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1573,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1587,13 +1584,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1604,10 +1601,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1625,16 +1622,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1645,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
       <c r="D2">
-        <v>0.6999999999999993</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1659,16 +1656,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1676,16 +1673,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D4">
-        <v>-1.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1693,16 +1690,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D5">
-        <v>2.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1713,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1730,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D7">
-        <v>-1.1</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1753,7 +1750,7 @@
         <v>-0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1764,13 +1761,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-1.7</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1781,13 +1778,13 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D10">
-        <v>0.7999999999999998</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1798,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D11">
-        <v>0.2000000000000002</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1822,40 +1819,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2253,49 +2250,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2303,43 +2300,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>77.10000000000001</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D2">
-        <v>59.3</v>
+        <v>58.2</v>
       </c>
       <c r="E2">
-        <v>87.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F2">
-        <v>81.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G2">
-        <v>95.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H2">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="I2">
         <v>99.7</v>
       </c>
       <c r="J2">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N2">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2353,43 +2350,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="C3">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D3">
-        <v>74.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E3">
-        <v>88.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F3">
-        <v>97.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G3">
-        <v>84.2</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="H3">
+        <v>95.19999999999999</v>
+      </c>
+      <c r="I3">
+        <v>98.5</v>
+      </c>
+      <c r="J3">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="L3">
         <v>94.69999999999999</v>
       </c>
-      <c r="I3">
-        <v>97.89999999999999</v>
-      </c>
-      <c r="J3">
-        <v>96.5</v>
-      </c>
-      <c r="K3">
-        <v>99</v>
-      </c>
-      <c r="L3">
-        <v>95.09999999999999</v>
-      </c>
       <c r="M3">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N3">
-        <v>98.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2406,28 +2403,28 @@
         <v>99.09999999999999</v>
       </c>
       <c r="C4">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="D4">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="E4">
-        <v>94.5</v>
+        <v>95.3</v>
       </c>
       <c r="F4">
-        <v>97.5</v>
+        <v>96.3</v>
       </c>
       <c r="G4">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="H4">
+        <v>98.2</v>
+      </c>
+      <c r="I4">
         <v>98.7</v>
       </c>
-      <c r="H4">
-        <v>97.7</v>
-      </c>
-      <c r="I4">
-        <v>99.09999999999999</v>
-      </c>
       <c r="J4">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2453,46 +2450,46 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>37.1</v>
+        <v>35.2</v>
       </c>
       <c r="C5">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D5">
-        <v>16.4</v>
+        <v>13.9</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="F5">
-        <v>26.2</v>
+        <v>24.7</v>
       </c>
       <c r="G5">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H5">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="I5">
-        <v>37.1</v>
+        <v>36.1</v>
       </c>
       <c r="J5">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="K5">
-        <v>17.7</v>
+        <v>16.6</v>
       </c>
       <c r="L5">
-        <v>20.9</v>
+        <v>23.5</v>
       </c>
       <c r="M5">
-        <v>39.2</v>
+        <v>42.6</v>
       </c>
       <c r="N5">
-        <v>59.59999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="O5">
-        <v>46.5</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2503,43 +2500,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="C6">
-        <v>50.2</v>
+        <v>51.8</v>
       </c>
       <c r="D6">
-        <v>85.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="E6">
-        <v>63.2</v>
+        <v>62.1</v>
       </c>
       <c r="F6">
-        <v>51.3</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>61.6</v>
       </c>
       <c r="H6">
-        <v>56.49999999999999</v>
+        <v>50.9</v>
       </c>
       <c r="I6">
-        <v>37.5</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="J6">
-        <v>57.09999999999999</v>
+        <v>53.2</v>
       </c>
       <c r="K6">
-        <v>42.4</v>
+        <v>41.8</v>
       </c>
       <c r="L6">
-        <v>55.8</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="M6">
-        <v>80.5</v>
+        <v>77.7</v>
       </c>
       <c r="N6">
-        <v>83.5</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2556,37 +2553,37 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C7">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="D7">
-        <v>55.00000000000001</v>
+        <v>59.2</v>
       </c>
       <c r="E7">
-        <v>83.3</v>
+        <v>85.7</v>
       </c>
       <c r="F7">
-        <v>90.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G7">
-        <v>97</v>
+        <v>95.8</v>
       </c>
       <c r="H7">
         <v>98.3</v>
       </c>
       <c r="I7">
-        <v>96.5</v>
+        <v>96.2</v>
       </c>
       <c r="J7">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="K7">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="L7">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M7">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2603,46 +2600,46 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>64.60000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C8">
-        <v>70.8</v>
+        <v>72.7</v>
       </c>
       <c r="D8">
-        <v>75.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>37.4</v>
+        <v>34.9</v>
       </c>
       <c r="G8">
-        <v>61.7</v>
+        <v>63.8</v>
       </c>
       <c r="H8">
-        <v>40.5</v>
+        <v>44.1</v>
       </c>
       <c r="I8">
-        <v>61.9</v>
+        <v>61.3</v>
       </c>
       <c r="J8">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="K8">
-        <v>61.1</v>
+        <v>64.8</v>
       </c>
       <c r="L8">
-        <v>73.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="M8">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="N8">
-        <v>50.9</v>
+        <v>50.1</v>
       </c>
       <c r="O8">
-        <v>22.7</v>
+        <v>21.3</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2656,34 +2653,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>36.1</v>
+        <v>37.2</v>
       </c>
       <c r="D9">
-        <v>18.7</v>
+        <v>17.8</v>
       </c>
       <c r="E9">
-        <v>4.6</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="F9">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H9">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="I9">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2703,37 +2700,37 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>79.5</v>
+        <v>76.7</v>
       </c>
       <c r="D10">
-        <v>56.7</v>
+        <v>58.2</v>
       </c>
       <c r="E10">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>18.8</v>
       </c>
       <c r="G10">
-        <v>7.000000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="H10">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I10">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="J10">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K10">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2753,37 +2750,37 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C11">
-        <v>95.89999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="D11">
-        <v>62.4</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>89.09999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="F11">
-        <v>92.30000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="G11">
-        <v>82.19999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="H11">
-        <v>62.8</v>
+        <v>64.3</v>
       </c>
       <c r="I11">
-        <v>67.40000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="J11">
-        <v>83.89999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K11">
-        <v>79</v>
+        <v>77.2</v>
       </c>
       <c r="L11">
-        <v>55.90000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="M11">
         <v>36.4</v>
@@ -2792,7 +2789,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="O11">
-        <v>30.8</v>
+        <v>32.3</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2813,28 +2810,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2845,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>114.66</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2874,13 +2871,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>116.6</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2903,13 +2900,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>121.33</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2932,13 +2929,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>131.28</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2961,13 +2958,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>89.98999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2990,13 +2987,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>102.42</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3019,13 +3016,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>103.17</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3048,13 +3045,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>108.36</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3077,13 +3074,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>113.2</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3106,13 +3103,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11">
         <v>124.22</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3142,31 +3139,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3174,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0.6428571428571429</v>
@@ -3192,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3203,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3221,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3232,7 +3229,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3250,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3261,7 +3258,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -3279,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3290,7 +3287,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3308,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3319,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3337,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3348,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -3366,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3377,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>0.2142857142857143</v>
@@ -3395,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3406,7 +3403,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -3424,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3435,7 +3432,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -3453,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3474,19 +3471,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3497,16 +3494,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3517,16 +3514,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3537,16 +3534,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3557,16 +3554,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3577,13 +3574,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>109</v>
@@ -3597,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3617,16 +3614,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>-20</v>
+        <v>-26</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3634,19 +3631,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>-22</v>
+        <v>-29</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3654,19 +3651,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>-23</v>
+        <v>-30</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3677,16 +3674,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3696,63 +3693,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3801,11 +3801,14 @@
       <c r="P2">
         <v>52</v>
       </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>58</v>
+      </c>
+      <c r="R2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3854,11 +3857,14 @@
       <c r="P3">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3907,11 +3913,14 @@
       <c r="P4">
         <v>22</v>
       </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3960,11 +3969,14 @@
       <c r="P5">
         <v>5</v>
       </c>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4013,11 +4025,14 @@
       <c r="P6">
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -4066,11 +4081,14 @@
       <c r="P7">
         <v>-7</v>
       </c>
-      <c r="Q7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7">
+        <v>-5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4119,117 +4137,126 @@
       <c r="P8">
         <v>-20</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8">
+        <v>-26</v>
+      </c>
+      <c r="R8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <v>-12</v>
+      </c>
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9">
+        <v>-22</v>
+      </c>
+      <c r="O9">
+        <v>-20</v>
+      </c>
+      <c r="P9">
+        <v>-23</v>
+      </c>
+      <c r="Q9">
+        <v>-29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>-5</v>
+      </c>
+      <c r="K10">
+        <v>-2</v>
+      </c>
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10">
+        <v>-14</v>
+      </c>
+      <c r="O10">
+        <v>-16</v>
+      </c>
+      <c r="P10">
+        <v>-22</v>
+      </c>
+      <c r="Q10">
+        <v>-30</v>
+      </c>
+      <c r="R10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>-5</v>
-      </c>
-      <c r="I9">
-        <v>-7</v>
-      </c>
-      <c r="J9">
-        <v>-5</v>
-      </c>
-      <c r="K9">
-        <v>-2</v>
-      </c>
-      <c r="L9">
-        <v>-5</v>
-      </c>
-      <c r="M9">
-        <v>-7</v>
-      </c>
-      <c r="N9">
-        <v>-14</v>
-      </c>
-      <c r="O9">
-        <v>-16</v>
-      </c>
-      <c r="P9">
-        <v>-22</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>-4</v>
-      </c>
-      <c r="J10">
-        <v>-12</v>
-      </c>
-      <c r="K10">
-        <v>-18</v>
-      </c>
-      <c r="L10">
-        <v>-17</v>
-      </c>
-      <c r="M10">
-        <v>-17</v>
-      </c>
-      <c r="N10">
-        <v>-22</v>
-      </c>
-      <c r="O10">
-        <v>-20</v>
-      </c>
-      <c r="P10">
-        <v>-23</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4278,8 +4305,11 @@
       <c r="P11">
         <v>-46</v>
       </c>
-      <c r="Q11" t="s">
-        <v>113</v>
+      <c r="Q11">
+        <v>-54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -2300,43 +2300,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C2">
-        <v>24.6</v>
+        <v>26.9</v>
       </c>
       <c r="D2">
-        <v>58.2</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="E2">
-        <v>86.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="F2">
-        <v>84.59999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="G2">
-        <v>95.59999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="H2">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J2">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="M2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2350,43 +2350,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="C3">
-        <v>74.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D3">
-        <v>74.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E3">
-        <v>90.40000000000001</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="F3">
-        <v>98.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="G3">
-        <v>82.19999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="H3">
-        <v>95.19999999999999</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="I3">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="J3">
-        <v>96.09999999999999</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="K3">
+        <v>98.8</v>
+      </c>
+      <c r="L3">
+        <v>95.7</v>
+      </c>
+      <c r="M3">
         <v>99.40000000000001</v>
       </c>
-      <c r="L3">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="M3">
-        <v>99.59999999999999</v>
-      </c>
       <c r="N3">
-        <v>99.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -2400,34 +2400,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D4">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="E4">
-        <v>95.3</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="F4">
-        <v>96.3</v>
+        <v>97.8</v>
       </c>
       <c r="G4">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="H4">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I4">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2450,46 +2450,46 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>35.2</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>32.8</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="E5">
-        <v>5.4</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="F5">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="G5">
-        <v>9.300000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="H5">
-        <v>40.2</v>
+        <v>37.5</v>
       </c>
       <c r="I5">
-        <v>36.1</v>
+        <v>38.9</v>
       </c>
       <c r="J5">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="K5">
         <v>16.6</v>
       </c>
       <c r="L5">
-        <v>23.5</v>
+        <v>21.8</v>
       </c>
       <c r="M5">
-        <v>42.6</v>
+        <v>40.7</v>
       </c>
       <c r="N5">
-        <v>59.5</v>
+        <v>60</v>
       </c>
       <c r="O5">
-        <v>46.40000000000001</v>
+        <v>43.3</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2500,43 +2500,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>10.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C6">
-        <v>51.8</v>
+        <v>48.9</v>
       </c>
       <c r="D6">
-        <v>86</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E6">
-        <v>62.1</v>
+        <v>60.4</v>
       </c>
       <c r="F6">
-        <v>54.40000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="G6">
-        <v>61.6</v>
+        <v>60.8</v>
       </c>
       <c r="H6">
-        <v>50.9</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="I6">
-        <v>33.90000000000001</v>
+        <v>33.6</v>
       </c>
       <c r="J6">
-        <v>53.2</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="K6">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="L6">
-        <v>55.90000000000001</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="M6">
-        <v>77.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="N6">
-        <v>83.09999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2550,43 +2550,43 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C7">
-        <v>35.3</v>
+        <v>34.3</v>
       </c>
       <c r="D7">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="E7">
-        <v>85.7</v>
+        <v>84.2</v>
       </c>
       <c r="F7">
-        <v>91.90000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="G7">
-        <v>95.8</v>
+        <v>96.8</v>
       </c>
       <c r="H7">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="I7">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="J7">
+        <v>99</v>
+      </c>
+      <c r="K7">
+        <v>97.8</v>
+      </c>
+      <c r="L7">
+        <v>99.3</v>
+      </c>
+      <c r="M7">
         <v>98.90000000000001</v>
       </c>
-      <c r="K7">
-        <v>98</v>
-      </c>
-      <c r="L7">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="M7">
-        <v>99</v>
-      </c>
       <c r="N7">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2600,46 +2600,46 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>67.5</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="C8">
-        <v>72.7</v>
+        <v>70.7</v>
       </c>
       <c r="D8">
-        <v>73.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>64.5</v>
       </c>
       <c r="F8">
-        <v>34.9</v>
+        <v>33.7</v>
       </c>
       <c r="G8">
-        <v>63.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H8">
-        <v>44.1</v>
+        <v>43.4</v>
       </c>
       <c r="I8">
-        <v>61.3</v>
+        <v>62.4</v>
       </c>
       <c r="J8">
-        <v>35.8</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="K8">
-        <v>64.8</v>
+        <v>63.5</v>
       </c>
       <c r="L8">
-        <v>72.09999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="M8">
-        <v>44.8</v>
+        <v>46.2</v>
       </c>
       <c r="N8">
-        <v>50.1</v>
+        <v>49.7</v>
       </c>
       <c r="O8">
-        <v>21.3</v>
+        <v>23.4</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2653,34 +2653,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>37.2</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="D9">
-        <v>17.8</v>
+        <v>18.4</v>
       </c>
       <c r="E9">
-        <v>4.100000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="F9">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H9">
         <v>5.5</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="K9">
         <v>1.5</v>
       </c>
       <c r="L9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2700,40 +2700,40 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C10">
-        <v>76.7</v>
+        <v>77.3</v>
       </c>
       <c r="D10">
-        <v>58.2</v>
+        <v>55.3</v>
       </c>
       <c r="E10">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="F10">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="G10">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="H10">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I10">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="J10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2750,46 +2750,46 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="C11">
-        <v>95.3</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E11">
-        <v>88.8</v>
+        <v>85.7</v>
       </c>
       <c r="F11">
-        <v>91.2</v>
+        <v>90.2</v>
       </c>
       <c r="G11">
-        <v>83.8</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="H11">
-        <v>64.3</v>
+        <v>61.2</v>
       </c>
       <c r="I11">
-        <v>71.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="J11">
-        <v>86.5</v>
+        <v>86.7</v>
       </c>
       <c r="K11">
-        <v>77.2</v>
+        <v>79.2</v>
       </c>
       <c r="L11">
-        <v>54.6</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>36.4</v>
+        <v>35.2</v>
       </c>
       <c r="N11">
-        <v>8.200000000000001</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="O11">
-        <v>32.3</v>
+        <v>33.3</v>
       </c>
       <c r="P11">
         <v>0</v>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="137">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -55,49 +55,46 @@
     <t>BurgerBoyz</t>
   </si>
   <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>1-15-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>10-5-1</t>
-  </si>
-  <si>
-    <t>2-14-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>8-7-1</t>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>1-16-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>10-6-1</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>9-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -334,79 +331,88 @@
     <t>4.0-10.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week</t>
@@ -831,16 +837,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -849,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -869,28 +875,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -898,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -939,25 +945,25 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -968,34 +974,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1003,19 +1009,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -1024,13 +1030,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1038,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1085,19 +1091,19 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
@@ -1111,28 +1117,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -1149,28 +1155,28 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1188,25 +1194,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1214,25 +1220,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F2">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1240,25 +1246,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>-17</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>-8</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1266,25 +1272,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>-17</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1292,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-13</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1318,19 +1324,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>24</v>
@@ -1344,22 +1350,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-19</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-23</v>
-      </c>
       <c r="G7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -1370,22 +1376,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F8">
-        <v>-17</v>
+        <v>-23</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -1396,25 +1402,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>-37</v>
       </c>
       <c r="F9">
-        <v>-18</v>
+        <v>-59</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1422,25 +1428,51 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
         <v>-17</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-18</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1458,13 +1490,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1475,10 +1507,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1489,10 +1521,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1503,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1517,10 +1549,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1528,13 +1560,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1542,13 +1574,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1556,13 +1588,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1570,10 +1602,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1587,10 +1619,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1601,10 +1633,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1622,16 +1654,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1642,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D2">
-        <v>1.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1656,16 +1688,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9.699999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="D3">
-        <v>-1.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1673,16 +1705,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>9.6</v>
+        <v>10.2</v>
       </c>
       <c r="D4">
-        <v>2.6</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1690,16 +1722,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1707,16 +1739,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D6">
-        <v>-0.6999999999999993</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1727,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="D7">
-        <v>-0.6999999999999993</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1741,16 +1773,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="D8">
-        <v>-0.5999999999999996</v>
+        <v>-1.9</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1758,16 +1790,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
-        <v>-1.7</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1775,16 +1807,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1795,13 +1827,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D11">
-        <v>0.2999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1819,40 +1851,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2250,49 +2282,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2300,43 +2332,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C2">
-        <v>26.9</v>
+        <v>23.3</v>
       </c>
       <c r="D2">
         <v>55.90000000000001</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="F2">
-        <v>85.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G2">
-        <v>94.39999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="H2">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="I2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
       <c r="N2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -2350,40 +2382,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.2</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="D3">
-        <v>76.8</v>
+        <v>74.8</v>
       </c>
       <c r="E3">
-        <v>91.60000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="F3">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G3">
-        <v>82.8</v>
+        <v>81.3</v>
       </c>
       <c r="H3">
-        <v>95.89999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="I3">
         <v>98.7</v>
       </c>
       <c r="J3">
-        <v>96.39999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="K3">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="L3">
-        <v>95.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="M3">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N3">
         <v>98.8</v>
@@ -2400,34 +2432,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="C4">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D4">
-        <v>95.5</v>
+        <v>96.2</v>
       </c>
       <c r="E4">
-        <v>94.69999999999999</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="F4">
-        <v>97.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="H4">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="I4">
-        <v>98.5</v>
+        <v>99.2</v>
       </c>
       <c r="J4">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="K4">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2450,46 +2482,46 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>36.6</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>4.100000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="F5">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="G5">
-        <v>10.9</v>
+        <v>10.3</v>
       </c>
       <c r="H5">
-        <v>37.5</v>
+        <v>39.7</v>
       </c>
       <c r="I5">
-        <v>38.9</v>
+        <v>35.6</v>
       </c>
       <c r="J5">
-        <v>23.7</v>
+        <v>26.3</v>
       </c>
       <c r="K5">
-        <v>16.6</v>
+        <v>15.3</v>
       </c>
       <c r="L5">
-        <v>21.8</v>
+        <v>22.6</v>
       </c>
       <c r="M5">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="N5">
-        <v>60</v>
+        <v>59.8</v>
       </c>
       <c r="O5">
-        <v>43.3</v>
+        <v>48.1</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -2500,43 +2532,43 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>9.300000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="C6">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="D6">
-        <v>84.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="E6">
-        <v>60.4</v>
+        <v>61.3</v>
       </c>
       <c r="F6">
-        <v>55.8</v>
+        <v>53.6</v>
       </c>
       <c r="G6">
-        <v>60.8</v>
+        <v>61.8</v>
       </c>
       <c r="H6">
-        <v>56.39999999999999</v>
+        <v>52.6</v>
       </c>
       <c r="I6">
-        <v>33.6</v>
+        <v>34.3</v>
       </c>
       <c r="J6">
-        <v>56.49999999999999</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="K6">
-        <v>41.6</v>
+        <v>42.7</v>
       </c>
       <c r="L6">
-        <v>58.09999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="M6">
-        <v>79.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N6">
-        <v>84.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2550,43 +2582,43 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C7">
-        <v>34.3</v>
+        <v>36.1</v>
       </c>
       <c r="D7">
-        <v>58.5</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="E7">
-        <v>84.2</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>90.60000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="G7">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="H7">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="I7">
-        <v>97</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="J7">
         <v>99</v>
       </c>
       <c r="K7">
-        <v>97.8</v>
+        <v>97.3</v>
       </c>
       <c r="L7">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="M7">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="N7">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2600,46 +2632,46 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>68.30000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C8">
-        <v>70.7</v>
+        <v>69.8</v>
       </c>
       <c r="D8">
-        <v>76.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E8">
-        <v>64.5</v>
+        <v>61.3</v>
       </c>
       <c r="F8">
-        <v>33.7</v>
+        <v>35.4</v>
       </c>
       <c r="G8">
-        <v>64.40000000000001</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>43.4</v>
+        <v>42.2</v>
       </c>
       <c r="I8">
-        <v>62.4</v>
+        <v>62.1</v>
       </c>
       <c r="J8">
-        <v>33.90000000000001</v>
+        <v>34.3</v>
       </c>
       <c r="K8">
-        <v>63.5</v>
+        <v>63.6</v>
       </c>
       <c r="L8">
-        <v>75.09999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="M8">
-        <v>46.2</v>
+        <v>45.4</v>
       </c>
       <c r="N8">
-        <v>49.7</v>
+        <v>50.8</v>
       </c>
       <c r="O8">
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2650,37 +2682,37 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>41.09999999999999</v>
+        <v>38.2</v>
       </c>
       <c r="D9">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="E9">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J9">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2700,40 +2732,40 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>77.3</v>
+        <v>78.8</v>
       </c>
       <c r="D10">
-        <v>55.3</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="E10">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>19.3</v>
+        <v>21.4</v>
       </c>
       <c r="G10">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H10">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K10">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2750,46 +2782,46 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="C11">
-        <v>94.39999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="D11">
-        <v>64.90000000000001</v>
+        <v>63.8</v>
       </c>
       <c r="E11">
-        <v>85.7</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F11">
-        <v>90.2</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G11">
-        <v>81.10000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="H11">
-        <v>61.2</v>
+        <v>62.9</v>
       </c>
       <c r="I11">
-        <v>68.40000000000001</v>
+        <v>69.89999999999999</v>
       </c>
       <c r="J11">
-        <v>86.7</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="K11">
-        <v>79.2</v>
+        <v>78.2</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>53.5</v>
       </c>
       <c r="M11">
-        <v>35.2</v>
+        <v>36.2</v>
       </c>
       <c r="N11">
-        <v>7.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="O11">
-        <v>33.3</v>
+        <v>29.3</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2810,28 +2842,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2842,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>114.66</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2871,13 +2903,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>116.6</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2900,13 +2932,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>121.33</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2929,13 +2961,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>131.28</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2958,13 +2990,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>89.98999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2987,13 +3019,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>102.42</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3016,13 +3048,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>103.17</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3045,13 +3077,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>108.36</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3074,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>113.2</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3103,13 +3135,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>124.22</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3139,31 +3171,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3171,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0.6428571428571429</v>
@@ -3189,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3200,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>0.6428571428571429</v>
@@ -3218,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3229,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>0.7142857142857143</v>
@@ -3247,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3258,7 +3290,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -3276,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3287,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.5714285714285714</v>
@@ -3305,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3316,7 +3348,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3334,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3345,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -3363,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3374,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>0.2142857142857143</v>
@@ -3392,10 +3424,10 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3403,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>0.2857142857142857</v>
@@ -3421,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3432,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -3450,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3462,236 +3494,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>-5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8">
-        <v>-26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>-29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10">
-        <v>-30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>-54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3701,55 +3503,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3804,8 +3606,8 @@
       <c r="Q2">
         <v>58</v>
       </c>
-      <c r="R2" t="s">
-        <v>106</v>
+      <c r="R2">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3860,8 +3662,8 @@
       <c r="Q3">
         <v>41</v>
       </c>
-      <c r="R3" t="s">
-        <v>107</v>
+      <c r="R3">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3916,8 +3718,8 @@
       <c r="Q4">
         <v>30</v>
       </c>
-      <c r="R4" t="s">
-        <v>108</v>
+      <c r="R4">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3972,8 +3774,8 @@
       <c r="Q5">
         <v>10</v>
       </c>
-      <c r="R5" t="s">
-        <v>107</v>
+      <c r="R5">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4028,8 +3830,8 @@
       <c r="Q6">
         <v>6</v>
       </c>
-      <c r="R6" t="s">
-        <v>109</v>
+      <c r="R6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4084,8 +3886,8 @@
       <c r="Q7">
         <v>-5</v>
       </c>
-      <c r="R7" t="s">
-        <v>109</v>
+      <c r="R7">
+        <v>-4</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4140,8 +3942,8 @@
       <c r="Q8">
         <v>-26</v>
       </c>
-      <c r="R8" t="s">
-        <v>110</v>
+      <c r="R8">
+        <v>-24</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4196,8 +3998,8 @@
       <c r="Q9">
         <v>-29</v>
       </c>
-      <c r="R9" t="s">
-        <v>110</v>
+      <c r="R9">
+        <v>-29</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4252,8 +4054,8 @@
       <c r="Q10">
         <v>-30</v>
       </c>
-      <c r="R10" t="s">
-        <v>111</v>
+      <c r="R10">
+        <v>-37</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4308,8 +4110,667 @@
       <c r="Q11">
         <v>-54</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>32</v>
+      </c>
+      <c r="L2">
+        <v>29</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <v>58</v>
+      </c>
+      <c r="R2">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>41</v>
+      </c>
+      <c r="R3">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>22</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-4</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-13</v>
+      </c>
+      <c r="D7">
+        <v>-17</v>
+      </c>
+      <c r="E7">
+        <v>-13</v>
+      </c>
+      <c r="F7">
+        <v>-17</v>
+      </c>
+      <c r="G7">
+        <v>-19</v>
+      </c>
+      <c r="H7">
+        <v>-23</v>
+      </c>
+      <c r="I7">
+        <v>-17</v>
+      </c>
+      <c r="J7">
+        <v>-12</v>
+      </c>
+      <c r="K7">
+        <v>-13</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7">
+        <v>-13</v>
+      </c>
+      <c r="N7">
+        <v>-8</v>
+      </c>
+      <c r="O7">
+        <v>-10</v>
+      </c>
+      <c r="P7">
+        <v>-7</v>
+      </c>
+      <c r="Q7">
+        <v>-5</v>
+      </c>
+      <c r="R7">
+        <v>-4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-19</v>
+      </c>
+      <c r="F8">
+        <v>-20</v>
+      </c>
+      <c r="G8">
+        <v>-20</v>
+      </c>
+      <c r="H8">
+        <v>-17</v>
+      </c>
+      <c r="I8">
+        <v>-11</v>
+      </c>
+      <c r="J8">
+        <v>-11</v>
+      </c>
+      <c r="K8">
+        <v>-12</v>
+      </c>
+      <c r="L8">
+        <v>-8</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8">
+        <v>-8</v>
+      </c>
+      <c r="O8">
+        <v>-12</v>
+      </c>
+      <c r="P8">
+        <v>-20</v>
+      </c>
+      <c r="Q8">
+        <v>-26</v>
+      </c>
+      <c r="R8">
+        <v>-24</v>
+      </c>
+      <c r="S8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <v>-12</v>
+      </c>
+      <c r="K9">
+        <v>-18</v>
+      </c>
+      <c r="L9">
+        <v>-17</v>
+      </c>
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9">
+        <v>-22</v>
+      </c>
+      <c r="O9">
+        <v>-20</v>
+      </c>
+      <c r="P9">
+        <v>-23</v>
+      </c>
+      <c r="Q9">
+        <v>-29</v>
+      </c>
+      <c r="R9">
+        <v>-29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>-5</v>
+      </c>
+      <c r="K10">
+        <v>-2</v>
+      </c>
+      <c r="L10">
+        <v>-5</v>
+      </c>
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10">
+        <v>-14</v>
+      </c>
+      <c r="O10">
+        <v>-16</v>
+      </c>
+      <c r="P10">
+        <v>-22</v>
+      </c>
+      <c r="Q10">
+        <v>-30</v>
+      </c>
+      <c r="R10">
+        <v>-37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-7</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>-2</v>
+      </c>
+      <c r="H11">
+        <v>-6</v>
+      </c>
+      <c r="I11">
+        <v>-14</v>
+      </c>
+      <c r="J11">
+        <v>-20</v>
+      </c>
+      <c r="K11">
+        <v>-24</v>
+      </c>
+      <c r="L11">
+        <v>-30</v>
+      </c>
+      <c r="M11">
+        <v>-36</v>
+      </c>
+      <c r="N11">
+        <v>-37</v>
+      </c>
+      <c r="O11">
+        <v>-41</v>
+      </c>
+      <c r="P11">
+        <v>-46</v>
+      </c>
+      <c r="Q11">
+        <v>-54</v>
+      </c>
+      <c r="R11">
+        <v>-59</v>
+      </c>
+      <c r="S11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Brown Munde 2025.xlsx
+++ b/leagues/Brown Munde 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="139">
   <si>
     <t>Still Rollin'</t>
   </si>
@@ -111,6 +115,222 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>KASHYAP AShok</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Hark Nanda</t>
+  </si>
+  <si>
+    <t>suraj bhalani</t>
+  </si>
+  <si>
+    <t>Krishna Padodara</t>
+  </si>
+  <si>
+    <t>Kiran MADUGULA</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -118,36 +338,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>KASHYAP AShok</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Krishna Padodara</t>
-  </si>
-  <si>
-    <t>suraj bhalani</t>
-  </si>
-  <si>
-    <t>Kiran MADUGULA</t>
-  </si>
-  <si>
-    <t>Hark Nanda</t>
   </si>
   <si>
     <t>↓4</t>
@@ -1000,6 +1190,302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>-8</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>-17</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-13</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-19</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-23</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>-37</v>
+      </c>
+      <c r="F9">
+        <v>-59</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-18</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1363,6 +1849,1658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>72.89999999999999</v>
+      </c>
+      <c r="C2">
+        <v>25.7</v>
+      </c>
+      <c r="D2">
+        <v>56.8</v>
+      </c>
+      <c r="E2">
+        <v>87.2</v>
+      </c>
+      <c r="F2">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G2">
+        <v>96.5</v>
+      </c>
+      <c r="H2">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I2">
+        <v>99.8</v>
+      </c>
+      <c r="J2">
+        <v>99.8</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13.6</v>
+      </c>
+      <c r="C3">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D3">
+        <v>77.3</v>
+      </c>
+      <c r="E3">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>97.5</v>
+      </c>
+      <c r="G3">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>96.2</v>
+      </c>
+      <c r="I3">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="J3">
+        <v>95.5</v>
+      </c>
+      <c r="K3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="M3">
+        <v>99.5</v>
+      </c>
+      <c r="N3">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>98.7</v>
+      </c>
+      <c r="D4">
+        <v>96.5</v>
+      </c>
+      <c r="E4">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="G4">
+        <v>98.3</v>
+      </c>
+      <c r="H4">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I4">
+        <v>98.8</v>
+      </c>
+      <c r="J4">
+        <v>99.8</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>35.7</v>
+      </c>
+      <c r="C5">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>4.7</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>8.5</v>
+      </c>
+      <c r="H5">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="I5">
+        <v>36.5</v>
+      </c>
+      <c r="J5">
+        <v>27.4</v>
+      </c>
+      <c r="K5">
+        <v>15.9</v>
+      </c>
+      <c r="L5">
+        <v>21.2</v>
+      </c>
+      <c r="M5">
+        <v>39.4</v>
+      </c>
+      <c r="N5">
+        <v>60.7</v>
+      </c>
+      <c r="O5">
+        <v>46.6</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>13.1</v>
+      </c>
+      <c r="C6">
+        <v>51.1</v>
+      </c>
+      <c r="D6">
+        <v>84.5</v>
+      </c>
+      <c r="E6">
+        <v>62.4</v>
+      </c>
+      <c r="F6">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>61.4</v>
+      </c>
+      <c r="H6">
+        <v>55.8</v>
+      </c>
+      <c r="I6">
+        <v>32.6</v>
+      </c>
+      <c r="J6">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="K6">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>59.3</v>
+      </c>
+      <c r="M6">
+        <v>80.60000000000001</v>
+      </c>
+      <c r="N6">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>99.8</v>
+      </c>
+      <c r="C7">
+        <v>32.3</v>
+      </c>
+      <c r="D7">
+        <v>55.2</v>
+      </c>
+      <c r="E7">
+        <v>86</v>
+      </c>
+      <c r="F7">
+        <v>93.2</v>
+      </c>
+      <c r="G7">
+        <v>95.7</v>
+      </c>
+      <c r="H7">
+        <v>98.2</v>
+      </c>
+      <c r="I7">
+        <v>96.8</v>
+      </c>
+      <c r="J7">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K7">
+        <v>97.2</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>99.3</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="C8">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>78.8</v>
+      </c>
+      <c r="E8">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="F8">
+        <v>35.4</v>
+      </c>
+      <c r="G8">
+        <v>65.5</v>
+      </c>
+      <c r="H8">
+        <v>41.5</v>
+      </c>
+      <c r="I8">
+        <v>63.4</v>
+      </c>
+      <c r="J8">
+        <v>31.5</v>
+      </c>
+      <c r="K8">
+        <v>61.7</v>
+      </c>
+      <c r="L8">
+        <v>73.5</v>
+      </c>
+      <c r="M8">
+        <v>46.7</v>
+      </c>
+      <c r="N8">
+        <v>49.7</v>
+      </c>
+      <c r="O8">
+        <v>22.5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>19.3</v>
+      </c>
+      <c r="E9">
+        <v>4.6</v>
+      </c>
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>1.6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1.9</v>
+      </c>
+      <c r="J9">
+        <v>4.7</v>
+      </c>
+      <c r="K9">
+        <v>1.4</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C10">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="D10">
+        <v>54.7</v>
+      </c>
+      <c r="E10">
+        <v>23.9</v>
+      </c>
+      <c r="F10">
+        <v>19.8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>5.1</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>0.1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>99.7</v>
+      </c>
+      <c r="C11">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D11">
+        <v>63.9</v>
+      </c>
+      <c r="E11">
+        <v>88.2</v>
+      </c>
+      <c r="F11">
+        <v>90.8</v>
+      </c>
+      <c r="G11">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="H11">
+        <v>59.3</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>86.7</v>
+      </c>
+      <c r="K11">
+        <v>79.2</v>
+      </c>
+      <c r="L11">
+        <v>52.1</v>
+      </c>
+      <c r="M11">
+        <v>34.8</v>
+      </c>
+      <c r="N11">
+        <v>7.1</v>
+      </c>
+      <c r="O11">
+        <v>30.9</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>114.66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>116.6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>121.33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>131.28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>102.42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>103.17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>108.36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>113.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>124.22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D2">
+        <v>114.6628571428571</v>
+      </c>
+      <c r="E2">
+        <v>1605.28</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D3">
+        <v>116.6</v>
+      </c>
+      <c r="E3">
+        <v>1632.4</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D4">
+        <v>131.2828571428572</v>
+      </c>
+      <c r="E4">
+        <v>1837.96</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>103.1685714285714</v>
+      </c>
+      <c r="E5">
+        <v>1444.36</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>113.1957142857143</v>
+      </c>
+      <c r="E6">
+        <v>1584.74</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <v>124.2157142857143</v>
+      </c>
+      <c r="E7">
+        <v>1739.02</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D8">
+        <v>121.33</v>
+      </c>
+      <c r="E8">
+        <v>1698.62</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D9">
+        <v>89.99285714285713</v>
+      </c>
+      <c r="E9">
+        <v>1259.9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D10">
+        <v>102.4185714285714</v>
+      </c>
+      <c r="E10">
+        <v>1433.86</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D11">
+        <v>108.3628571428572</v>
+      </c>
+      <c r="E11">
+        <v>1517.08</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1374,16 +3512,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1394,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>54</v>
@@ -1403,7 +3541,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1414,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>44</v>
@@ -1423,7 +3561,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1434,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>34</v>
@@ -1443,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1454,7 +3592,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -1463,7 +3601,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1474,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1483,7 +3621,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1494,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>-4</v>
@@ -1503,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1514,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>-24</v>
@@ -1523,7 +3661,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1534,7 +3672,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>-29</v>
@@ -1543,7 +3681,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1554,7 +3692,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>-37</v>
@@ -1563,7 +3701,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1574,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>-59</v>
@@ -1583,7 +3721,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +3729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -1601,58 +3739,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1711,7 +3849,7 @@
         <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1770,7 +3908,7 @@
         <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1829,7 +3967,7 @@
         <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1888,7 +4026,7 @@
         <v>16</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1947,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2006,7 +4144,7 @@
         <v>-4</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2065,7 +4203,7 @@
         <v>-24</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2124,7 +4262,7 @@
         <v>-29</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2183,7 +4321,7 @@
         <v>-37</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2242,303 +4380,7 @@
         <v>-59</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>54</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>-8</v>
-      </c>
-      <c r="G3">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>-17</v>
-      </c>
-      <c r="F4">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>-13</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-19</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-23</v>
-      </c>
-      <c r="G8">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>-37</v>
-      </c>
-      <c r="F9">
-        <v>-59</v>
-      </c>
-      <c r="G9">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>-17</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>-18</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
